--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinopc\Project\mn-transparency\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C69BC9A-3F3B-4066-AB26-5BE358840722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5158B8-44A9-4446-9A5D-A2AA1603BBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="516">
   <si>
     <t>Código</t>
   </si>
@@ -1559,17 +1548,91 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t xml:space="preserve">Suco detox é uma bebida feita com frutas, verduras, ervas e outros ingredientes naturais. O termo "detox" refere-se à desintoxicação, ou seja, à eliminação de toxinas e resíduos do corpo.  Os sucos detox são ricos em nutrientes, como fibras, vitaminas e minerais, e podem ajudar a melhorar o sistema imunológico e digestivo. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Suco Detox Verde </t>
+  </si>
+  <si>
+    <t>Refresque-se e sinta-se renovado com o nosso Suco Detox! Uma combinação de frutas e vegetais frescos, pensada para ajudar a purificar o corpo e aumentar sua energia. Rico em fibras, vitaminas e antioxidantes, esse suco é a escolha ideal para o seu bem-estar.</t>
+  </si>
+  <si>
+    <t>Salgado</t>
+  </si>
+  <si>
+    <t>666 calorias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nosso Salgado Integral é feito com ingredientes naturais e de qualidade, combinando o sabor delicioso com os benefícios das fibras e nutrientes. Perfeito para quem busca uma opção mais leve, sem abrir mão do sabor irresistível. </t>
+  </si>
+  <si>
+    <t>Unidade</t>
+  </si>
+  <si>
+    <t>1 unidade</t>
+  </si>
+  <si>
+    <t>Imagem</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;img </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>className</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">="im-product" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>src</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">="/mn-transparency/imagens/salgado.png" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>alt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="Descrição"&gt;&lt;/img&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1582,6 +1645,17 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1619,7 +1693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1629,6 +1703,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1963,20 +2040,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
-  <dimension ref="A1:G249"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B192" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="56.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="56.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1984,20 +2061,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>373137</v>
       </c>
@@ -2005,18 +2087,19 @@
         <v>8</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>14.9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>373149</v>
       </c>
@@ -2024,18 +2107,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>14.9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>373150</v>
       </c>
@@ -2043,18 +2127,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>14.9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>373088</v>
       </c>
@@ -2062,18 +2147,19 @@
         <v>259</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>14.9</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>301652</v>
       </c>
@@ -2081,18 +2167,19 @@
         <v>260</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>14.9</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>301640</v>
       </c>
@@ -2100,18 +2187,19 @@
         <v>261</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>14.9</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>466187</v>
       </c>
@@ -2119,18 +2207,19 @@
         <v>262</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14.9</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>373174</v>
       </c>
@@ -2138,18 +2227,19 @@
         <v>263</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14.9</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>373101</v>
       </c>
@@ -2157,18 +2247,19 @@
         <v>264</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13.6</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>373090</v>
       </c>
@@ -2176,18 +2267,19 @@
         <v>265</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>13.6</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>301580</v>
       </c>
@@ -2195,18 +2287,19 @@
         <v>266</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13.6</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>549132</v>
       </c>
@@ -2214,18 +2307,19 @@
         <v>267</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>13.6</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>373125</v>
       </c>
@@ -2233,18 +2327,19 @@
         <v>268</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13.6</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>373113</v>
       </c>
@@ -2252,18 +2347,19 @@
         <v>269</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>13.6</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>301615</v>
       </c>
@@ -2271,18 +2367,19 @@
         <v>270</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>13.6</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>467966</v>
       </c>
@@ -2290,18 +2387,19 @@
         <v>271</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2.5</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>301334</v>
       </c>
@@ -2309,18 +2407,19 @@
         <v>272</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>1.5</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>301322</v>
       </c>
@@ -2328,18 +2427,19 @@
         <v>273</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>5</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>191012</v>
       </c>
@@ -2347,18 +2447,19 @@
         <v>274</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>301933</v>
       </c>
@@ -2366,18 +2467,19 @@
         <v>275</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>301945</v>
       </c>
@@ -2385,16 +2487,17 @@
         <v>276</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>301921</v>
       </c>
@@ -2402,18 +2505,19 @@
         <v>277</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>301872</v>
       </c>
@@ -2421,18 +2525,19 @@
         <v>278</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1.5</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>301310</v>
       </c>
@@ -2440,18 +2545,19 @@
         <v>279</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>3.5</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>447340</v>
       </c>
@@ -2459,35 +2565,37 @@
         <v>280</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>17.5</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>281</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8.9</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>391636</v>
       </c>
@@ -2495,18 +2603,19 @@
         <v>282</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>201083</v>
       </c>
@@ -2514,18 +2623,19 @@
         <v>283</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>2.5</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>175569</v>
       </c>
@@ -2533,18 +2643,19 @@
         <v>284</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>1.5</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>205387</v>
       </c>
@@ -2552,18 +2663,19 @@
         <v>285</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="3">
         <v>1.5</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>542670</v>
       </c>
@@ -2571,18 +2683,19 @@
         <v>286</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>14.9</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>542668</v>
       </c>
@@ -2590,18 +2703,19 @@
         <v>287</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14.9</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>466090</v>
       </c>
@@ -2609,18 +2723,19 @@
         <v>288</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>7.9</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>344600</v>
       </c>
@@ -2628,18 +2743,19 @@
         <v>289</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>9.9</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>554474</v>
       </c>
@@ -2647,18 +2763,19 @@
         <v>290</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F36" s="3">
         <v>13.9</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>447999</v>
       </c>
@@ -2666,18 +2783,19 @@
         <v>291</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>6.9</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>344612</v>
       </c>
@@ -2685,18 +2803,19 @@
         <v>292</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>9.9</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>490084</v>
       </c>
@@ -2704,18 +2823,19 @@
         <v>293</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>9.9</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>182453</v>
       </c>
@@ -2723,18 +2843,19 @@
         <v>294</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>6.9</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>466102</v>
       </c>
@@ -2742,18 +2863,19 @@
         <v>295</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>7.9</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>437038</v>
       </c>
@@ -2761,18 +2883,19 @@
         <v>296</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>15.9</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>336524</v>
       </c>
@@ -2780,18 +2903,19 @@
         <v>297</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>15.9</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>522359</v>
       </c>
@@ -2799,18 +2923,19 @@
         <v>298</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>12.9</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>373235</v>
       </c>
@@ -2818,18 +2943,19 @@
         <v>299</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>15.9</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>466175</v>
       </c>
@@ -2837,18 +2963,19 @@
         <v>300</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5.9</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>525753</v>
       </c>
@@ -2856,18 +2983,19 @@
         <v>301</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>8.5</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>403933</v>
       </c>
@@ -2875,18 +3003,19 @@
         <v>302</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>8.5</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>174964</v>
       </c>
@@ -2894,18 +3023,19 @@
         <v>303</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <v>8.5</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>448385</v>
       </c>
@@ -2913,18 +3043,19 @@
         <v>304</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="3">
+      <c r="F50" s="3">
         <v>3.9</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>448397</v>
       </c>
@@ -2932,18 +3063,19 @@
         <v>305</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="3">
+      <c r="F51" s="3">
         <v>2.5</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>201474</v>
       </c>
@@ -2951,18 +3083,19 @@
         <v>306</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F52" s="4">
         <v>11.9</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>459035</v>
       </c>
@@ -2970,18 +3103,19 @@
         <v>307</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E53" s="3">
+      <c r="F53" s="3">
         <v>7.5</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>447390</v>
       </c>
@@ -2989,18 +3123,19 @@
         <v>308</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9.9</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>447339</v>
       </c>
@@ -3008,18 +3143,19 @@
         <v>309</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="3">
+      <c r="F55" s="3">
         <v>9.9</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>249210</v>
       </c>
@@ -3027,18 +3163,19 @@
         <v>310</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="3">
+      <c r="F56" s="3">
         <v>4.03</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>440705</v>
       </c>
@@ -3046,18 +3183,19 @@
         <v>311</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4.03</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>249234</v>
       </c>
@@ -3065,18 +3203,19 @@
         <v>312</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4.03</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>249246</v>
       </c>
@@ -3084,33 +3223,35 @@
         <v>313</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4.03</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>314</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="3"/>
+      <c r="G60" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>576837</v>
       </c>
@@ -3118,18 +3259,19 @@
         <v>315</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>429806</v>
       </c>
@@ -3137,18 +3279,19 @@
         <v>316</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E62" s="4">
+      <c r="F62" s="4">
         <v>8.5</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G62" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>205497</v>
       </c>
@@ -3156,18 +3299,19 @@
         <v>317</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E63" s="3">
+      <c r="F63" s="3">
         <v>13.9</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>209631</v>
       </c>
@@ -3175,18 +3319,19 @@
         <v>318</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="3">
+      <c r="F64" s="3">
         <v>9.9</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>284636</v>
       </c>
@@ -3194,18 +3339,19 @@
         <v>319</v>
       </c>
       <c r="C65" s="3"/>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="3"/>
+      <c r="E65" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E65" s="3">
+      <c r="F65" s="3">
         <v>3.4</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>284650</v>
       </c>
@@ -3213,18 +3359,19 @@
         <v>320</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="3"/>
+      <c r="E66" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>356271</v>
       </c>
@@ -3232,18 +3379,19 @@
         <v>321</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E67" s="3">
+      <c r="F67" s="3">
         <v>2.5</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>184532</v>
       </c>
@@ -3251,18 +3399,19 @@
         <v>322</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="3"/>
+      <c r="E68" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E68" s="3">
+      <c r="F68" s="3">
         <v>4.5</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>184544</v>
       </c>
@@ -3270,18 +3419,19 @@
         <v>323</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="3"/>
+      <c r="E69" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E69" s="3">
+      <c r="F69" s="3">
         <v>4.5</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>284648</v>
       </c>
@@ -3289,18 +3439,19 @@
         <v>324</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>3.4</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="G70" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>345170</v>
       </c>
@@ -3308,18 +3459,19 @@
         <v>325</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="3"/>
+      <c r="E71" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E71" s="4">
+      <c r="F71" s="4">
         <v>9.5</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G71" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>466529</v>
       </c>
@@ -3327,18 +3479,19 @@
         <v>326</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E72" s="4">
+      <c r="F72" s="4">
         <v>7.9</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>466615</v>
       </c>
@@ -3346,18 +3499,19 @@
         <v>327</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="3"/>
+      <c r="E73" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E73" s="4">
+      <c r="F73" s="4">
         <v>7.9</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G73" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>193384</v>
       </c>
@@ -3365,18 +3519,19 @@
         <v>328</v>
       </c>
       <c r="C74" s="3"/>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="3"/>
+      <c r="E74" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E74" s="4">
+      <c r="F74" s="4">
         <v>8.5</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G74" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>415115</v>
       </c>
@@ -3384,18 +3539,19 @@
         <v>329</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E75" s="4">
+      <c r="F75" s="4">
         <v>8.5</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G75" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>175070</v>
       </c>
@@ -3403,18 +3559,19 @@
         <v>330</v>
       </c>
       <c r="C76" s="3"/>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="3"/>
+      <c r="E76" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E76" s="4">
+      <c r="F76" s="4">
         <v>8.5</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G76" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>491180</v>
       </c>
@@ -3422,18 +3579,19 @@
         <v>331</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="3"/>
+      <c r="E77" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E77" s="4">
+      <c r="F77" s="4">
         <v>8.5</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G77" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>266883</v>
       </c>
@@ -3441,18 +3599,19 @@
         <v>332</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="3"/>
+      <c r="E78" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E78" s="4">
+      <c r="F78" s="4">
         <v>8.5</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G78" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>478335</v>
       </c>
@@ -3460,18 +3619,19 @@
         <v>333</v>
       </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="3"/>
+      <c r="E79" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E79" s="4">
+      <c r="F79" s="4">
         <v>8.5</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G79" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>178010</v>
       </c>
@@ -3479,18 +3639,19 @@
         <v>334</v>
       </c>
       <c r="C80" s="3"/>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="3"/>
+      <c r="E80" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E80" s="4">
+      <c r="F80" s="4">
         <v>8.5</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G80" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>175093</v>
       </c>
@@ -3498,18 +3659,19 @@
         <v>335</v>
       </c>
       <c r="C81" s="3"/>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="3"/>
+      <c r="E81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E81" s="4">
+      <c r="F81" s="4">
         <v>8.5</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G81" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>447132</v>
       </c>
@@ -3517,18 +3679,19 @@
         <v>336</v>
       </c>
       <c r="C82" s="3"/>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="3"/>
+      <c r="E82" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E82" s="3">
+      <c r="F82" s="3">
         <v>4.99</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>459280</v>
       </c>
@@ -3536,18 +3699,19 @@
         <v>337</v>
       </c>
       <c r="C83" s="3"/>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="3"/>
+      <c r="E83" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E83" s="4">
+      <c r="F83" s="4">
         <v>8.5</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G83" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>295054</v>
       </c>
@@ -3555,18 +3719,19 @@
         <v>338</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="3"/>
+      <c r="E84" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E84" s="4">
+      <c r="F84" s="4">
         <v>8.5</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G84" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>178242</v>
       </c>
@@ -3574,18 +3739,19 @@
         <v>339</v>
       </c>
       <c r="C85" s="3"/>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="3"/>
+      <c r="E85" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E85" s="4">
+      <c r="F85" s="4">
         <v>8.5</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G85" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>175068</v>
       </c>
@@ -3593,18 +3759,19 @@
         <v>340</v>
       </c>
       <c r="C86" s="3"/>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="3"/>
+      <c r="E86" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E86" s="4">
+      <c r="F86" s="4">
         <v>8.5</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G86" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>448373</v>
       </c>
@@ -3612,18 +3779,19 @@
         <v>341</v>
       </c>
       <c r="C87" s="3"/>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="3"/>
+      <c r="E87" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E87" s="3">
+      <c r="F87" s="3">
         <v>9.9</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="G87" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>447388</v>
       </c>
@@ -3631,18 +3799,19 @@
         <v>342</v>
       </c>
       <c r="C88" s="3"/>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="3"/>
+      <c r="E88" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E88" s="3">
+      <c r="F88" s="3">
         <v>7.5</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="G88" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>447376</v>
       </c>
@@ -3650,18 +3819,19 @@
         <v>343</v>
       </c>
       <c r="C89" s="3"/>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="3"/>
+      <c r="E89" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4.2</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="G89" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>467991</v>
       </c>
@@ -3669,18 +3839,19 @@
         <v>344</v>
       </c>
       <c r="C90" s="3"/>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="3"/>
+      <c r="E90" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E90" s="3">
+      <c r="F90" s="3">
         <v>7.9</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="G90" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>284661</v>
       </c>
@@ -3688,18 +3859,19 @@
         <v>345</v>
       </c>
       <c r="C91" s="3"/>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3"/>
+      <c r="E91" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>2</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>576666</v>
       </c>
@@ -3707,18 +3879,19 @@
         <v>346</v>
       </c>
       <c r="C92" s="3"/>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="3"/>
+      <c r="E92" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E92" s="3">
+      <c r="F92" s="3">
         <v>4.99</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="G92" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G92" s="3"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>359664</v>
       </c>
@@ -3726,18 +3899,19 @@
         <v>347</v>
       </c>
       <c r="C93" s="3"/>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="3"/>
+      <c r="E93" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E93" s="3">
+      <c r="F93" s="3">
         <v>2</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="G93" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>532049</v>
       </c>
@@ -3745,18 +3919,19 @@
         <v>348</v>
       </c>
       <c r="C94" s="3"/>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="3"/>
+      <c r="E94" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3.5</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="G94" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>447364</v>
       </c>
@@ -3764,18 +3939,19 @@
         <v>349</v>
       </c>
       <c r="C95" s="3"/>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="3"/>
+      <c r="E95" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E95" s="3">
+      <c r="F95" s="3">
         <v>16.5</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="G95" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="3"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>547187</v>
       </c>
@@ -3783,18 +3959,19 @@
         <v>350</v>
       </c>
       <c r="C96" s="3"/>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="3"/>
+      <c r="E96" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>7.9</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="G96" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>230501</v>
       </c>
@@ -3802,18 +3979,19 @@
         <v>351</v>
       </c>
       <c r="C97" s="3"/>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="3"/>
+      <c r="E97" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E97" s="3">
+      <c r="F97" s="3">
         <v>1.5</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="G97" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G97" s="3"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>179287</v>
       </c>
@@ -3821,18 +3999,19 @@
         <v>352</v>
       </c>
       <c r="C98" s="3"/>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="3"/>
+      <c r="E98" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E98" s="3">
+      <c r="F98" s="3">
         <v>4.5</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="G98" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>179299</v>
       </c>
@@ -3840,18 +4019,19 @@
         <v>353</v>
       </c>
       <c r="C99" s="3"/>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="3"/>
+      <c r="E99" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E99" s="3">
+      <c r="F99" s="3">
         <v>4.5</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="G99" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>548098</v>
       </c>
@@ -3859,18 +4039,19 @@
         <v>354</v>
       </c>
       <c r="C100" s="3"/>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="3"/>
+      <c r="E100" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12.5</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="G100" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G100" s="3"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>557965</v>
       </c>
@@ -3878,18 +4059,19 @@
         <v>355</v>
       </c>
       <c r="C101" s="3"/>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="3"/>
+      <c r="E101" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2.99</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="G101" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G101" s="3"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>444070</v>
       </c>
@@ -3897,18 +4079,19 @@
         <v>356</v>
       </c>
       <c r="C102" s="3"/>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="3"/>
+      <c r="E102" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3.5</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="G102" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G102" s="3"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>178254</v>
       </c>
@@ -3916,18 +4099,19 @@
         <v>357</v>
       </c>
       <c r="C103" s="3"/>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="3"/>
+      <c r="E103" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E103" s="4">
+      <c r="F103" s="4">
         <v>8.5</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G103" s="3"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G103" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>434061</v>
       </c>
@@ -3935,18 +4119,19 @@
         <v>358</v>
       </c>
       <c r="C104" s="3"/>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="3"/>
+      <c r="E104" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E104" s="4">
+      <c r="F104" s="4">
         <v>8.5</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G104" s="3"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G104" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>175130</v>
       </c>
@@ -3954,18 +4139,19 @@
         <v>359</v>
       </c>
       <c r="C105" s="3"/>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="3"/>
+      <c r="E105" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E105" s="4">
+      <c r="F105" s="4">
         <v>8.5</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G105" s="3"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G105" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>184642</v>
       </c>
@@ -3973,18 +4159,19 @@
         <v>360</v>
       </c>
       <c r="C106" s="3"/>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="3"/>
+      <c r="E106" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E106" s="4">
+      <c r="F106" s="4">
         <v>8.5</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G106" s="3"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G106" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>175056</v>
       </c>
@@ -3992,18 +4179,19 @@
         <v>361</v>
       </c>
       <c r="C107" s="3"/>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="3"/>
+      <c r="E107" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E107" s="4">
+      <c r="F107" s="4">
         <v>8.5</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G107" s="3"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G107" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>466126</v>
       </c>
@@ -4011,18 +4199,19 @@
         <v>362</v>
       </c>
       <c r="C108" s="3"/>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="3"/>
+      <c r="E108" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E108" s="3">
+      <c r="F108" s="3">
         <v>14.9</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="G108" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G108" s="3"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>466114</v>
       </c>
@@ -4030,18 +4219,19 @@
         <v>363</v>
       </c>
       <c r="C109" s="3"/>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="3"/>
+      <c r="E109" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E109" s="3">
+      <c r="F109" s="3">
         <v>14.9</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="G109" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G109" s="3"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>466138</v>
       </c>
@@ -4049,18 +4239,19 @@
         <v>364</v>
       </c>
       <c r="C110" s="3"/>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="3"/>
+      <c r="E110" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E110" s="3">
+      <c r="F110" s="3">
         <v>14.9</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G110" s="3"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>466140</v>
       </c>
@@ -4068,18 +4259,19 @@
         <v>365</v>
       </c>
       <c r="C111" s="3"/>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="3"/>
+      <c r="E111" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E111" s="3">
+      <c r="F111" s="3">
         <v>14.9</v>
       </c>
-      <c r="F111" s="3" t="s">
+      <c r="G111" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G111" s="3"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>447327</v>
       </c>
@@ -4087,18 +4279,19 @@
         <v>366</v>
       </c>
       <c r="C112" s="3"/>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="3"/>
+      <c r="E112" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E112" s="3">
+      <c r="F112" s="3">
         <v>6.9</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="G112" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G112" s="3"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>448409</v>
       </c>
@@ -4106,18 +4299,19 @@
         <v>367</v>
       </c>
       <c r="C113" s="3"/>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="3"/>
+      <c r="E113" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E113" s="3">
+      <c r="F113" s="3">
         <v>6.9</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="G113" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G113" s="3"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>457066</v>
       </c>
@@ -4125,18 +4319,19 @@
         <v>368</v>
       </c>
       <c r="C114" s="3"/>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="3"/>
+      <c r="E114" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E114" s="3">
+      <c r="F114" s="3">
         <v>14.9</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="G114" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G114" s="3"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>466786</v>
       </c>
@@ -4144,18 +4339,19 @@
         <v>369</v>
       </c>
       <c r="C115" s="3"/>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="3"/>
+      <c r="E115" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E115" s="3">
+      <c r="F115" s="3">
         <v>14.9</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="G115" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G115" s="3"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>466517</v>
       </c>
@@ -4163,18 +4359,19 @@
         <v>370</v>
       </c>
       <c r="C116" s="3"/>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="3"/>
+      <c r="E116" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E116" s="3">
+      <c r="F116" s="3">
         <v>14.9</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="G116" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G116" s="3"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>466627</v>
       </c>
@@ -4182,18 +4379,19 @@
         <v>371</v>
       </c>
       <c r="C117" s="3"/>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="3"/>
+      <c r="E117" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E117" s="3">
+      <c r="F117" s="3">
         <v>14.9</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="G117" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G117" s="3"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>466774</v>
       </c>
@@ -4201,18 +4399,19 @@
         <v>372</v>
       </c>
       <c r="C118" s="3"/>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="3"/>
+      <c r="E118" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E118" s="3">
+      <c r="F118" s="3">
         <v>14.9</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="G118" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G118" s="3"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>471224</v>
       </c>
@@ -4220,18 +4419,19 @@
         <v>373</v>
       </c>
       <c r="C119" s="3"/>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="3"/>
+      <c r="E119" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E119" s="3">
+      <c r="F119" s="3">
         <v>14.9</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="G119" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G119" s="3"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>474581</v>
       </c>
@@ -4239,18 +4439,19 @@
         <v>374</v>
       </c>
       <c r="C120" s="3"/>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="3"/>
+      <c r="E120" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E120" s="3">
+      <c r="F120" s="3">
         <v>14.9</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="G120" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G120" s="3"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>367874</v>
       </c>
@@ -4258,18 +4459,19 @@
         <v>505</v>
       </c>
       <c r="C121" s="3"/>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="3"/>
+      <c r="E121" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E121" s="4">
+      <c r="F121" s="4">
         <v>8.5</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G121" s="3"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G121" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>415127</v>
       </c>
@@ -4277,18 +4479,19 @@
         <v>375</v>
       </c>
       <c r="C122" s="3"/>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="3"/>
+      <c r="E122" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E122" s="4">
+      <c r="F122" s="4">
         <v>8.5</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G122" s="3"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G122" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>182489</v>
       </c>
@@ -4296,18 +4499,19 @@
         <v>376</v>
       </c>
       <c r="C123" s="3"/>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="3"/>
+      <c r="E123" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E123" s="3">
+      <c r="F123" s="3">
         <v>2.9</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="G123" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G123" s="3"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>179911</v>
       </c>
@@ -4315,18 +4519,19 @@
         <v>377</v>
       </c>
       <c r="C124" s="3"/>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="3"/>
+      <c r="E124" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E124" s="4">
+      <c r="F124" s="4">
         <v>8.9</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G124" s="3"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G124" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>230549</v>
       </c>
@@ -4334,18 +4539,19 @@
         <v>378</v>
       </c>
       <c r="C125" s="3"/>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="3"/>
+      <c r="E125" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E125" s="4">
+      <c r="F125" s="4">
         <v>9.9</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G125" s="3"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G125" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>447352</v>
       </c>
@@ -4353,18 +4559,19 @@
         <v>379</v>
       </c>
       <c r="C126" s="3"/>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E126" s="3">
+      <c r="F126" s="3">
         <v>12.9</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="G126" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G126" s="3"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>213426</v>
       </c>
@@ -4372,18 +4579,19 @@
         <v>380</v>
       </c>
       <c r="C127" s="3"/>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="3"/>
+      <c r="E127" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E127" s="3">
+      <c r="F127" s="3">
         <v>14.9</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="G127" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G127" s="3"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>216100</v>
       </c>
@@ -4391,18 +4599,19 @@
         <v>381</v>
       </c>
       <c r="C128" s="3"/>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="3"/>
+      <c r="E128" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E128" s="4">
+      <c r="F128" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G128" s="3"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G128" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H128" s="3"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>250907</v>
       </c>
@@ -4410,18 +4619,19 @@
         <v>382</v>
       </c>
       <c r="C129" s="3"/>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="3"/>
+      <c r="E129" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E129" s="4">
+      <c r="F129" s="4">
         <v>15.9</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G129" s="3"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G129" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>216098</v>
       </c>
@@ -4429,18 +4639,19 @@
         <v>383</v>
       </c>
       <c r="C130" s="3"/>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="3"/>
+      <c r="E130" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E130" s="4">
+      <c r="F130" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G130" s="3"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G130" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H130" s="3"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>502515</v>
       </c>
@@ -4448,18 +4659,19 @@
         <v>384</v>
       </c>
       <c r="C131" s="3"/>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="3"/>
+      <c r="E131" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E131" s="4">
+      <c r="F131" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G131" s="3"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G131" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>216086</v>
       </c>
@@ -4467,18 +4679,19 @@
         <v>385</v>
       </c>
       <c r="C132" s="3"/>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="3"/>
+      <c r="E132" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E132" s="4">
+      <c r="F132" s="4">
         <v>12.9</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G132" s="3"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G132" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>403566</v>
       </c>
@@ -4486,18 +4699,19 @@
         <v>386</v>
       </c>
       <c r="C133" s="3"/>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="3"/>
+      <c r="E133" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E133" s="4">
+      <c r="F133" s="4">
         <v>15.9</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G133" s="3"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G133" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>205131</v>
       </c>
@@ -4505,18 +4719,19 @@
         <v>387</v>
       </c>
       <c r="C134" s="3"/>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="3"/>
+      <c r="E134" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E134" s="4">
+      <c r="F134" s="4">
         <v>10.9</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G134" s="3"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G134" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H134" s="3"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>468401</v>
       </c>
@@ -4524,18 +4739,19 @@
         <v>388</v>
       </c>
       <c r="C135" s="3"/>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="3"/>
+      <c r="E135" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E135" s="4">
+      <c r="F135" s="4">
         <v>2</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G135" s="3"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G135" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>466163</v>
       </c>
@@ -4543,18 +4759,19 @@
         <v>389</v>
       </c>
       <c r="C136" s="3"/>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="3"/>
+      <c r="E136" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E136" s="3">
+      <c r="F136" s="3">
         <v>14.9</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="G136" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G136" s="3"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>466212</v>
       </c>
@@ -4562,18 +4779,19 @@
         <v>390</v>
       </c>
       <c r="C137" s="3"/>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="3"/>
+      <c r="E137" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E137" s="3">
+      <c r="F137" s="3">
         <v>14.9</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="G137" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G137" s="3"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>466151</v>
       </c>
@@ -4581,18 +4799,19 @@
         <v>391</v>
       </c>
       <c r="C138" s="3"/>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="3"/>
+      <c r="E138" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E138" s="3">
+      <c r="F138" s="3">
         <v>14.9</v>
       </c>
-      <c r="F138" s="3" t="s">
+      <c r="G138" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G138" s="3"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>466199</v>
       </c>
@@ -4600,18 +4819,19 @@
         <v>392</v>
       </c>
       <c r="C139" s="3"/>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="3"/>
+      <c r="E139" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E139" s="3">
+      <c r="F139" s="3">
         <v>14.9</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="G139" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G139" s="3"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>180447</v>
       </c>
@@ -4619,18 +4839,19 @@
         <v>393</v>
       </c>
       <c r="C140" s="3"/>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="3"/>
+      <c r="E140" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E140" s="4">
+      <c r="F140" s="4">
         <v>8.5</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G140" s="3"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G140" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>180459</v>
       </c>
@@ -4638,18 +4859,19 @@
         <v>394</v>
       </c>
       <c r="C141" s="3"/>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="3"/>
+      <c r="E141" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E141" s="4">
+      <c r="F141" s="4">
         <v>8.5</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G141" s="3"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G141" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>581570</v>
       </c>
@@ -4657,18 +4879,19 @@
         <v>395</v>
       </c>
       <c r="C142" s="3"/>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="3"/>
+      <c r="E142" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E142" s="4">
+      <c r="F142" s="4">
         <v>0.99</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G142" s="3"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G142" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>581617</v>
       </c>
@@ -4676,18 +4899,19 @@
         <v>396</v>
       </c>
       <c r="C143" s="3"/>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="3"/>
+      <c r="E143" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E143" s="4">
+      <c r="F143" s="4">
         <v>1.5</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G143" s="3"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G143" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>466872</v>
       </c>
@@ -4695,18 +4919,19 @@
         <v>397</v>
       </c>
       <c r="C144" s="3"/>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="3"/>
+      <c r="E144" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E144" s="4">
+      <c r="F144" s="4">
         <v>1.9</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G144" s="3"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G144" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>581605</v>
       </c>
@@ -4714,18 +4939,19 @@
         <v>398</v>
       </c>
       <c r="C145" s="3"/>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="3"/>
+      <c r="E145" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E145" s="4">
+      <c r="F145" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G145" s="3"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G145" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>466847</v>
       </c>
@@ -4733,18 +4959,19 @@
         <v>399</v>
       </c>
       <c r="C146" s="3"/>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="3"/>
+      <c r="E146" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E146" s="4">
+      <c r="F146" s="4">
         <v>1.9</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G146" s="3"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G146" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>502405</v>
       </c>
@@ -4752,18 +4979,19 @@
         <v>400</v>
       </c>
       <c r="C147" s="3"/>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="3"/>
+      <c r="E147" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E147" s="4">
+      <c r="F147" s="4">
         <v>6.9</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G147" s="3"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G147" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>466859</v>
       </c>
@@ -4771,18 +4999,19 @@
         <v>401</v>
       </c>
       <c r="C148" s="3"/>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="3"/>
+      <c r="E148" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E148" s="4">
+      <c r="F148" s="4">
         <v>1.9</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G148" s="3"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G148" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>581593</v>
       </c>
@@ -4790,18 +5019,19 @@
         <v>402</v>
       </c>
       <c r="C149" s="3"/>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="3"/>
+      <c r="E149" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E149" s="4">
+      <c r="F149" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F149" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G149" s="3"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G149" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>202947</v>
       </c>
@@ -4809,18 +5039,19 @@
         <v>403</v>
       </c>
       <c r="C150" s="3"/>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="3"/>
+      <c r="E150" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E150" s="4">
+      <c r="F150" s="4">
         <v>1.9</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G150" s="3"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G150" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>466835</v>
       </c>
@@ -4828,18 +5059,19 @@
         <v>404</v>
       </c>
       <c r="C151" s="3"/>
-      <c r="D151" s="3" t="s">
+      <c r="D151" s="3"/>
+      <c r="E151" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E151" s="4">
+      <c r="F151" s="4">
         <v>1.9</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G151" s="3"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G151" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>466860</v>
       </c>
@@ -4847,18 +5079,19 @@
         <v>405</v>
       </c>
       <c r="C152" s="3"/>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="3"/>
+      <c r="E152" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E152" s="4">
+      <c r="F152" s="4">
         <v>1.9</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G152" s="3"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G152" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>581581</v>
       </c>
@@ -4866,18 +5099,19 @@
         <v>406</v>
       </c>
       <c r="C153" s="3"/>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="3"/>
+      <c r="E153" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E153" s="4">
+      <c r="F153" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G153" s="3"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G153" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>301470</v>
       </c>
@@ -4885,18 +5119,19 @@
         <v>407</v>
       </c>
       <c r="C154" s="3"/>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="3"/>
+      <c r="E154" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E154" s="4">
+      <c r="F154" s="4">
         <v>6.9</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G154" s="3"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G154" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H154" s="3"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>198709</v>
       </c>
@@ -4904,18 +5139,19 @@
         <v>408</v>
       </c>
       <c r="C155" s="3"/>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="3"/>
+      <c r="E155" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E155" s="4">
+      <c r="F155" s="4">
         <v>6.99</v>
       </c>
-      <c r="F155" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G155" s="3"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G155" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>198673</v>
       </c>
@@ -4923,18 +5159,19 @@
         <v>409</v>
       </c>
       <c r="C156" s="3"/>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="3"/>
+      <c r="E156" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E156" s="4">
+      <c r="F156" s="4">
         <v>3.5</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G156" s="3"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G156" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>175044</v>
       </c>
@@ -4942,18 +5179,19 @@
         <v>410</v>
       </c>
       <c r="C157" s="3"/>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="3"/>
+      <c r="E157" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E157" s="4">
+      <c r="F157" s="4">
         <v>8.5</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G157" s="3"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G157" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H157" s="3"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>412113</v>
       </c>
@@ -4961,18 +5199,19 @@
         <v>411</v>
       </c>
       <c r="C158" s="3"/>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="3"/>
+      <c r="E158" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E158" s="4">
+      <c r="F158" s="4">
         <v>8.5</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G158" s="3"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G158" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>459279</v>
       </c>
@@ -4980,18 +5219,19 @@
         <v>412</v>
       </c>
       <c r="C159" s="3"/>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="3"/>
+      <c r="E159" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E159" s="4">
+      <c r="F159" s="4">
         <v>8.5</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G159" s="3"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G159" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>193372</v>
       </c>
@@ -4999,18 +5239,19 @@
         <v>413</v>
       </c>
       <c r="C160" s="3"/>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="3"/>
+      <c r="E160" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E160" s="4">
+      <c r="F160" s="4">
         <v>8.5</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G160" s="3"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G160" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>460855</v>
       </c>
@@ -5018,18 +5259,19 @@
         <v>414</v>
       </c>
       <c r="C161" s="3"/>
-      <c r="D161" s="3" t="s">
+      <c r="D161" s="3"/>
+      <c r="E161" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E161" s="4">
+      <c r="F161" s="4">
         <v>8.5</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G161" s="3"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G161" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>175019</v>
       </c>
@@ -5037,18 +5279,19 @@
         <v>415</v>
       </c>
       <c r="C162" s="3"/>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="3"/>
+      <c r="E162" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E162" s="4">
+      <c r="F162" s="4">
         <v>8.5</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G162" s="3"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G162" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H162" s="3"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>365245</v>
       </c>
@@ -5056,18 +5299,19 @@
         <v>416</v>
       </c>
       <c r="C163" s="3"/>
-      <c r="D163" s="3" t="s">
+      <c r="D163" s="3"/>
+      <c r="E163" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E163" s="4">
+      <c r="F163" s="4">
         <v>8.5</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G163" s="3"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G163" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>180570</v>
       </c>
@@ -5075,18 +5319,19 @@
         <v>417</v>
       </c>
       <c r="C164" s="3"/>
-      <c r="D164" s="3" t="s">
+      <c r="D164" s="3"/>
+      <c r="E164" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E164" s="4">
+      <c r="F164" s="4">
         <v>8.5</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G164" s="3"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G164" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>175020</v>
       </c>
@@ -5094,18 +5339,19 @@
         <v>418</v>
       </c>
       <c r="C165" s="3"/>
-      <c r="D165" s="3" t="s">
+      <c r="D165" s="3"/>
+      <c r="E165" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E165" s="4">
+      <c r="F165" s="4">
         <v>8.5</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G165" s="3"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G165" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>184605</v>
       </c>
@@ -5113,18 +5359,19 @@
         <v>419</v>
       </c>
       <c r="C166" s="3"/>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="3"/>
+      <c r="E166" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E166" s="4">
+      <c r="F166" s="4">
         <v>8.5</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G166" s="3"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G166" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>576361</v>
       </c>
@@ -5132,18 +5379,19 @@
         <v>420</v>
       </c>
       <c r="C167" s="3"/>
-      <c r="D167" s="3" t="s">
+      <c r="D167" s="3"/>
+      <c r="E167" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E167" s="4">
+      <c r="F167" s="4">
         <v>11.5</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="G167" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G167" s="3"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>209667</v>
       </c>
@@ -5151,16 +5399,17 @@
         <v>421</v>
       </c>
       <c r="C168" s="3"/>
-      <c r="D168" s="3" t="s">
+      <c r="D168" s="3"/>
+      <c r="E168" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3" t="s">
+      <c r="F168" s="3"/>
+      <c r="G168" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G168" s="3"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>202409</v>
       </c>
@@ -5168,18 +5417,19 @@
         <v>422</v>
       </c>
       <c r="C169" s="3"/>
-      <c r="D169" s="3" t="s">
+      <c r="D169" s="3"/>
+      <c r="E169" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E169" s="3">
+      <c r="F169" s="3">
         <v>5.5</v>
       </c>
-      <c r="F169" s="3" t="s">
+      <c r="G169" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G169" s="3"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>549229</v>
       </c>
@@ -5187,18 +5437,19 @@
         <v>423</v>
       </c>
       <c r="C170" s="3"/>
-      <c r="D170" s="3" t="s">
+      <c r="D170" s="3"/>
+      <c r="E170" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E170" s="3">
+      <c r="F170" s="3">
         <v>7.9</v>
       </c>
-      <c r="F170" s="3" t="s">
+      <c r="G170" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="G170" s="3"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>438267</v>
       </c>
@@ -5206,18 +5457,19 @@
         <v>424</v>
       </c>
       <c r="C171" s="3"/>
-      <c r="D171" s="3" t="s">
+      <c r="D171" s="3"/>
+      <c r="E171" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E171" s="4">
+      <c r="F171" s="4">
         <v>4.5</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G171" s="3"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G171" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>175154</v>
       </c>
@@ -5225,18 +5477,19 @@
         <v>425</v>
       </c>
       <c r="C172" s="3"/>
-      <c r="D172" s="3" t="s">
+      <c r="D172" s="3"/>
+      <c r="E172" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E172" s="4">
+      <c r="F172" s="4">
         <v>8.5</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G172" s="3"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G172" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>175142</v>
       </c>
@@ -5244,18 +5497,19 @@
         <v>426</v>
       </c>
       <c r="C173" s="3"/>
-      <c r="D173" s="3" t="s">
+      <c r="D173" s="3"/>
+      <c r="E173" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E173" s="4">
+      <c r="F173" s="4">
         <v>8.5</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G173" s="3"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G173" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>181420</v>
       </c>
@@ -5263,18 +5517,19 @@
         <v>427</v>
       </c>
       <c r="C174" s="3"/>
-      <c r="D174" s="3" t="s">
+      <c r="D174" s="3"/>
+      <c r="E174" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E174" s="4">
+      <c r="F174" s="4">
         <v>8.5</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G174" s="3"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G174" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>460867</v>
       </c>
@@ -5282,18 +5537,19 @@
         <v>428</v>
       </c>
       <c r="C175" s="3"/>
-      <c r="D175" s="3" t="s">
+      <c r="D175" s="3"/>
+      <c r="E175" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E175" s="4">
+      <c r="F175" s="4">
         <v>8.5</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G175" s="3"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G175" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>191158</v>
       </c>
@@ -5301,18 +5557,19 @@
         <v>429</v>
       </c>
       <c r="C176" s="3"/>
-      <c r="D176" s="3" t="s">
+      <c r="D176" s="3"/>
+      <c r="E176" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E176" s="3">
+      <c r="F176" s="3">
         <v>6</v>
       </c>
-      <c r="F176" s="3" t="s">
+      <c r="G176" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="G176" s="3"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176" s="3"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>243610</v>
       </c>
@@ -5320,18 +5577,19 @@
         <v>430</v>
       </c>
       <c r="C177" s="3"/>
-      <c r="D177" s="3" t="s">
+      <c r="D177" s="3"/>
+      <c r="E177" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E177" s="3">
+      <c r="F177" s="3">
         <v>6.9</v>
       </c>
-      <c r="F177" s="3" t="s">
+      <c r="G177" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G177" s="3"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177" s="3"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>191110</v>
       </c>
@@ -5339,1363 +5597,1461 @@
         <v>431</v>
       </c>
       <c r="C178" s="3"/>
-      <c r="D178" s="3" t="s">
+      <c r="D178" s="3"/>
+      <c r="E178" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E178" s="3">
+      <c r="F178" s="3">
         <v>7.9</v>
       </c>
-      <c r="F178" s="3" t="s">
+      <c r="G178" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G178" s="3"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
+        <v>2090723</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F179" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
         <v>278713</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B180" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3" t="s">
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E179" s="3">
+      <c r="F180" s="3">
         <v>5</v>
       </c>
-      <c r="F179" s="3" t="s">
+      <c r="G180" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G179" s="3"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
+      <c r="H180" s="3"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
         <v>181126</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B181" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3" t="s">
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E180" s="4">
+      <c r="F181" s="4">
         <v>7.9</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G180" s="3"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
+      <c r="G181" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
         <v>181138</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B182" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3" t="s">
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E181" s="4">
+      <c r="F182" s="4">
         <v>7.9</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G181" s="3"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+      <c r="G182" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H182" s="3"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
         <v>262774</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B183" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3" t="s">
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E182" s="4">
+      <c r="F183" s="4">
         <v>10.9</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G182" s="3"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
+      <c r="G183" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
         <v>301578</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B184" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3" t="s">
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E183" s="4">
+      <c r="F184" s="4">
         <v>12.9</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G183" s="3"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
+      <c r="G184" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H184" s="3"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
         <v>301542</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B185" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3" t="s">
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E184" s="4">
+      <c r="F185" s="4">
         <v>19.899999999999999</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G184" s="3"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
+      <c r="G185" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
         <v>301505</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B186" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3" t="s">
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E185" s="4">
+      <c r="F186" s="4">
         <v>12.9</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G185" s="3"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
+      <c r="G186" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H186" s="3"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
         <v>247619</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B187" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3" t="s">
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E186" s="3">
+      <c r="F187" s="3">
         <v>4</v>
       </c>
-      <c r="F186" s="3" t="s">
+      <c r="G187" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G186" s="3"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
+      <c r="H187" s="3"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
         <v>575168</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B188" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3" t="s">
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E187" s="3">
+      <c r="F188" s="3">
         <v>4</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="G188" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G187" s="3"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
         <v>301947</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B189" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3" t="s">
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E188" s="3">
+      <c r="F189" s="3">
         <v>16</v>
       </c>
-      <c r="F188" s="3" t="s">
+      <c r="G189" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G188" s="3"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
+      <c r="H189" s="3"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
         <v>576825</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B190" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3" t="s">
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E189" s="3">
+      <c r="F190" s="3">
         <v>12</v>
       </c>
-      <c r="F189" s="3" t="s">
+      <c r="G190" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G189" s="3"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
         <v>351556</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B191" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3" t="s">
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E190" s="3">
+      <c r="F191" s="3">
         <v>4</v>
       </c>
-      <c r="F190" s="3" t="s">
+      <c r="G191" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G190" s="3"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="3">
+      <c r="H191" s="3"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
         <v>301737</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B192" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3" t="s">
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E191" s="3">
+      <c r="F192" s="3">
         <v>6.8</v>
       </c>
-      <c r="F191" s="3" t="s">
+      <c r="G192" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G191" s="3"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
+      <c r="H192" s="3"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
         <v>301860</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B193" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3" t="s">
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E192" s="3">
+      <c r="F193" s="3">
         <v>9.9</v>
       </c>
-      <c r="F192" s="3" t="s">
+      <c r="G193" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G192" s="3"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
+      <c r="H193" s="3"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
         <v>499176</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B194" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3" t="s">
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E193" s="3">
+      <c r="F194" s="3">
         <v>2.99</v>
       </c>
-      <c r="F193" s="3" t="s">
+      <c r="G194" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G193" s="3"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
+      <c r="H194" s="3"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
         <v>481611</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B195" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3" t="s">
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E194" s="3">
+      <c r="F195" s="3">
         <v>2.99</v>
       </c>
-      <c r="F194" s="3" t="s">
+      <c r="G195" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G194" s="3"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="3">
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
         <v>481600</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B196" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3" t="s">
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E195" s="3">
+      <c r="F196" s="3">
         <v>2.99</v>
       </c>
-      <c r="F195" s="3" t="s">
+      <c r="G196" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G195" s="3"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
+      <c r="H196" s="3"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
         <v>570087</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B197" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3" t="s">
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E196" s="3">
+      <c r="F197" s="3">
         <v>2.5</v>
       </c>
-      <c r="F196" s="3" t="s">
+      <c r="G197" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G196" s="3"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
+      <c r="H197" s="3"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
         <v>573285</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B198" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3" t="s">
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E197" s="3">
+      <c r="F198" s="3">
         <v>2.5</v>
       </c>
-      <c r="F197" s="3" t="s">
+      <c r="G198" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G197" s="3"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
+      <c r="H198" s="3"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
         <v>570099</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B199" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3" t="s">
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E198" s="3">
+      <c r="F199" s="3">
         <v>2.5</v>
       </c>
-      <c r="F198" s="3" t="s">
+      <c r="G199" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G198" s="3"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="3">
+      <c r="H199" s="3"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
         <v>461375</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C199" s="3" t="s">
+      <c r="B200" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E199" s="3">
-        <v>4</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G199" s="3"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
-        <v>437040</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>452</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F200" s="3">
+        <v>4</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H200" s="3"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>437040</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E200" s="3">
+      <c r="F201" s="3">
         <v>5.6</v>
       </c>
-      <c r="F200" s="3" t="s">
+      <c r="G201" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G200" s="3"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
+      <c r="H201" s="3"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
         <v>301859</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B202" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3" t="s">
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E201" s="3">
+      <c r="F202" s="3">
         <v>8.9</v>
       </c>
-      <c r="F201" s="3" t="s">
+      <c r="G202" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G201" s="3"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
+      <c r="H202" s="3"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
         <v>301835</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B203" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3" t="s">
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E202" s="3">
+      <c r="F203" s="3">
         <v>9.9</v>
       </c>
-      <c r="F202" s="3" t="s">
+      <c r="G203" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G202" s="3"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
+      <c r="H203" s="3"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
         <v>182441</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B204" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3" t="s">
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E203" s="3">
+      <c r="F204" s="3">
         <v>3.5</v>
       </c>
-      <c r="F203" s="3" t="s">
+      <c r="G204" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G203" s="3"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
+      <c r="H204" s="3"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
         <v>182430</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B205" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3" t="s">
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E204" s="3">
+      <c r="F205" s="3">
         <v>2.5</v>
       </c>
-      <c r="F204" s="3" t="s">
+      <c r="G205" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G204" s="3"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="3">
+      <c r="H205" s="3"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
         <v>301750</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B206" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3" t="s">
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E205" s="3">
+      <c r="F206" s="3">
         <v>7.9</v>
       </c>
-      <c r="F205" s="3" t="s">
+      <c r="G206" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G205" s="3"/>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
+      <c r="H206" s="3"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
         <v>301786</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B207" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3" t="s">
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E206" s="3">
+      <c r="F207" s="3">
         <v>7.9</v>
       </c>
-      <c r="F206" s="3" t="s">
+      <c r="G207" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G206" s="3"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="3">
+      <c r="H207" s="3"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
         <v>301798</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B208" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3" t="s">
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E207" s="3">
+      <c r="F208" s="3">
         <v>9.9</v>
       </c>
-      <c r="F207" s="3" t="s">
+      <c r="G208" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G207" s="3"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
+      <c r="H208" s="3"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
         <v>301800</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B209" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3" t="s">
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E208" s="3">
+      <c r="F209" s="3">
         <v>9.9</v>
       </c>
-      <c r="F208" s="3" t="s">
+      <c r="G209" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G208" s="3"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
+      <c r="H209" s="3"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
         <v>301774</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B210" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3" t="s">
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E209" s="3">
+      <c r="F210" s="3">
         <v>6.8</v>
       </c>
-      <c r="F209" s="3" t="s">
+      <c r="G210" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G209" s="3"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
+      <c r="H210" s="3"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
         <v>466970</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B211" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3" t="s">
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E210" s="3">
+      <c r="F211" s="3">
         <v>6.8</v>
       </c>
-      <c r="F210" s="3" t="s">
+      <c r="G211" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G210" s="3"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="3">
+      <c r="H211" s="3"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
         <v>467013</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B212" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3" t="s">
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E211" s="3">
+      <c r="F212" s="3">
         <v>6.8</v>
       </c>
-      <c r="F211" s="3" t="s">
+      <c r="G212" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G211" s="3"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
+      <c r="H212" s="3"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
         <v>301749</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B213" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3" t="s">
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E212" s="3">
+      <c r="F213" s="3">
         <v>8.9</v>
       </c>
-      <c r="F212" s="3" t="s">
+      <c r="G213" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G212" s="3"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="3">
+      <c r="H213" s="3"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
         <v>466945</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B214" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3" t="s">
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E213" s="3">
+      <c r="F214" s="3">
         <v>6.8</v>
       </c>
-      <c r="F213" s="3" t="s">
+      <c r="G214" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G213" s="3"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="3">
+      <c r="H214" s="3"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
         <v>467050</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B215" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3" t="s">
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E214" s="3">
+      <c r="F215" s="3">
         <v>6.8</v>
       </c>
-      <c r="F214" s="3" t="s">
+      <c r="G215" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G214" s="3"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="3">
+      <c r="H215" s="3"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
         <v>466957</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B216" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3" t="s">
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E215" s="3">
+      <c r="F216" s="3">
         <v>6.8</v>
       </c>
-      <c r="F215" s="3" t="s">
+      <c r="G216" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G215" s="3"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="3">
+      <c r="H216" s="3"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
         <v>466994</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B217" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3" t="s">
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E216" s="3">
+      <c r="F217" s="3">
         <v>6.8</v>
       </c>
-      <c r="F216" s="3" t="s">
+      <c r="G217" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G216" s="3"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="3">
+      <c r="H217" s="3"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
         <v>467001</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B218" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3" t="s">
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E217" s="3">
+      <c r="F218" s="3">
         <v>6.8</v>
       </c>
-      <c r="F217" s="3" t="s">
+      <c r="G218" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G217" s="3"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="3">
+      <c r="H218" s="3"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
         <v>466982</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B219" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3" t="s">
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E218" s="3">
+      <c r="F219" s="3">
         <v>6.8</v>
       </c>
-      <c r="F218" s="3" t="s">
+      <c r="G219" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G218" s="3"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="3">
+      <c r="H219" s="3"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
         <v>466969</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B220" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3" t="s">
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E219" s="3">
+      <c r="F220" s="3">
         <v>6.8</v>
       </c>
-      <c r="F219" s="3" t="s">
+      <c r="G220" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G219" s="3"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="3">
+      <c r="H220" s="3"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
         <v>250993</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B221" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3" t="s">
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E220" s="3">
+      <c r="F221" s="3">
         <v>7.99</v>
       </c>
-      <c r="F220" s="3" t="s">
+      <c r="G221" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G220" s="3"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="3">
+      <c r="H221" s="3"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
         <v>557989</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B222" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3" t="s">
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E221" s="3">
+      <c r="F222" s="3">
         <v>3.9</v>
       </c>
-      <c r="F221" s="3" t="s">
+      <c r="G222" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G221" s="3"/>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="3">
+      <c r="H222" s="3"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
         <v>499078</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B223" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3" t="s">
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E222" s="3">
+      <c r="F223" s="3">
         <v>2.99</v>
       </c>
-      <c r="F222" s="3" t="s">
+      <c r="G223" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G222" s="3"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="3">
+      <c r="H223" s="3"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
         <v>251061</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B224" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3" t="s">
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E223" s="3">
+      <c r="F224" s="3">
         <v>8.75</v>
       </c>
-      <c r="F223" s="3" t="s">
+      <c r="G224" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G223" s="3"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="3">
+      <c r="H224" s="3"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
         <v>408880</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B225" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3" t="s">
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E224" s="3">
+      <c r="F225" s="3">
         <v>3.5</v>
       </c>
-      <c r="F224" s="3" t="s">
+      <c r="G225" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G224" s="3"/>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="3">
+      <c r="H225" s="3"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
         <v>301847</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B226" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3" t="s">
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E225" s="3">
+      <c r="F226" s="3">
         <v>9.9</v>
       </c>
-      <c r="F225" s="3" t="s">
+      <c r="G226" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G225" s="3"/>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
+      <c r="H226" s="3"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
         <v>379716</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B227" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3" t="s">
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E226" s="3">
+      <c r="F227" s="3">
         <v>9.9</v>
       </c>
-      <c r="F226" s="3" t="s">
+      <c r="G227" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G226" s="3"/>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
+      <c r="H227" s="3"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
         <v>259291</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B228" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3" t="s">
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E227" s="4">
+      <c r="F228" s="4">
         <v>8.9</v>
       </c>
-      <c r="F227" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G227" s="3"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
+      <c r="G228" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H228" s="3"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
         <v>195206</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B229" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3" t="s">
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E228" s="4">
+      <c r="F229" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G228" s="3"/>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="3">
+      <c r="G229" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H229" s="3"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
         <v>502393</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B230" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3" t="s">
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E229" s="4">
+      <c r="F230" s="4">
         <v>12.9</v>
       </c>
-      <c r="F229" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G229" s="3"/>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
+      <c r="G230" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H230" s="3"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
         <v>195194</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B231" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3" t="s">
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E230" s="4">
+      <c r="F231" s="4">
         <v>13.9</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G230" s="3"/>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="3">
+      <c r="G231" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H231" s="3"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
         <v>190626</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B232" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3" t="s">
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E231" s="4">
+      <c r="F232" s="4">
         <v>11.9</v>
       </c>
-      <c r="F231" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G231" s="3"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
+      <c r="G232" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H232" s="3"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
         <v>182514</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B233" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3" t="s">
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E232" s="3">
+      <c r="F233" s="3">
         <v>10.5</v>
       </c>
-      <c r="F232" s="3" t="s">
+      <c r="G233" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G232" s="3"/>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="3">
+      <c r="H233" s="3"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
         <v>547468</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B234" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3" t="s">
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E233" s="3">
+      <c r="F234" s="3">
         <v>9.9</v>
       </c>
-      <c r="F233" s="3" t="s">
+      <c r="G234" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="G233" s="3"/>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="3"/>
-      <c r="B234" s="3" t="s">
+      <c r="H234" s="3"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="3"/>
+      <c r="B235" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3" t="s">
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E234" s="3">
+      <c r="F235" s="3">
         <v>9.5</v>
       </c>
-      <c r="F234" s="3" t="s">
+      <c r="G235" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="G234" s="3"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
+      <c r="H235" s="3"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
         <v>486337</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B236" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3" t="s">
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E235" s="3">
+      <c r="F236" s="3">
         <v>14.9</v>
       </c>
-      <c r="F235" s="3" t="s">
+      <c r="G236" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="G235" s="3"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="3">
+      <c r="H236" s="3"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
         <v>443402</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B237" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C236" s="3"/>
-      <c r="D236" s="3" t="s">
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E236" s="3">
+      <c r="F237" s="3">
         <v>15</v>
       </c>
-      <c r="F236" s="3" t="s">
+      <c r="G237" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G236" s="3"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="3">
+      <c r="H237" s="3"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
         <v>452280</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B238" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3" t="s">
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E237" s="3">
+      <c r="F238" s="3">
         <v>10.5</v>
       </c>
-      <c r="F237" s="3" t="s">
+      <c r="G238" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G237" s="3"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
+      <c r="H238" s="3"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
         <v>542950</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B239" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3" t="s">
+      <c r="C239" s="3"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E238" s="3">
+      <c r="F239" s="3">
         <v>11.5</v>
       </c>
-      <c r="F238" s="3" t="s">
+      <c r="G239" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G238" s="3"/>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="3">
+      <c r="H239" s="3"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
         <v>301688</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B240" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C239" s="3"/>
-      <c r="D239" s="3" t="s">
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E239" s="3"/>
-      <c r="F239" s="3" t="s">
+      <c r="F240" s="3"/>
+      <c r="G240" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="G239" s="3"/>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="3">
+      <c r="H240" s="3"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
         <v>466639</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B241" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="C240" s="3"/>
-      <c r="D240" s="3" t="s">
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E240" s="4">
+      <c r="F241" s="4">
         <v>9.9</v>
       </c>
-      <c r="F240" s="1" t="s">
+      <c r="G241" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G240" s="3"/>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="3">
+      <c r="H241" s="3"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
         <v>443218</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B242" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C241" s="3"/>
-      <c r="D241" s="3" t="s">
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E241" s="4">
+      <c r="F242" s="4">
         <v>12.5</v>
       </c>
-      <c r="F241" s="1" t="s">
+      <c r="G242" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G241" s="3"/>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="3">
+      <c r="H242" s="3"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
         <v>466640</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B243" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C242" s="3"/>
-      <c r="D242" s="3" t="s">
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E242" s="4">
+      <c r="F243" s="4">
         <v>9.9</v>
       </c>
-      <c r="F242" s="1" t="s">
+      <c r="G243" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G242" s="3"/>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="3">
+      <c r="H243" s="3"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
         <v>301627</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B244" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C243" s="3"/>
-      <c r="D243" s="3" t="s">
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E243" s="3">
+      <c r="F244" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="F243" s="3" t="s">
+      <c r="G244" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G243" s="3"/>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="3">
+      <c r="H244" s="3"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
         <v>181580</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B245" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C244" s="3"/>
-      <c r="D244" s="3" t="s">
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E244" s="3">
+      <c r="F245" s="3">
         <v>8.9</v>
       </c>
-      <c r="F244" s="3" t="s">
+      <c r="G245" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G244" s="3"/>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="3">
+      <c r="H245" s="3"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
         <v>189320</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B246" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="C245" s="3"/>
-      <c r="D245" s="3" t="s">
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E245" s="3">
+      <c r="F246" s="3">
         <v>10.5</v>
       </c>
-      <c r="F245" s="3" t="s">
+      <c r="G246" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G245" s="3"/>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="3">
+      <c r="H246" s="3"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
         <v>209655</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B247" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C246" s="3"/>
-      <c r="D246" s="3" t="s">
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E246" s="3"/>
-      <c r="F246" s="3" t="s">
+      <c r="F247" s="3"/>
+      <c r="G247" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G246" s="3"/>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="3">
+      <c r="H247" s="3"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
         <v>233150</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B248" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C247" s="3"/>
-      <c r="D247" s="3" t="s">
+      <c r="C248" s="3"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E247" s="3"/>
-      <c r="F247" s="3" t="s">
+      <c r="F248" s="3"/>
+      <c r="G248" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G247" s="3"/>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="3">
+      <c r="H248" s="3"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
         <v>189332</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B249" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="C248" s="3"/>
-      <c r="D248" s="3" t="s">
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E248" s="3">
+      <c r="F249" s="3">
         <v>7.5</v>
       </c>
-      <c r="F248" s="3" t="s">
+      <c r="G249" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G248" s="3"/>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="3">
+      <c r="H249" s="3"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
         <v>233148</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B250" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C249" s="3"/>
-      <c r="D249" s="3" t="s">
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E249" s="3">
+      <c r="F250" s="3">
         <v>10.5</v>
       </c>
-      <c r="F249" s="3" t="s">
+      <c r="G250" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G249" s="3"/>
+      <c r="H250" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F249">
-    <sortCondition ref="B2:B249"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G250">
+    <sortCondition ref="B2:B250"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01E299A-3914-4610-B830-42B75C9D5C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5158B8-44A9-4446-9A5D-A2AA1603BBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="600" windowWidth="10800" windowHeight="12900" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="516">
   <si>
     <t>Código</t>
   </si>
@@ -39,16 +39,1525 @@
     <t>Categoria</t>
   </si>
   <si>
+    <t>Sucos Naturais</t>
+  </si>
+  <si>
+    <t>Doses</t>
+  </si>
+  <si>
+    <t>Bebidas</t>
+  </si>
+  <si>
+    <t>Café e Chocolates</t>
+  </si>
+  <si>
+    <t>Aipim Carne</t>
+  </si>
+  <si>
+    <t>Aipim Frango</t>
+  </si>
+  <si>
+    <t>Aimpim Linguiça</t>
+  </si>
+  <si>
     <t>Calorias</t>
   </si>
   <si>
+    <t>5 calorias</t>
+  </si>
+  <si>
+    <t>6 calorias</t>
+  </si>
+  <si>
+    <t>7 calorias</t>
+  </si>
+  <si>
+    <t>8 calorias</t>
+  </si>
+  <si>
+    <t>9 calorias</t>
+  </si>
+  <si>
+    <t>10 calorias</t>
+  </si>
+  <si>
+    <t>11 calorias</t>
+  </si>
+  <si>
+    <t>12 calorias</t>
+  </si>
+  <si>
+    <t>13 calorias</t>
+  </si>
+  <si>
+    <t>14 calorias</t>
+  </si>
+  <si>
+    <t>15 calorias</t>
+  </si>
+  <si>
+    <t>16 calorias</t>
+  </si>
+  <si>
+    <t>17 calorias</t>
+  </si>
+  <si>
+    <t>18 calorias</t>
+  </si>
+  <si>
+    <t>19 calorias</t>
+  </si>
+  <si>
+    <t>20 calorias</t>
+  </si>
+  <si>
+    <t>21 calorias</t>
+  </si>
+  <si>
+    <t>22 calorias</t>
+  </si>
+  <si>
+    <t>23 calorias</t>
+  </si>
+  <si>
+    <t>24 calorias</t>
+  </si>
+  <si>
+    <t>25 calorias</t>
+  </si>
+  <si>
+    <t>26 calorias</t>
+  </si>
+  <si>
+    <t>27 calorias</t>
+  </si>
+  <si>
+    <t>28 calorias</t>
+  </si>
+  <si>
+    <t>29 calorias</t>
+  </si>
+  <si>
+    <t>30 calorias</t>
+  </si>
+  <si>
+    <t>31 calorias</t>
+  </si>
+  <si>
+    <t>32 calorias</t>
+  </si>
+  <si>
+    <t>33 calorias</t>
+  </si>
+  <si>
+    <t>34 calorias</t>
+  </si>
+  <si>
+    <t>35 calorias</t>
+  </si>
+  <si>
+    <t>36 calorias</t>
+  </si>
+  <si>
+    <t>37 calorias</t>
+  </si>
+  <si>
+    <t>38 calorias</t>
+  </si>
+  <si>
+    <t>39 calorias</t>
+  </si>
+  <si>
+    <t>40 calorias</t>
+  </si>
+  <si>
+    <t>41 calorias</t>
+  </si>
+  <si>
+    <t>42 calorias</t>
+  </si>
+  <si>
+    <t>43 calorias</t>
+  </si>
+  <si>
+    <t>44 calorias</t>
+  </si>
+  <si>
+    <t>45 calorias</t>
+  </si>
+  <si>
+    <t>46 calorias</t>
+  </si>
+  <si>
+    <t>47 calorias</t>
+  </si>
+  <si>
+    <t>48 calorias</t>
+  </si>
+  <si>
+    <t>49 calorias</t>
+  </si>
+  <si>
+    <t>50 calorias</t>
+  </si>
+  <si>
+    <t>51 calorias</t>
+  </si>
+  <si>
+    <t>52 calorias</t>
+  </si>
+  <si>
+    <t>53 calorias</t>
+  </si>
+  <si>
+    <t>54 calorias</t>
+  </si>
+  <si>
+    <t>55 calorias</t>
+  </si>
+  <si>
+    <t>56 calorias</t>
+  </si>
+  <si>
+    <t>57 calorias</t>
+  </si>
+  <si>
+    <t>58 calorias</t>
+  </si>
+  <si>
+    <t>59 calorias</t>
+  </si>
+  <si>
+    <t>60 calorias</t>
+  </si>
+  <si>
+    <t>61 calorias</t>
+  </si>
+  <si>
+    <t>62 calorias</t>
+  </si>
+  <si>
+    <t>63 calorias</t>
+  </si>
+  <si>
+    <t>64 calorias</t>
+  </si>
+  <si>
+    <t>65 calorias</t>
+  </si>
+  <si>
+    <t>66 calorias</t>
+  </si>
+  <si>
+    <t>67 calorias</t>
+  </si>
+  <si>
+    <t>68 calorias</t>
+  </si>
+  <si>
+    <t>69 calorias</t>
+  </si>
+  <si>
+    <t>70 calorias</t>
+  </si>
+  <si>
+    <t>71 calorias</t>
+  </si>
+  <si>
+    <t>72 calorias</t>
+  </si>
+  <si>
+    <t>73 calorias</t>
+  </si>
+  <si>
+    <t>74 calorias</t>
+  </si>
+  <si>
+    <t>75 calorias</t>
+  </si>
+  <si>
+    <t>76 calorias</t>
+  </si>
+  <si>
+    <t>77 calorias</t>
+  </si>
+  <si>
+    <t>78 calorias</t>
+  </si>
+  <si>
+    <t>79 calorias</t>
+  </si>
+  <si>
+    <t>80 calorias</t>
+  </si>
+  <si>
+    <t>81 calorias</t>
+  </si>
+  <si>
+    <t>82 calorias</t>
+  </si>
+  <si>
+    <t>83 calorias</t>
+  </si>
+  <si>
+    <t>84 calorias</t>
+  </si>
+  <si>
+    <t>85 calorias</t>
+  </si>
+  <si>
+    <t>86 calorias</t>
+  </si>
+  <si>
+    <t>87 calorias</t>
+  </si>
+  <si>
+    <t>88 calorias</t>
+  </si>
+  <si>
+    <t>89 calorias</t>
+  </si>
+  <si>
+    <t>90 calorias</t>
+  </si>
+  <si>
+    <t>91 calorias</t>
+  </si>
+  <si>
+    <t>92 calorias</t>
+  </si>
+  <si>
+    <t>93 calorias</t>
+  </si>
+  <si>
+    <t>94 calorias</t>
+  </si>
+  <si>
+    <t>95 calorias</t>
+  </si>
+  <si>
+    <t>96 calorias</t>
+  </si>
+  <si>
+    <t>97 calorias</t>
+  </si>
+  <si>
+    <t>98 calorias</t>
+  </si>
+  <si>
+    <t>99 calorias</t>
+  </si>
+  <si>
+    <t>100 calorias</t>
+  </si>
+  <si>
+    <t>101 calorias</t>
+  </si>
+  <si>
+    <t>102 calorias</t>
+  </si>
+  <si>
+    <t>103 calorias</t>
+  </si>
+  <si>
+    <t>104 calorias</t>
+  </si>
+  <si>
+    <t>105 calorias</t>
+  </si>
+  <si>
+    <t>106 calorias</t>
+  </si>
+  <si>
+    <t>107 calorias</t>
+  </si>
+  <si>
+    <t>108 calorias</t>
+  </si>
+  <si>
+    <t>109 calorias</t>
+  </si>
+  <si>
+    <t>110 calorias</t>
+  </si>
+  <si>
+    <t>111 calorias</t>
+  </si>
+  <si>
+    <t>112 calorias</t>
+  </si>
+  <si>
+    <t>113 calorias</t>
+  </si>
+  <si>
+    <t>114 calorias</t>
+  </si>
+  <si>
+    <t>115 calorias</t>
+  </si>
+  <si>
+    <t>116 calorias</t>
+  </si>
+  <si>
+    <t>117 calorias</t>
+  </si>
+  <si>
+    <t>118 calorias</t>
+  </si>
+  <si>
+    <t>119 calorias</t>
+  </si>
+  <si>
+    <t>120 calorias</t>
+  </si>
+  <si>
+    <t>121 calorias</t>
+  </si>
+  <si>
+    <t>122 calorias</t>
+  </si>
+  <si>
     <t>123 calorias</t>
   </si>
   <si>
+    <t>124 calorias</t>
+  </si>
+  <si>
+    <t>125 calorias</t>
+  </si>
+  <si>
+    <t>126 calorias</t>
+  </si>
+  <si>
+    <t>127 calorias</t>
+  </si>
+  <si>
+    <t>128 calorias</t>
+  </si>
+  <si>
+    <t>129 calorias</t>
+  </si>
+  <si>
+    <t>130 calorias</t>
+  </si>
+  <si>
+    <t>131 calorias</t>
+  </si>
+  <si>
+    <t>132 calorias</t>
+  </si>
+  <si>
+    <t>133 calorias</t>
+  </si>
+  <si>
+    <t>134 calorias</t>
+  </si>
+  <si>
+    <t>135 calorias</t>
+  </si>
+  <si>
+    <t>136 calorias</t>
+  </si>
+  <si>
+    <t>137 calorias</t>
+  </si>
+  <si>
+    <t>138 calorias</t>
+  </si>
+  <si>
+    <t>139 calorias</t>
+  </si>
+  <si>
+    <t>140 calorias</t>
+  </si>
+  <si>
+    <t>141 calorias</t>
+  </si>
+  <si>
+    <t>142 calorias</t>
+  </si>
+  <si>
+    <t>143 calorias</t>
+  </si>
+  <si>
+    <t>144 calorias</t>
+  </si>
+  <si>
+    <t>145 calorias</t>
+  </si>
+  <si>
+    <t>146 calorias</t>
+  </si>
+  <si>
+    <t>147 calorias</t>
+  </si>
+  <si>
+    <t>148 calorias</t>
+  </si>
+  <si>
+    <t>149 calorias</t>
+  </si>
+  <si>
+    <t>150 calorias</t>
+  </si>
+  <si>
+    <t>151 calorias</t>
+  </si>
+  <si>
+    <t>152 calorias</t>
+  </si>
+  <si>
+    <t>153 calorias</t>
+  </si>
+  <si>
+    <t>154 calorias</t>
+  </si>
+  <si>
+    <t>155 calorias</t>
+  </si>
+  <si>
+    <t>156 calorias</t>
+  </si>
+  <si>
+    <t>157 calorias</t>
+  </si>
+  <si>
+    <t>158 calorias</t>
+  </si>
+  <si>
+    <t>159 calorias</t>
+  </si>
+  <si>
+    <t>160 calorias</t>
+  </si>
+  <si>
+    <t>161 calorias</t>
+  </si>
+  <si>
+    <t>162 calorias</t>
+  </si>
+  <si>
+    <t>163 calorias</t>
+  </si>
+  <si>
+    <t>164 calorias</t>
+  </si>
+  <si>
+    <t>165 calorias</t>
+  </si>
+  <si>
+    <t>166 calorias</t>
+  </si>
+  <si>
+    <t>167 calorias</t>
+  </si>
+  <si>
+    <t>168 calorias</t>
+  </si>
+  <si>
+    <t>169 calorias</t>
+  </si>
+  <si>
+    <t>170 calorias</t>
+  </si>
+  <si>
+    <t>171 calorias</t>
+  </si>
+  <si>
+    <t>172 calorias</t>
+  </si>
+  <si>
+    <t>173 calorias</t>
+  </si>
+  <si>
+    <t>174 calorias</t>
+  </si>
+  <si>
+    <t>175 calorias</t>
+  </si>
+  <si>
+    <t>176 calorias</t>
+  </si>
+  <si>
+    <t>177 calorias</t>
+  </si>
+  <si>
+    <t>178 calorias</t>
+  </si>
+  <si>
+    <t>179 calorias</t>
+  </si>
+  <si>
+    <t>180 calorias</t>
+  </si>
+  <si>
+    <t>181 calorias</t>
+  </si>
+  <si>
+    <t>182 calorias</t>
+  </si>
+  <si>
+    <t>183 calorias</t>
+  </si>
+  <si>
+    <t>184 calorias</t>
+  </si>
+  <si>
+    <t>185 calorias</t>
+  </si>
+  <si>
+    <t>186 calorias</t>
+  </si>
+  <si>
+    <t>187 calorias</t>
+  </si>
+  <si>
+    <t>188 calorias</t>
+  </si>
+  <si>
+    <t>189 calorias</t>
+  </si>
+  <si>
+    <t>190 calorias</t>
+  </si>
+  <si>
+    <t>191 calorias</t>
+  </si>
+  <si>
+    <t>192 calorias</t>
+  </si>
+  <si>
+    <t>193 calorias</t>
+  </si>
+  <si>
+    <t>194 calorias</t>
+  </si>
+  <si>
+    <t>195 calorias</t>
+  </si>
+  <si>
+    <t>196 calorias</t>
+  </si>
+  <si>
+    <t>197 calorias</t>
+  </si>
+  <si>
+    <t>198 calorias</t>
+  </si>
+  <si>
+    <t>199 calorias</t>
+  </si>
+  <si>
+    <t>200 calorias</t>
+  </si>
+  <si>
+    <t>201 calorias</t>
+  </si>
+  <si>
+    <t>203 calorias</t>
+  </si>
+  <si>
+    <t>204 calorias</t>
+  </si>
+  <si>
+    <t>205 calorias</t>
+  </si>
+  <si>
+    <t>206 calorias</t>
+  </si>
+  <si>
+    <t>207 calorias</t>
+  </si>
+  <si>
+    <t>208 calorias</t>
+  </si>
+  <si>
+    <t>209 calorias</t>
+  </si>
+  <si>
+    <t>210 calorias</t>
+  </si>
+  <si>
+    <t>211 calorias</t>
+  </si>
+  <si>
+    <t>212 calorias</t>
+  </si>
+  <si>
+    <t>213 calorias</t>
+  </si>
+  <si>
+    <t>214 calorias</t>
+  </si>
+  <si>
+    <t>215 calorias</t>
+  </si>
+  <si>
+    <t>216 calorias</t>
+  </si>
+  <si>
+    <t>217 calorias</t>
+  </si>
+  <si>
+    <t>218 calorias</t>
+  </si>
+  <si>
+    <t>219 calorias</t>
+  </si>
+  <si>
+    <t>220 calorias</t>
+  </si>
+  <si>
+    <t>221 calorias</t>
+  </si>
+  <si>
+    <t>222 calorias</t>
+  </si>
+  <si>
+    <t>223 calorias</t>
+  </si>
+  <si>
+    <t>224 calorias</t>
+  </si>
+  <si>
+    <t>225 calorias</t>
+  </si>
+  <si>
+    <t>226 calorias</t>
+  </si>
+  <si>
+    <t>227 calorias</t>
+  </si>
+  <si>
+    <t>228 calorias</t>
+  </si>
+  <si>
+    <t>229 calorias</t>
+  </si>
+  <si>
+    <t>230 calorias</t>
+  </si>
+  <si>
+    <t>231 calorias</t>
+  </si>
+  <si>
+    <t>232 calorias</t>
+  </si>
+  <si>
+    <t>233 calorias</t>
+  </si>
+  <si>
+    <t>234 calorias</t>
+  </si>
+  <si>
+    <t>235 calorias</t>
+  </si>
+  <si>
+    <t>236 calorias</t>
+  </si>
+  <si>
+    <t>237 calorias</t>
+  </si>
+  <si>
+    <t>238 calorias</t>
+  </si>
+  <si>
+    <t>239 calorias</t>
+  </si>
+  <si>
+    <t>240 calorias</t>
+  </si>
+  <si>
+    <t>241 calorias</t>
+  </si>
+  <si>
+    <t>242 calorias</t>
+  </si>
+  <si>
+    <t>243 calorias</t>
+  </si>
+  <si>
+    <t>244 calorias</t>
+  </si>
+  <si>
+    <t>245 calorias</t>
+  </si>
+  <si>
+    <t>246 calorias</t>
+  </si>
+  <si>
+    <t>247 calorias</t>
+  </si>
+  <si>
+    <t>248 calorias</t>
+  </si>
+  <si>
+    <t>249 calorias</t>
+  </si>
+  <si>
+    <t>250 calorias</t>
+  </si>
+  <si>
+    <t>251 calorias</t>
+  </si>
+  <si>
+    <t>252 calorias</t>
+  </si>
+  <si>
+    <t>Batata Doce C/ Carne</t>
+  </si>
+  <si>
+    <t>Batata Doce C/ Frango</t>
+  </si>
+  <si>
+    <t>Batata Doce C/ Ricota</t>
+  </si>
+  <si>
+    <t>Empad]Ao De Aveia C/ Requeijão</t>
+  </si>
+  <si>
+    <t>Empada Integral De Camarão</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nhoque Aipim/Carne      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nhoque Batata Dc Frango </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quibe Abobrinha Ricota  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quibe Berinjela</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quibe Pres/Queijo Rechea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quibe Ricota/Provolone  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quiche Alho Poro/Queijo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicional Chantilly                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicional Omelete Ou Crepioca - Ovo     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicional Omelete Ou Crepioca - Queijo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicional Para Shake/Whey/Vitamina      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicional Sucos E Doses Aveia           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicional Sucos E Doses Frutas          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicional Sucos E Doses Pasta Amendoim  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicional Sucos Especiais Leite         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicional Tapioca                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affogato Mundo Natural                  </t>
+  </si>
+  <si>
+    <t>Água De Coco</t>
+  </si>
+  <si>
+    <t>Agua Mineral Com Gas</t>
+  </si>
+  <si>
+    <t>Agua Mineral Sem Gas</t>
+  </si>
+  <si>
+    <t>Ativ Plus Açaí</t>
+  </si>
+  <si>
+    <t>Ativ Plus Guaraná</t>
+  </si>
+  <si>
+    <t>Bolo Batata Carne</t>
+  </si>
+  <si>
+    <t>Bolo Batata Frango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolo Cenoura                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolo Chocolate/Prestigio                </t>
+  </si>
+  <si>
+    <t>Bolo De Nozes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolo Diet                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolo Doce De Leite                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolo Indiano                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolo Integral Banana                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolo Limao                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolo Low Carb C/Cobertura Choco Fatia   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolo Low Carb Pote                      </t>
+  </si>
+  <si>
+    <t>Bolo Salgado De Pao Integral Fatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolo Whey                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broa C/Goiabada                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cachorro Quente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cachorro Quente De Forno                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cachorro Quente Veg.                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cafe Coado Grande                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cafe Coado Pequeno                      </t>
+  </si>
+  <si>
+    <t>Caldo De Abóbora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canjica C/Coco                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capuccino Mundo Natural                 </t>
+  </si>
+  <si>
+    <t>Capuccinotradicional</t>
+  </si>
+  <si>
+    <t>Chá Mate Lima Limão 350Ml</t>
+  </si>
+  <si>
+    <t>Chá Mate Limão 350Ml</t>
+  </si>
+  <si>
+    <t>Chá Mate Natural 350Ml</t>
+  </si>
+  <si>
+    <t>Chá Mate Pessego 350Ml</t>
+  </si>
+  <si>
+    <t>Chá Rio</t>
+  </si>
+  <si>
+    <t>Chai Latte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheeseburger Premium Frango             </t>
+  </si>
+  <si>
+    <t>Chocolate Gde</t>
+  </si>
+  <si>
+    <t>Chocolate Peq</t>
+  </si>
+  <si>
+    <t>Coca Cola Trad 220 Ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola 200Ml                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola 200Ml Zero                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Tradicional                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero 220Ml                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coxinha Abobora Frango                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coxinha Aipim Frango                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coxinha Batata Doce Frango              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croissant 4 Queijo                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croissant Frango Defumado/Ameixa        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croissant Frango/Cat                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croissant Frango/Req                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croissant Palmito Azeitona Requeijao    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croissant Peito Peru Req                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croissant Quei.Mi./Ceb.Com.Int.Light    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croissant Queijo/Damasco                </t>
+  </si>
+  <si>
+    <t>Drip Cofee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empada Integral Camarao                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esfiha Light Queijo Minas               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esfiha Light Ricota/Espin               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esfiha Peito Peru/Min                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espresso Com Borda De Doce Leite Diet   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espresso Com Panna                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espresso Tradicional Peq                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expresso Tradicional Duplo (Gde)        </t>
+  </si>
+  <si>
+    <t>Fanta Guaraná 200Ml</t>
+  </si>
+  <si>
+    <t>Fanta Guarana 600Ml</t>
+  </si>
+  <si>
+    <t>Fanta Laranja 200Ml</t>
+  </si>
+  <si>
+    <t>Feijão (Porção)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frape                                   </t>
+  </si>
+  <si>
+    <t>Gelatina Colorida Pote</t>
+  </si>
+  <si>
+    <t>Guaravita</t>
+  </si>
+  <si>
+    <t>Guaraviton (Açai)</t>
+  </si>
+  <si>
+    <t>Guaraviton (Ginseng)</t>
+  </si>
+  <si>
+    <t>Ice Capuccino</t>
+  </si>
+  <si>
+    <t>Ice Tea Limão 250Ml</t>
+  </si>
+  <si>
+    <t>Ice Tea Pessego 250Ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italiano Frango/Cream Cheese            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italiano Frango/Requeijao               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italiano Minas/Oregano                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italiano Pal/Azeit/Req                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italiano Poro/Queijo                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasanha Abobrinha Carne                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasanha Abobrinha Queijo                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasanha Berinjela Carne                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasanha Berinjela Queijo                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latte Machiatto                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machiatto                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marmitinha Arroz/Frango                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marmitinha Macarrao Abobrinha Bolonhesa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marmitinha Macarrao C/Almondega         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marmitinha Macarrao C/Salada            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marmitinha Macarrao Cenoura Bolonhesa   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marmitinha Maromba                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marmitinha Proteina De Almondega        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massa Chee Premium Frango               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media Cafe                              </t>
+  </si>
+  <si>
+    <t>Misto Quente   (Presunto+Mussarela)</t>
+  </si>
+  <si>
+    <t>Misto Quente (Frango C/Requeijão)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mocha                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhoque De Batata Doce </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omeletes Ou Crepiocas Especial   (Fra+Tom Seco+Req)       </t>
+  </si>
+  <si>
+    <t>Omeletes Ou Crepiocas Frango +Requeijão</t>
+  </si>
+  <si>
+    <t>Omeletes Ou Crepiocas Mista (Pre+Mussa)</t>
+  </si>
+  <si>
+    <t>Omeletes Ou Crepiocas Mista (Pre+Q.Minas)</t>
+  </si>
+  <si>
+    <t>Omeletes Ou Crepiocas Queijo Minas</t>
+  </si>
+  <si>
+    <t>Omeletes Ou Crepiocas Queijo Mussarela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omeletes Ou Crepiocas Simples           </t>
+  </si>
+  <si>
+    <t>Ovo Frito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panqueca De Aveia Frango                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panqueca Low Carb Carne                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panqueca Low Carb Frango                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panqueca Low Carb Linquica              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pao De Batata Frano/Reque               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pao De Batata P.Peru/Que                </t>
+  </si>
+  <si>
+    <t>Pão De Queijo Coquetel (Vovó Joana)</t>
+  </si>
+  <si>
+    <t>Pão De Queijo Palitinho (Vovó Joana)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pao De Queijo Recheado Calabresa        </t>
+  </si>
+  <si>
+    <t>Pão De Queijo Recheado Carne Seca (Vovó Joana)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pao De Queijo Recheado Cheddar          </t>
+  </si>
+  <si>
+    <t>Pao De Queijo Recheado Doce De Leite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pao De Queijo Recheado Frango           </t>
+  </si>
+  <si>
+    <t>Pão De Queijo Recheado Frango (Vovó Joana)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pao De Queijo Recheado Lombo            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pao De Queijo Recheado Pizza            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pao De Queijo Recheado Requeijao        </t>
+  </si>
+  <si>
+    <t>Pão De Queijo Recheado Requeijão (Vovó Joana)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pao Integral C/Ovo (2 Ovos)             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pao Integral C/Queijo (Quente/Frio)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pao Integral Na Chapa C/Manteiga        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastel De Forno Alho Poro/Req           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastel De Forno Berinj/Tom Sec          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastel De Forno Camarao Requeijao       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastel De Forno Frango Light            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastel De Forno Frango/Azei             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastel De Forno Frango/Req              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastel De Forno Minas Cebolinha         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastel De Forno P.Peru/Pro.             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastel De Forno Palmito/Cha             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastel De Forno Queijo Minas            </t>
+  </si>
+  <si>
+    <t>Pavê De Amendoim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre Treino Importado                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre Treino Nacional                     </t>
+  </si>
+  <si>
+    <t>Pudim Fatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queijo Minas (Fatia 100G)                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quiche Alho Poro                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quiche Bacalhau                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quiche Cebola                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quiche Peito De Peru/Cream Cheese       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salada De Frutas Pote                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salada De Pote Folhas Frango            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salada De Pote Folhas Peito De Peru     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saladinha              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanduiche Natural Casa Frango           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanduiche Peito De Peru                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanduiches Especiais Low Carb C/Queijo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanduiches Especiais Low Carb Frango    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanduiches Especiais Sirio Carne        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanduiches Especiais Vida Saudavel      </t>
+  </si>
+  <si>
+    <t>Schweppes Citrus</t>
+  </si>
+  <si>
+    <t>Schweppes Soda</t>
+  </si>
+  <si>
+    <t>Smoothie</t>
+  </si>
+  <si>
+    <t>Soda Italiana</t>
+  </si>
+  <si>
+    <t>Sprite Lata 350Ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Abacaxi C/Hortela                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Anti Inflamatorio                  </t>
+  </si>
+  <si>
+    <t>Suco Del Valle 200Ml Laranja Caixinha</t>
+  </si>
+  <si>
+    <t>Suco Del Valle 200Ml Pessego Caixinha</t>
+  </si>
+  <si>
+    <t>Suco Del Valle 200Ml Uva Caixinha</t>
+  </si>
+  <si>
+    <t>Suco Del Valle 250Ml Laranja Garrafa Pet</t>
+  </si>
+  <si>
+    <t>Suco Del Valle 250Ml Limão Garrafa Pet</t>
+  </si>
+  <si>
+    <t>Suco Del Valle 250Ml Uva Garrafa Pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Detox Verde 300 Ml(Médio)          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Digestivo                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Energizante                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Guarana Nat Da Casa 300Ml          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Guarana Natural Casa 200Ml         </t>
+  </si>
+  <si>
+    <t>Suco Laranja C/Mamao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Laranja C/Morango                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Laranja/Manga/Abacaxi              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Manga/Mamao/Maracuja               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Morango C/Limao                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Natural Abacaxi 300Ml              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Natural Acerola 300Ml              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Natural Amora 300Ml              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Natural Laranja 300Ml              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Natural Limao 300Ml                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Natural Mamao 300Ml                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Natural Manga 300Ml                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Natural Maracuja 300Ml             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Natural Melao 300Ml                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Natural Morango 300Ml              </t>
+  </si>
+  <si>
+    <t>Suco Natural One Laranja 300Ml</t>
+  </si>
+  <si>
+    <t>Suco Natural One Laranja E Maçã 180 Ml</t>
+  </si>
+  <si>
+    <t>Suco Natural One Maçã 180 Ml</t>
+  </si>
+  <si>
+    <t>Suco Natural One Uva 300Ml</t>
+  </si>
+  <si>
+    <t>Suco Natural One Uva E Maçã 180Ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Super Imunidade                    </t>
+  </si>
+  <si>
+    <t>Suco Super Verde Detox + Frutas  (Fresco)</t>
+  </si>
+  <si>
+    <t>Tapioca Doce   (Banana+Canela+Acucar)</t>
+  </si>
+  <si>
+    <t>Tapioca Especial (P.Peru+Q.Minas+Tom Seco)</t>
+  </si>
+  <si>
+    <t>Tapioca Frango (Frango+Requeijão)</t>
+  </si>
+  <si>
+    <t>Tapioca Mista (Muss+Preunto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapioca Simples                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomate Recheado                         </t>
+  </si>
+  <si>
+    <t>Vitamina    (2 Frutas)</t>
+  </si>
+  <si>
+    <t>Vitamina   (3 Frutas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whey Importado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whey Importado Dose C/Frutas            </t>
+  </si>
+  <si>
+    <t>Whey Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whey Nacional Dose C/Frutas             </t>
+  </si>
+  <si>
+    <t>Marmitinha e Tortas</t>
+  </si>
+  <si>
+    <t>Bolos/Tortass/Sobremesas</t>
+  </si>
+  <si>
+    <t>Tortas Ameixa</t>
+  </si>
+  <si>
+    <t>Tortas Banana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tortas Banoffe                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tortas De Camarao                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tortas De Frango C/Requeijao             </t>
+  </si>
+  <si>
+    <t>Tortas De Palmito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tortas Delicia De Banana                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tortas Limao                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tortas Maca C/Canela                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tortas Maracuja                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tortass De Bacalhau                      </t>
+  </si>
+  <si>
     <t>Lanches</t>
   </si>
   <si>
+    <t xml:space="preserve">Massa Chee Lanches                       </t>
+  </si>
+  <si>
     <t>Descrição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Detox Verde </t>
+  </si>
+  <si>
+    <t>Refresque-se e sinta-se renovado com o nosso Suco Detox! Uma combinação de frutas e vegetais frescos, pensada para ajudar a purificar o corpo e aumentar sua energia. Rico em fibras, vitaminas e antioxidantes, esse suco é a escolha ideal para o seu bem-estar.</t>
+  </si>
+  <si>
+    <t>Salgado</t>
+  </si>
+  <si>
+    <t>666 calorias</t>
   </si>
   <si>
     <t xml:space="preserve">Nosso Salgado Integral é feito com ingredientes naturais e de qualidade, combinando o sabor delicioso com os benefícios das fibras e nutrientes. Perfeito para quem busca uma opção mais leve, sem abrir mão do sabor irresistível. </t>
@@ -117,12 +1626,6 @@
       </rPr>
       <t>="Descrição"&gt;&lt;/img&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>Salgado Integral</t>
-  </si>
-  <si>
-    <t>10.90</t>
   </si>
 </sst>
 </file>
@@ -190,7 +1693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,6 +1702,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -536,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,13 +2061,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -572,38 +2076,4982 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>9</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>131103</v>
+        <v>373137</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>373149</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F3" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>373150</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>373088</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>301652</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>301640</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>466187</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>373174</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>373101</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>373090</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>301580</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>549132</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>373125</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>373113</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>301615</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>467966</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>301334</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>301322</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>191012</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>301933</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>301945</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>301921</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>301872</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>301310</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>447340</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>391636</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>201083</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>175569</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>205387</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>542670</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>542668</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>466090</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>344600</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>554474</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>447999</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>344612</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>490084</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>182453</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>466102</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>437038</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>336524</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>522359</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>373235</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>466175</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>525753</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>403933</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>174964</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>448385</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>448397</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>201474</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>459035</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>447390</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>447339</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>249210</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="3">
+        <v>4.03</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>440705</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4.03</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>249234</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4.03</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>249246</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4.03</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>576837</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="3">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="G61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>429806</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>205497</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>209631</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>284636</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>284650</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>356271</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>184532</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>184544</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>284648</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F70" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>345170</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>466529</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F72" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>466615</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F73" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>193384</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F74" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>415115</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F75" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>175070</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F76" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>491180</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F77" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>266883</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F78" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>478335</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>178010</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F80" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>175093</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>447132</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F82" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>459280</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F83" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>295054</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F84" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>178242</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F85" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>175068</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F86" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>448373</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F87" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>447388</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>447376</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F89" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>467991</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F90" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>284661</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F91" s="3">
+        <v>2</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>576666</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F92" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>359664</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F93" s="3">
+        <v>2</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>532049</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F94" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>447364</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F95" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>547187</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F96" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>230501</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>179287</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F98" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>179299</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F99" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>548098</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F100" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>557965</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>444070</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F102" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>178254</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F103" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>434061</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F104" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>175130</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F105" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>184642</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F106" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>175056</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F107" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>466126</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F108" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>466114</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F109" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>466138</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F110" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>466140</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F111" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>447327</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F112" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>448409</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F113" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>457066</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F114" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>466786</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F115" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>466517</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F116" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>466627</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F117" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>466774</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F118" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>471224</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F119" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>474581</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F120" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>367874</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F121" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>415127</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F122" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>182489</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F123" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>179911</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F124" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>230549</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F125" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>447352</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F126" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>213426</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F127" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>216100</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F128" s="4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H128" s="3"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>250907</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F129" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>216098</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F130" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H130" s="3"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>502515</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F131" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>216086</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F132" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>403566</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F133" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>205131</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F134" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H134" s="3"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>468401</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F135" s="4">
+        <v>2</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>466163</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F136" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>466212</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F137" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>466151</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F138" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>466199</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F139" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>180447</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F140" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>180459</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F141" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>581570</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F142" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>581617</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F143" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>466872</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F144" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>581605</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F145" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>466847</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F146" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>502405</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F147" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>466859</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F148" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>581593</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F149" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>202947</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F150" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>466835</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F151" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>466860</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F152" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>581581</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F153" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>301470</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F154" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H154" s="3"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>198709</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F155" s="4">
+        <v>6.99</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>198673</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F156" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>175044</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F157" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H157" s="3"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>412113</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F158" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>459279</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F159" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>193372</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F160" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>460855</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F161" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>175019</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F162" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H162" s="3"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>365245</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F163" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>180570</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F164" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>175020</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F165" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>184605</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F166" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>576361</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F167" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>209667</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>202409</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F169" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>549229</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F170" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>438267</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F171" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>175154</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F172" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>175142</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F173" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>181420</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F174" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>460867</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F175" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>191158</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F176" s="3">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="G176" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H176" s="3"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>243610</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F177" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H177" s="3"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>191110</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F178" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>2090723</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F179" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>278713</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F180" s="3">
+        <v>5</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H180" s="3"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>181126</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F181" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>181138</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F182" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H182" s="3"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>262774</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F183" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>301578</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F184" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H184" s="3"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>301542</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F185" s="4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>301505</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F186" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H186" s="3"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>247619</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F187" s="3">
+        <v>4</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H187" s="3"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>575168</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F188" s="3">
+        <v>4</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>301947</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F189" s="3">
+        <v>16</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H189" s="3"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>576825</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F190" s="3">
+        <v>12</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>351556</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F191" s="3">
+        <v>4</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H191" s="3"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>301737</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F192" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H192" s="3"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>301860</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F193" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H193" s="3"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>499176</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F194" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H194" s="3"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>481611</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F195" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>481600</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F196" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H196" s="3"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>570087</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F197" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H197" s="3"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>573285</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F198" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H198" s="3"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>570099</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F199" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H199" s="3"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>461375</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F200" s="3">
+        <v>4</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H200" s="3"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>437040</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F201" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H201" s="3"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>301859</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F202" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H202" s="3"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>301835</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F203" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H203" s="3"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>182441</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F204" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H204" s="3"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>182430</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F205" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H205" s="3"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>301750</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F206" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H206" s="3"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>301786</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F207" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H207" s="3"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>301798</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F208" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H208" s="3"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>301800</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F209" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H209" s="3"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>301774</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F210" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H210" s="3"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>466970</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F211" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H211" s="3"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>467013</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F212" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H212" s="3"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>301749</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F213" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H213" s="3"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>466945</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F214" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H214" s="3"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>467050</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F215" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H215" s="3"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>466957</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F216" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H216" s="3"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>466994</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F217" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H217" s="3"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>467001</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F218" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H218" s="3"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>466982</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F219" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H219" s="3"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>466969</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F220" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H220" s="3"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>250993</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F221" s="3">
+        <v>7.99</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H221" s="3"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>557989</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F222" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H222" s="3"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>499078</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F223" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H223" s="3"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>251061</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F224" s="3">
+        <v>8.75</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H224" s="3"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>408880</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F225" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H225" s="3"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>301847</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F226" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H226" s="3"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>379716</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F227" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H227" s="3"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>259291</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F228" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H228" s="3"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>195206</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F229" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H229" s="3"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>502393</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F230" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H230" s="3"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>195194</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F231" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H231" s="3"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>190626</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F232" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H232" s="3"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>182514</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F233" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H233" s="3"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>547468</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F234" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H234" s="3"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="3"/>
+      <c r="B235" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F235" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H235" s="3"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>486337</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F236" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H236" s="3"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>443402</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F237" s="3">
+        <v>15</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H237" s="3"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>452280</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F238" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H238" s="3"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>542950</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C239" s="3"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F239" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H239" s="3"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>301688</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H240" s="3"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>466639</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F241" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H241" s="3"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>443218</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F242" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H242" s="3"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>466640</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F243" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H243" s="3"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>301627</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F244" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H244" s="3"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>181580</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F245" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H245" s="3"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>189320</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F246" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H246" s="3"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>209655</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H247" s="3"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>233150</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H248" s="3"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>189332</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F249" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H249" s="3"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <v>233148</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F250" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H250" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
-    <sortCondition ref="B2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G250">
+    <sortCondition ref="B2:B250"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FDB4AA-EB99-45B0-98D5-26E4AD35AF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E3BB2A-B9D4-4635-937E-96BBF65F3B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Código</t>
   </si>
@@ -54,65 +54,6 @@
     <t>1 unidade</t>
   </si>
   <si>
-    <t>Imagem</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;img </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>className</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">="im-product" </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>src</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">="/mn-transparency/imagens/salgado.png" </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>alt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>="Descrição"&gt;&lt;/img&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>Sabor</t>
   </si>
   <si>
@@ -128,14 +69,23 @@
     <t>Salgado Integral</t>
   </si>
   <si>
-    <t>Suco Natural</t>
+    <t>Sanduiche Natural</t>
+  </si>
+  <si>
+    <t>Frango, Peito de Peru</t>
+  </si>
+  <si>
+    <t>Suco Verde Detox</t>
+  </si>
+  <si>
+    <t>350 ml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,12 +100,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -542,20 +486,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="56.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="56.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,63 +510,86 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>10101</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1.99</v>
+      <c r="F2" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2020</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
+      <c r="F3">
+        <v>9.9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>6.9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
     <sortCondition ref="B2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E3BB2A-B9D4-4635-937E-96BBF65F3B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0772D8D6-4D45-4EA1-AA00-7D4C26FECF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
   <si>
     <t>Código</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t xml:space="preserve">Nosso Salgado Integral é feito com ingredientes naturais e de qualidade, combinando o sabor delicioso com os benefícios das fibras e nutrientes. Perfeito para quem busca uma opção mais leve, sem abrir mão do sabor irresistível. </t>
-  </si>
-  <si>
     <t>Unidade</t>
   </si>
   <si>
@@ -57,35 +54,176 @@
     <t>Sabor</t>
   </si>
   <si>
-    <t>Frango, Carne, Queijo</t>
-  </si>
-  <si>
     <t>Alergenicos</t>
   </si>
   <si>
-    <t>Contém Glúten</t>
-  </si>
-  <si>
-    <t>Salgado Integral</t>
-  </si>
-  <si>
     <t>Sanduiche Natural</t>
   </si>
   <si>
     <t>Frango, Peito de Peru</t>
   </si>
   <si>
-    <t>Suco Verde Detox</t>
-  </si>
-  <si>
-    <t>350 ml</t>
+    <t xml:space="preserve">Tapioca Simples                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapioca Mista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapioca Frango </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapioca Especial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapioca Doce  </t>
+  </si>
+  <si>
+    <t>Tapiocas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pao Integral Na Chapa C/Manteiga        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pao Integral C/Queijo (Quente/Frio)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pao Integral C/Ovo (2 Ovos)             </t>
+  </si>
+  <si>
+    <t>Misto Quente   (Presunto+Mussarela)</t>
+  </si>
+  <si>
+    <t>Misto Quente (Frango C/Requeijão)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coxinha Abobora Frango                  </t>
+  </si>
+  <si>
+    <t>Pão De Queijo Requeijão Tamanho G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omeletes | Crepiocas Simples           </t>
+  </si>
+  <si>
+    <t>Omeletes | Crepiocas Queijo Minas</t>
+  </si>
+  <si>
+    <t>Omeletes | Crepiocas Queijo Mussarela</t>
+  </si>
+  <si>
+    <t>Omeletes | Crepiocas Mista (Pre+Mussa)</t>
+  </si>
+  <si>
+    <t>Omeletes | Crepiocas Mista (Pre+Q.Minas)</t>
+  </si>
+  <si>
+    <t>Omeletes | Crepiocas Frango +Requeijão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omeletes | Crepiocas Especial   (Fra+Tom Seco+Req)       </t>
+  </si>
+  <si>
+    <t>Omeletes e Crepicoas</t>
+  </si>
+  <si>
+    <t>Pão de Queijo</t>
+  </si>
+  <si>
+    <t>Coxinha</t>
+  </si>
+  <si>
+    <t>Cachorro Quente</t>
+  </si>
+  <si>
+    <t>Frango, Requeijão, Carne Seca, Goiabada</t>
+  </si>
+  <si>
+    <t>Pão De Queijo Palitinho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pão De Queijo Coquetel </t>
+  </si>
+  <si>
+    <t>Pao De Queijo</t>
+  </si>
+  <si>
+    <t>Pão De Queijo</t>
+  </si>
+  <si>
+    <t>Pão De Queijo Palitão</t>
+  </si>
+  <si>
+    <t>Cheddar, Frango, Lombo, Requeijão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cachorro Quente Veg.                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esfiha Light Queijo Minas               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cachorro Quente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CheeseburgeR Frango             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croissant            </t>
+  </si>
+  <si>
+    <t>Empada Integral</t>
+  </si>
+  <si>
+    <t>Camarão</t>
+  </si>
+  <si>
+    <t>Queijo Minas, Ricota</t>
+  </si>
+  <si>
+    <t>Esfiha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peitp de Peru </t>
+  </si>
+  <si>
+    <t>Italiano</t>
+  </si>
+  <si>
+    <t>Massa Chee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pao De Batata </t>
+  </si>
+  <si>
+    <t>4 Queijos, Frango, Peito de Peru</t>
+  </si>
+  <si>
+    <t>Frango, Quiejo Minas, Palmito, Alho Poro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aipim , Batata Doce </t>
+  </si>
+  <si>
+    <t>Frango, Queijo, Peito de Peru</t>
+  </si>
+  <si>
+    <t>Pastel De Forno</t>
+  </si>
+  <si>
+    <t>Peito de Peru. Bacalhau, Cebola</t>
+  </si>
+  <si>
+    <t>Quiche</t>
+  </si>
+  <si>
+    <t>Salgados Integrais</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,8 +239,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,7 +258,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -136,11 +281,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -149,9 +318,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,17 +656,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="56.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -507,13 +681,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -522,76 +696,814 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="F2" s="3">
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <v>7.99</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <v>9.99</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3">
         <v>8.5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>9.9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>6.9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
+      <c r="H22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>39</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>40</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>42</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>43</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>48</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>50</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>52</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>62</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
-    <sortCondition ref="B2"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0772D8D6-4D45-4EA1-AA00-7D4C26FECF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124F3F1D-E595-4E58-9320-C8349C80F239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="196">
   <si>
     <t>Código</t>
   </si>
@@ -217,6 +217,402 @@
   </si>
   <si>
     <t>Salgados Integrais</t>
+  </si>
+  <si>
+    <t>Bolo Prestígio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolo Indiano                            </t>
+  </si>
+  <si>
+    <t>Sobremesas</t>
+  </si>
+  <si>
+    <t>1 Fatia</t>
+  </si>
+  <si>
+    <t>1 Pote</t>
+  </si>
+  <si>
+    <t>Sobremesa Inteira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolo Low Carb                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salada De Frutas                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gelatina Colorida </t>
+  </si>
+  <si>
+    <t>Pudim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolo Integral de Banana                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolo de Cenoura                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolo de Limao                              </t>
+  </si>
+  <si>
+    <t>Bolo de Laranja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolo de Doce de Leite                      </t>
+  </si>
+  <si>
+    <t>Bolo de Chocolate</t>
+  </si>
+  <si>
+    <t>Bolo de Nozes</t>
+  </si>
+  <si>
+    <t>Bolo de Canela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pavê de Amendoim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pave de Nozes                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torta de Maca c/Canela                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torta de Limao                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torta de Maracuja                          </t>
+  </si>
+  <si>
+    <t>Torta de Ameixa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torta de Banoffe                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broa c/Goiabada                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canjica c/Coco                          </t>
+  </si>
+  <si>
+    <t>Delicia dee Banana</t>
+  </si>
+  <si>
+    <t>Bolo Recheado MN MIx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pave de Abacaxi </t>
+  </si>
+  <si>
+    <t>Pote da Felicidade</t>
+  </si>
+  <si>
+    <t>Cheesecake</t>
+  </si>
+  <si>
+    <t>Doce Prestígio Zero Açucar</t>
+  </si>
+  <si>
+    <t>Doce Frutas Vermelhas Zero Açucar</t>
+  </si>
+  <si>
+    <t>Torta Inteira de Maçã</t>
+  </si>
+  <si>
+    <t>Bolo de Festa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suchá </t>
+  </si>
+  <si>
+    <t>Chá Xícara</t>
+  </si>
+  <si>
+    <t>Sucos Naturais</t>
+  </si>
+  <si>
+    <t>300 ml</t>
+  </si>
+  <si>
+    <t>500 ml</t>
+  </si>
+  <si>
+    <t>200 ml</t>
+  </si>
+  <si>
+    <t>500ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Natural de Abacaxi c/Hortela                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco 2 Frutas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco 3 Frutas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Super Verde Detox + Frutas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Detox Verde </t>
+  </si>
+  <si>
+    <t>Suco Natural de Guarana</t>
+  </si>
+  <si>
+    <t>Vitamina de 3 Frutas</t>
+  </si>
+  <si>
+    <t>Vitamina de 2 Frutas</t>
+  </si>
+  <si>
+    <t>Frutas a Escolher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Natural de Abacaxi          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Natural de Acerola           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Natural de Laranja     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Natural de Limao              </t>
+  </si>
+  <si>
+    <t>Suco Natural de Mamao</t>
+  </si>
+  <si>
+    <t>Suco Natural Manga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Natural Maracuja  </t>
+  </si>
+  <si>
+    <t>Suco Natural Melao</t>
+  </si>
+  <si>
+    <t>Suco Natural Morango</t>
+  </si>
+  <si>
+    <t>Suco Natural Amora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Energizante                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Super Imunidade                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Digestivo                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suco Anti Inflamatorio                  </t>
+  </si>
+  <si>
+    <t>Espresso Com Chantily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espresso Com Borda De Doce Leite Diet   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espresso Com Tonica               </t>
+  </si>
+  <si>
+    <t>Chai Latte</t>
+  </si>
+  <si>
+    <t>Ice Capuccino</t>
+  </si>
+  <si>
+    <t>Smoothie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frape                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latte Machiatto                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machiatto                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mocha                                   </t>
+  </si>
+  <si>
+    <t>Drip Cofee</t>
+  </si>
+  <si>
+    <t>Chocolate Gde</t>
+  </si>
+  <si>
+    <t>Chocolate Pqno</t>
+  </si>
+  <si>
+    <t>Soda Italiana</t>
+  </si>
+  <si>
+    <t>Cafés &amp; Chocolates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      17.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       2.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      16.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arroz Com Sobrecoxa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arroz Com Frango Desfiado               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arroz Com Strogonoff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macarrão Proteico      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macarrao Bolonhesa C/Salada            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marmitinha Maromba                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panqueca De Aveia Frango                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empadao Aveia C/Req     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empadao Grao De Bico    </t>
+  </si>
+  <si>
+    <t>Quibe Berinjela</t>
+  </si>
+  <si>
+    <t>Quibe Presunto/Queijo Rechea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quibe Ricota/Provolone  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saladinha               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torta De Camarao                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torta De Frango C/Requeijao             </t>
+  </si>
+  <si>
+    <t>Torta De Palmito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torta De Bacalhau                      </t>
+  </si>
+  <si>
+    <t>Bolo Batata Carne</t>
+  </si>
+  <si>
+    <t>Marmitinhas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Café Coado Com Leite </t>
+  </si>
+  <si>
+    <t>Café Coado Com Leite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Café Coado </t>
+  </si>
+  <si>
+    <t>Café Coado</t>
+  </si>
+  <si>
+    <t>Expresso Tradicional Duplo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espresso Tradicional                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affogato  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cafe Coado                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cafe Coado                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capuccino                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capuccino </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasanha de  Abobrinha </t>
+  </si>
+  <si>
+    <t>Carne, Queijo</t>
+  </si>
+  <si>
+    <t>Lasanha de Berinjela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panqueca Low Carb </t>
+  </si>
+  <si>
+    <t>Carne, Frango, Linguiça</t>
+  </si>
+  <si>
+    <t>Aipim</t>
+  </si>
+  <si>
+    <t>Batata Doce</t>
+  </si>
+  <si>
+    <t>Carne, Frango, Ricota</t>
+  </si>
+  <si>
+    <t>Nhoque e  Aipim c/ Carne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhoque e Batata c/ Frango </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quibe de Abobrinha c/ Ricota  </t>
+  </si>
+  <si>
+    <t>Bolode  Batata</t>
+  </si>
+  <si>
+    <t>Frango</t>
+  </si>
+  <si>
+    <t>Feijão</t>
+  </si>
+  <si>
+    <t>1 Porção</t>
+  </si>
+  <si>
+    <t>Bolo Salgado</t>
   </si>
 </sst>
 </file>
@@ -258,7 +654,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -292,36 +688,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +1057,8 @@
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -689,818 +1078,2833 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4">
         <v>12.9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4">
         <v>15.9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="4">
         <v>13.9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4">
         <v>10.9</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4">
         <v>10.9</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4">
         <v>13.9</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4">
         <v>19.899999999999999</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4">
         <v>3.2</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4">
         <v>7.99</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4">
         <v>6.5</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4">
         <v>9.99</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4">
         <v>10.9</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4">
         <v>7.9</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4">
         <v>9.5</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4">
         <v>7.9</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4">
         <v>8.5</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4">
         <v>1.99</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4">
         <v>1.5</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="4">
         <v>0.99</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="4">
         <v>8.5</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="4">
         <v>8.5</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4">
         <v>8.5</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="4">
         <v>8.5</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>39</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="4">
         <v>8.5</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>40</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="4">
         <v>8.5</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>42</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="4">
         <v>8.5</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>43</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4">
         <v>8.5</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>48</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4">
         <v>8.5</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>50</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4">
         <v>8.5</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>52</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4">
         <v>8.5</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>62</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4">
         <v>8.5</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>63</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>64</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>65</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>66</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>67</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>68</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>69</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>70</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>71</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>72</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="6">
+        <v>13.9</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>73</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>74</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>75</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="6">
+        <v>14</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>76</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>77</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>78</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>79</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>80</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>81</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>82</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="6">
+        <v>6</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>83</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>84</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>85</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>86</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>87</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>88</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>89</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>90</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>91</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>92</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>93</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="6">
+        <v>135</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>94</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="6">
+        <v>10.9</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>95</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="6">
+        <v>7.99</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>96</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="6">
+        <v>7.99</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>97</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="6">
+        <v>7.99</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>98</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="6">
+        <v>7.99</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>99</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="6">
+        <v>7.99</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>100</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="6">
+        <v>7.99</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>101</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="6">
+        <v>7.99</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>102</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="6">
+        <v>7.99</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>103</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="6">
+        <v>7.99</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>104</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>105</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>106</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>107</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>108</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>109</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="6">
+        <v>4</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>110</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>111</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>112</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>113</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
+        <v>114</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>115</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>116</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>117</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>118</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>119</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>120</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>121</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>122</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>123</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="10">
+        <v>10.9</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>124</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="10">
+        <v>10.9</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>125</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="10">
+        <v>8.9</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>126</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="10">
+        <v>10.9</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
+        <v>127</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
+        <v>128</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="10">
+        <v>8.9</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="7">
+        <v>129</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
+        <v>130</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="10">
+        <v>12.9</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>131</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>132</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="10">
+        <v>16</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
+        <v>133</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>134</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="10">
+        <v>7.9</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
+        <v>135</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="10">
+        <v>7.9</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="7">
+        <v>136</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="10">
+        <v>12.9</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="7">
+        <v>137</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="6">
+        <v>6.99</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="7">
+        <v>138</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="6">
+        <v>13.9</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="7">
+        <v>139</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="7">
+        <v>140</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="6">
+        <v>12</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="7">
+        <v>141</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="6">
+        <v>3</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="7">
+        <v>142</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="7">
+        <v>143</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="7">
+        <v>144</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="7">
+        <v>145</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C123" t="s">
+        <v>181</v>
+      </c>
+      <c r="D123" s="9"/>
+      <c r="F123" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="7">
+        <v>147</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C124" t="s">
+        <v>181</v>
+      </c>
+      <c r="D124" s="9"/>
+      <c r="F124" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="7">
+        <v>149</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D125" s="9"/>
+      <c r="F125" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="7">
+        <v>150</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D126" s="9"/>
+      <c r="F126" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="7">
+        <v>151</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D127" s="9"/>
+      <c r="F127" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="7">
+        <v>152</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D128" s="9"/>
+      <c r="F128" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="7">
+        <v>153</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D129" s="9"/>
+      <c r="F129" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="7">
+        <v>154</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D130" s="9"/>
+      <c r="F130" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="7">
+        <v>155</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D131" s="9"/>
+      <c r="F131" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="7">
+        <v>156</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C132" t="s">
+        <v>184</v>
+      </c>
+      <c r="D132" s="9"/>
+      <c r="F132" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="7">
+        <v>159</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C133" t="s">
+        <v>184</v>
+      </c>
+      <c r="D133" s="9"/>
+      <c r="F133" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="7">
+        <v>162</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C134" t="s">
+        <v>187</v>
+      </c>
+      <c r="D134" s="9"/>
+      <c r="F134" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="7">
+        <v>165</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D135" s="9"/>
+      <c r="F135" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="7">
+        <v>166</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D136" s="9"/>
+      <c r="F136" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="7">
+        <v>167</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D137" s="9"/>
+      <c r="F137" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="7">
+        <v>168</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="F138" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="7">
+        <v>169</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D139" s="9"/>
+      <c r="F139" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="7">
+        <v>170</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D140" s="9"/>
+      <c r="F140" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="7">
+        <v>171</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D141" s="9"/>
+      <c r="F141" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="7">
+        <v>172</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D142" s="9"/>
+      <c r="F142" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="7">
+        <v>173</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D143" s="9"/>
+      <c r="F143" s="6">
+        <v>5</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="7">
+        <v>174</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D144" s="9"/>
+      <c r="F144" s="6">
+        <v>15</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="7">
+        <v>175</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="F145" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="7">
+        <v>176</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D146" s="9"/>
+      <c r="F146" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="7">
+        <v>177</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D147" s="9"/>
+      <c r="F147" s="6">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="7">
+        <v>179</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D148" s="9"/>
+      <c r="F148" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="7">
+        <v>180</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C149" t="s">
+        <v>192</v>
+      </c>
+      <c r="D149" s="9"/>
+      <c r="F149" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="7">
+        <v>181</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D150" s="9"/>
+      <c r="F150" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H150" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="7">
+        <v>182</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D151" s="9"/>
+      <c r="F151" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124F3F1D-E595-4E58-9320-C8349C80F239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46AEFBB-8BF6-4CC7-8F1D-2556580DC146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
@@ -531,9 +531,6 @@
     <t>Bolo Batata Carne</t>
   </si>
   <si>
-    <t>Marmitinhas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Café Coado Com Leite </t>
   </si>
   <si>
@@ -613,6 +610,9 @@
   </si>
   <si>
     <t>Bolo Salgado</t>
+  </si>
+  <si>
+    <t>Refeições</t>
   </si>
 </sst>
 </file>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3031,7 +3031,7 @@
         <v>120</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="4"/>
@@ -3048,7 +3048,7 @@
         <v>121</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="4"/>
@@ -3065,7 +3065,7 @@
         <v>122</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="4"/>
@@ -3082,7 +3082,7 @@
         <v>123</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="4"/>
@@ -3099,7 +3099,7 @@
         <v>124</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="4"/>
@@ -3150,7 +3150,7 @@
         <v>127</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="4"/>
@@ -3167,7 +3167,7 @@
         <v>128</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="4"/>
@@ -3388,7 +3388,7 @@
         <v>141</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="4"/>
@@ -3405,7 +3405,7 @@
         <v>142</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="4"/>
@@ -3422,7 +3422,7 @@
         <v>143</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="4"/>
@@ -3439,7 +3439,7 @@
         <v>144</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="4"/>
@@ -3456,17 +3456,17 @@
         <v>145</v>
       </c>
       <c r="B123" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C123" t="s">
         <v>180</v>
-      </c>
-      <c r="C123" t="s">
-        <v>181</v>
       </c>
       <c r="D123" s="9"/>
       <c r="F123" s="6">
         <v>15.9</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3474,17 +3474,17 @@
         <v>147</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C124" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D124" s="9"/>
       <c r="F124" s="6">
         <v>15.9</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3499,7 +3499,7 @@
         <v>15.9</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3514,7 +3514,7 @@
         <v>15.9</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3529,7 +3529,7 @@
         <v>15.9</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3544,7 +3544,7 @@
         <v>15.9</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3559,7 +3559,7 @@
         <v>15.9</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3574,7 +3574,7 @@
         <v>15.9</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3589,7 +3589,7 @@
         <v>15.9</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3597,17 +3597,17 @@
         <v>156</v>
       </c>
       <c r="B132" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C132" t="s">
         <v>183</v>
-      </c>
-      <c r="C132" t="s">
-        <v>184</v>
       </c>
       <c r="D132" s="9"/>
       <c r="F132" s="6">
         <v>15.9</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -3615,17 +3615,17 @@
         <v>159</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C133" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D133" s="9"/>
       <c r="F133" s="6">
         <v>15.9</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -3633,17 +3633,17 @@
         <v>162</v>
       </c>
       <c r="B134" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C134" t="s">
         <v>186</v>
-      </c>
-      <c r="C134" t="s">
-        <v>187</v>
       </c>
       <c r="D134" s="9"/>
       <c r="F134" s="6">
         <v>15.9</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -3658,7 +3658,7 @@
         <v>15.9</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -3673,7 +3673,7 @@
         <v>15.9</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -3681,14 +3681,14 @@
         <v>167</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D137" s="9"/>
       <c r="F137" s="6">
         <v>15.9</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3696,14 +3696,14 @@
         <v>168</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D138" s="9"/>
       <c r="F138" s="6">
         <v>15.9</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -3711,14 +3711,14 @@
         <v>169</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D139" s="9"/>
       <c r="F139" s="6">
         <v>15.9</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -3733,7 +3733,7 @@
         <v>15.9</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -3748,7 +3748,7 @@
         <v>15.9</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -3763,7 +3763,7 @@
         <v>15.9</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -3778,7 +3778,7 @@
         <v>5</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -3793,7 +3793,7 @@
         <v>15</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -3808,7 +3808,7 @@
         <v>11.5</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -3823,7 +3823,7 @@
         <v>11.5</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -3838,7 +3838,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -3853,7 +3853,7 @@
         <v>14.9</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -3861,17 +3861,17 @@
         <v>180</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C149" t="s">
         <v>191</v>
-      </c>
-      <c r="C149" t="s">
-        <v>192</v>
       </c>
       <c r="D149" s="9"/>
       <c r="F149" s="6">
         <v>14.9</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -3879,17 +3879,17 @@
         <v>181</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D150" s="9"/>
       <c r="F150" s="6">
         <v>3.5</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="H150" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -3897,14 +3897,14 @@
         <v>182</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D151" s="9"/>
       <c r="F151" s="6">
         <v>12.9</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinopc\Project\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D64FD5F-146A-43A7-B678-B5F25367CCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7030F20-03F2-4541-89A8-34461E19E297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="239">
   <si>
     <t>Código</t>
   </si>
@@ -366,21 +366,6 @@
     <t xml:space="preserve"> (Fra+Tom Seco+Req)       </t>
   </si>
   <si>
-    <t>Nossa Tapioca Simples é feita com ingredientes naturais e de qualidade, proporcionando uma opção leve e saborosa. Perfeita para quem aprecia o autêntico sabor da tapioca, sem abrir mão da textura macia e irresistível.</t>
-  </si>
-  <si>
-    <t>Nossa Tapioca de Frango é preparada com ingredientes naturais e recheada com frango suculento, garantindo um sabor irresistível. Uma opção nutritiva e leve para qualquer momento do di</t>
-  </si>
-  <si>
-    <t>Nossa Tapioca Mista combina ingredientes selecionados para oferecer um equilíbrio perfeito entre sabor e nutrição. Ideal para quem busca uma refeição leve e deliciosa, sem abrir mão da qualidade.</t>
-  </si>
-  <si>
-    <t>Nossa Tapioca Especial é feita com uma seleção exclusiva de ingredientes, combinando sabor e qualidade em cada mordida. Uma escolha perfeita para quem deseja uma experiência diferenciada e deliciosa.</t>
-  </si>
-  <si>
-    <t>Nossa Tapioca Doce traz uma combinação equilibrada de sabores, unindo a leveza da tapioca ao toque adocicado irresistível. Uma opção deliciosa para adoçar seu dia de forma leve e natural.</t>
-  </si>
-  <si>
     <t>Nossa Crepioca de Queijo Mussarela combina a cremosidade e o sabor irresistível do queijo com a leveza da massa, oferecendo uma opção deliciosa para qualquer momento.</t>
   </si>
   <si>
@@ -645,23 +630,125 @@
     <t>Frango, Carne</t>
   </si>
   <si>
-    <t>Nosso Bolo de Batata é feito com uma massa macia e saborosa, combinando o toque leve da batata com temperos especiais. Uma opção irresistível, perfeita para qualquer momento do dia, unindo cremosidade e um sabor caseiro inconfundível!</t>
-  </si>
-  <si>
     <t>Peito de Peru, Bacalhau, Cebola</t>
   </si>
   <si>
-    <t>Nosso Quiche é preparado com uma massa leve e crocante, recheado com ingredientes selecionados que garantem cremosidade e um sabor irresistível. Perfeito para quem busca uma opção sofisticada e deliciosa para qualquer momento do dia!</t>
-  </si>
-  <si>
-    <t>Nosso Croissant é feito com uma massa leve e folhada, assado até atingir a crocância perfeita. Com um sabor amanteigado irresistível, é a escolha ideal para um café da manhã ou lanche especial!</t>
+    <t>Uma combinação equilibrada de café espresso e sorvete de baunilha, oferecendo um boost de energia com moderação. Uma opção para momentos de indulgência consciente, rica em antioxidantes do café.</t>
+  </si>
+  <si>
+    <t>Preparado ao forno para preservar nutrientes e reduzir calorias. Rica fonte de energia de baixo índice glicêmico e fibras, acompanhada de proteínas magras selecionadas.</t>
+  </si>
+  <si>
+    <t>Combinação balanceada de carboidratos complexos e proteínas magras, preparada com temperos naturais e baixo teor de sódio. Uma refeição completa e nutritiva.</t>
+  </si>
+  <si>
+    <t>Rica em betacaroteno e fibras, nossa batata doce é assada para preservar nutrientes e reduzir calorias. Os recheios são fontes de proteínas magras e complementam o perfil nutricional.</t>
+  </si>
+  <si>
+    <t>Nosso Bolo de Batata é feito com uma massa macia e saborosa, combinando o toque leve da batata com temperos especiais. Uma opção irresistível, perfeita para qualquer momento do dia, unindo cremosidade e um sabor caseiro inconfundível!</t>
+  </si>
+  <si>
+    <t>Rico em fibras e naturalmente adoçado com banana madura, reduzindo a necessidade de açúcar refinado. Fonte de potássio e vitaminas do complexo B.</t>
+  </si>
+  <si>
+    <t>Desenvolvido especialmente para dietas com restrição de carboidratos, utiliza farinhas de amêndoas e coco, ricas em fibras e gorduras saudáveis. Adoçado com eritritol, não causa picos glicêmicos.</t>
+  </si>
+  <si>
+    <t>Elaborado com pão integral rico em fibras e salsicha de frango com baixo teor de sódio, acompanhado de molho caseiro sem conservantes. Uma opção mais equilibrada para quem deseja um lanche tradicional</t>
+  </si>
+  <si>
+    <t>Preparado com grãos selecionados, nosso café coado preserva os antioxidantes naturais que auxiliam na função cognitiva. Uma bebida de baixa caloria que pode ser incluída em dietas balanceadas.</t>
+  </si>
+  <si>
+    <t>Preparado com leite parcialmente desnatado e café de alta qualidade, nosso capuccino oferece cálcio e proteínas com menor teor de gordura. Uma opção reconfortante com benefícios para a saúde óssea.</t>
+  </si>
+  <si>
+    <t>Elaborado com especiarias como canela, cravo e cardamomo, nosso Chai Latte combina propriedades anti-inflamatórias e antioxidantes. Uma opção reconfortante que contribui para seu bem-estar.</t>
+  </si>
+  <si>
+    <t>Preparado com cacau de alta qualidade e leite com reduzido teor de açúcar, oferece flavonoides benéficos para a saúde cardiovascular. Uma opção equilibrada para momentos de prazer consciente.</t>
+  </si>
+  <si>
+    <t>Nossa coxinha é assada (não frita) e preparada com massa de aipim ou batata doce, fontes de carboidratos complexos e fibras. O recheio de frango é preparado com peito desfiado, oferecendo proteína magra de alta qualidade.</t>
+  </si>
+  <si>
+    <t>Preparado com massa integral fermentada naturalmente, oferecendo fibras e nutrientes essenciais. Os recheios são preparados com ingredientes de alta qualidade e baixo teor de sódio.</t>
+  </si>
+  <si>
+    <t>Massa rica em fibras e nutrientes essenciais, com recheios preparados artesanalmente sem conservantes artificiais. O recheio de camarão é fonte de proteínas de alta qualidade e selênio.</t>
+  </si>
+  <si>
+    <t>Combina massa integral rica em fibras com queijo minas, fonte de proteínas e cálcio com menor teor de gordura. A ricota adiciona cremosidade com baixo teor calórico.</t>
+  </si>
+  <si>
+    <t>Preparada com gelatina sem açúcar e frutas naturais, oferece proteínas de fácil digestão e antioxidantes. Uma opção leve e refrescante para finalizar sua refeição.</t>
+  </si>
+  <si>
+    <t>Elaborado com massa integral e recheado com combinação nutritiva de frango magro, queijo minas, palmito (fonte de fibras) e alho poró (rico em antioxidantes e compostos sulfurados benéficos).</t>
+  </si>
+  <si>
+    <t>Substitui a massa tradicional por fatias de abobrinha, reduzindo drasticamente o teor calórico e aumentando o aporte de fibras e nutrientes. Uma opção low-carb deliciosa e nutritiva.</t>
+  </si>
+  <si>
+    <t>Desenvolvida especialmente para praticantes de atividade física, oferece balanço ideal entre proteínas magras, carboidratos complexos e gorduras saudáveis. Rica em nutrientes que auxiliam na recuperação muscular.</t>
+  </si>
+  <si>
+    <t>Preparado com pão integral rico em fibras e frango desfiado, fonte de proteínas magras. O requeijão light adiciona cremosidade com menos gordura, resultando em um lanche nutritivo e satisfatório.</t>
+  </si>
+  <si>
+    <t>Nossa versão utiliza leite desnatado e redução de açúcar, resultando em uma sobremesa mais leve e nutritiva. Rico em cálcio e proteínas lácteas de alta qualidade.</t>
+  </si>
+  <si>
+    <t>Versão mais leve do tradicional quibe, substituindo parte da carne por abobrinha rica em fibras e água. A ricota adiciona proteínas e cálcio com menor teor de gordura.</t>
+  </si>
+  <si>
+    <t>Preparado com massa leve e crocante, recheado com ingredientes selecionados que garantem cremosidade e um sabor irresistível. Nossa versão de cebola é rica em quercetina, um flavonoide com propriedades anti-inflamatórias.</t>
+  </si>
+  <si>
+    <t>Combinação fresca de frutas sazonais, rica em vitaminas, minerais, fibras e antioxidantes naturais. Sem adição de açúcar, preservando o sabor natural e os benefícios nutricionais das frutas.</t>
+  </si>
+  <si>
+    <t>Combinação equilibrada de pão integral rico em fibras, proteínas magras (frango ou peito de peru) e vegetais frescos. Rico em nutrientes essenciais e com baixo teor de gorduras saturadas.</t>
+  </si>
+  <si>
+    <t>Blend funcional desenvolvido com ingredientes com propriedades anti-inflamatórias naturais, como gengibre, cúrcuma e frutas cítricas. Auxilia na redução da inflamação celular e melhora da imunidade.</t>
+  </si>
+  <si>
+    <t>Combinação potente de folhas verdes, maçã e limão, rica em clorofila, enzimas e antioxidantes que auxiliam nos processos naturais de desintoxicação do organismo.</t>
+  </si>
+  <si>
+    <t>Preparado na hora, preservando vitamina C e flavonoides cítricos essenciais para o sistema imunológico. Sem adição de açúcar, conservantes ou corantes.</t>
+  </si>
+  <si>
+    <t>Combinação estratégica de frutas ricas em vitamina C e zinco, nutrientes essenciais para o fortalecimento do sistema imunológico. Preparado na hora para máxima preservação nutricional.</t>
+  </si>
+  <si>
+    <t>Opção doce mais saudável, preparada com frutas frescas ou geleia sem açúcar adicionado. Os carboidratos complexos da tapioca proporcionam energia de absorção gradual, evitando picos glicêmicos.</t>
+  </si>
+  <si>
+    <t>Combinação premium de ingredientes selecionados por seu valor nutricional, resultando em um perfil equilibrado de macro e micronutrientes. Rica em proteínas, fibras e antioxidantes naturais.</t>
+  </si>
+  <si>
+    <t>Rica em proteínas magras do frango e carboidratos complexos da tapioca, oferece saciedade prolongada e energia sustentada. O preparo grelhado do frango preserva nutrientes e minimiza adição de gorduras.</t>
+  </si>
+  <si>
+    <t>Combinação equilibrada de carboidratos complexos da tapioca com proteínas magras e vegetais frescos. Uma refeição completa rica em nutrientes essenciais e com perfil de absorção lenta.</t>
+  </si>
+  <si>
+    <t>Fonte natural de carboidratos de baixo índice glicêmico, nossa tapioca é livre de glúten e oferece energia sustentada. Uma excelente alternativa ao pão tradicional, especialmente para sensíveis ao glúten.</t>
+  </si>
+  <si>
+    <t>Blend nutritivo de frutas frescas com leite (opcional vegetal), oferecendo proteínas, cálcio e vitaminas essenciais. Uma opção completa para reposição energética e nutricional.</t>
+  </si>
+  <si>
+    <t>Blend nutritivo de três frutas selecionadas com leite (opcional vegetal), rico em antioxidantes, fibras e nutrientes essenciais. Uma combinação balanceada para máximo benefício nutricional.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -751,6 +838,13 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1087,23 +1181,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1207,7 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1129,15 +1223,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="8"/>
+      <c r="D2" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="9" t="s">
         <v>83</v>
@@ -1147,7 +1243,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>159</v>
       </c>
@@ -1157,8 +1253,9 @@
       <c r="C3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="11" t="s">
+        <v>203</v>
+      </c>
       <c r="F3" s="6">
         <v>15.9</v>
       </c>
@@ -1167,16 +1264,17 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>150</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="F4" s="6">
         <v>15.9</v>
       </c>
@@ -1185,15 +1283,15 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>149</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="2"/>
       <c r="F5" s="6">
         <v>15.9</v>
@@ -1203,15 +1301,15 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>151</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="2"/>
       <c r="F6" s="6">
         <v>15.9</v>
@@ -1221,7 +1319,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>162</v>
       </c>
@@ -1231,7 +1329,9 @@
       <c r="C7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="11" t="s">
+        <v>205</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="6">
         <v>15.9</v>
@@ -1241,7 +1341,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>179</v>
       </c>
@@ -1249,7 +1349,7 @@
         <v>90</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="2"/>
       <c r="F8" s="6">
         <v>14.9</v>
@@ -1259,17 +1359,17 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>180</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>206</v>
       </c>
       <c r="E9" s="2"/>
@@ -1283,7 +1383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>73</v>
       </c>
@@ -1302,12 +1402,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>64</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
@@ -1321,7 +1421,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>69</v>
       </c>
@@ -1340,12 +1440,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>67</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C13" s="2"/>
       <c r="E13" s="2"/>
@@ -1359,7 +1459,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>94</v>
       </c>
@@ -1367,7 +1467,7 @@
         <v>57</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="2"/>
       <c r="F14" s="6">
         <v>10.9</v>
@@ -1379,7 +1479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>66</v>
       </c>
@@ -1387,7 +1487,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="2"/>
       <c r="F15" s="6">
         <v>4.5</v>
@@ -1399,15 +1499,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="2"/>
       <c r="F16" s="6">
         <v>7.9</v>
@@ -1419,7 +1519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>72</v>
       </c>
@@ -1427,7 +1527,7 @@
         <v>47</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="2"/>
       <c r="F17" s="6">
         <v>13.9</v>
@@ -1439,15 +1539,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>71</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="2"/>
       <c r="F18" s="6">
         <v>9.9</v>
@@ -1459,15 +1559,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="11" t="s">
+        <v>207</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="6">
         <v>6.9</v>
@@ -1479,15 +1581,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>70</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="6">
         <v>12.9</v>
@@ -1499,7 +1603,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>68</v>
       </c>
@@ -1507,7 +1611,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="2"/>
       <c r="F21" s="6">
         <v>9.9</v>
@@ -1519,7 +1623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>87</v>
       </c>
@@ -1527,7 +1631,7 @@
         <v>51</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="2"/>
       <c r="F22" s="6">
         <v>14.9</v>
@@ -1539,7 +1643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>182</v>
       </c>
@@ -1547,7 +1651,7 @@
         <v>102</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="2"/>
       <c r="F23" s="6">
         <v>12.9</v>
@@ -1557,15 +1661,15 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>81</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="2"/>
       <c r="F24" s="6">
         <v>5.9</v>
@@ -1577,7 +1681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1585,7 +1689,9 @@
         <v>18</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="13" t="s">
+        <v>209</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="4">
         <v>8.5</v>
@@ -1597,7 +1703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>28</v>
       </c>
@@ -1605,7 +1711,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="2"/>
       <c r="F26" s="4">
         <v>8.5</v>
@@ -1617,15 +1723,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>29</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="2"/>
       <c r="F27" s="4">
         <v>8.5</v>
@@ -1637,15 +1743,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>121</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="9" t="s">
         <v>84</v>
@@ -1655,15 +1763,15 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>122</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="2"/>
       <c r="F29" s="9" t="s">
         <v>85</v>
@@ -1673,7 +1781,7 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>141</v>
       </c>
@@ -1681,7 +1789,7 @@
         <v>92</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="2"/>
       <c r="F30" s="6">
         <v>3</v>
@@ -1691,7 +1799,7 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>142</v>
       </c>
@@ -1699,7 +1807,7 @@
         <v>92</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="8"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="2"/>
       <c r="F31" s="6">
         <v>4.5</v>
@@ -1709,7 +1817,7 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>143</v>
       </c>
@@ -1717,7 +1825,7 @@
         <v>91</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="2"/>
       <c r="F32" s="6">
         <v>3.3</v>
@@ -1727,7 +1835,7 @@
       </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>144</v>
       </c>
@@ -1735,7 +1843,7 @@
         <v>91</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="2"/>
       <c r="F33" s="6">
         <v>4.8</v>
@@ -1745,15 +1853,15 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>83</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="2"/>
       <c r="F34" s="6">
         <v>7.5</v>
@@ -1765,15 +1873,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>123</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="9">
         <v>10.9</v>
@@ -1783,15 +1893,15 @@
       </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>124</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="2"/>
       <c r="F36" s="9">
         <v>10.9</v>
@@ -1801,7 +1911,7 @@
       </c>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>115</v>
       </c>
@@ -1809,7 +1919,7 @@
         <v>58</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="2"/>
       <c r="F37" s="6">
         <v>2.5</v>
@@ -1819,7 +1929,7 @@
       </c>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>130</v>
       </c>
@@ -1827,7 +1937,9 @@
         <v>75</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="11" t="s">
+        <v>212</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="9">
         <v>12.9</v>
@@ -1837,16 +1949,16 @@
       </c>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
         <v>30</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>203</v>
+      <c r="D39" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="4">
@@ -1859,7 +1971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>90</v>
       </c>
@@ -1878,7 +1990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>138</v>
       </c>
@@ -1886,7 +1998,9 @@
         <v>79</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="11" t="s">
+        <v>213</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="6">
         <v>13.9</v>
@@ -1896,7 +2010,7 @@
       </c>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>139</v>
       </c>
@@ -1904,7 +2018,9 @@
         <v>80</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="11" t="s">
+        <v>213</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="6">
         <v>9.9</v>
@@ -1914,7 +2030,7 @@
       </c>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>20</v>
       </c>
@@ -1924,7 +2040,9 @@
       <c r="C43" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="4">
         <v>7.9</v>
@@ -1936,15 +2054,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="2">
         <v>19</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="13"/>
       <c r="E44" s="2"/>
       <c r="F44" s="4">
         <v>9.5</v>
@@ -1956,18 +2074,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>31</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D45" t="s">
-        <v>209</v>
+      <c r="D45" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="4">
@@ -1980,7 +2098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="2">
         <v>86</v>
       </c>
@@ -1988,7 +2106,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="13"/>
       <c r="E46" s="2"/>
       <c r="F46" s="6">
         <v>12.9</v>
@@ -2000,7 +2118,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="2">
         <v>92</v>
       </c>
@@ -2008,7 +2126,7 @@
         <v>55</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="13"/>
       <c r="E47" s="2"/>
       <c r="F47" s="6">
         <v>12.9</v>
@@ -2020,7 +2138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="2">
         <v>91</v>
       </c>
@@ -2028,7 +2146,7 @@
         <v>54</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="D48" s="13"/>
       <c r="E48" s="2"/>
       <c r="F48" s="6">
         <v>9.9</v>
@@ -2040,7 +2158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="2">
         <v>137</v>
       </c>
@@ -2048,7 +2166,7 @@
         <v>78</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="4"/>
+      <c r="D49" s="14"/>
       <c r="E49" s="2"/>
       <c r="F49" s="6">
         <v>6.99</v>
@@ -2058,7 +2176,7 @@
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="2">
         <v>39</v>
       </c>
@@ -2068,7 +2186,9 @@
       <c r="C50" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="11" t="s">
+        <v>216</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4">
         <v>8.5</v>
@@ -2080,15 +2200,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="2">
         <v>165</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="4"/>
+      <c r="D51" s="14"/>
       <c r="E51" s="2"/>
       <c r="F51" s="6">
         <v>15.9</v>
@@ -2098,15 +2218,15 @@
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="2">
         <v>166</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="4"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="2"/>
       <c r="F52" s="6">
         <v>15.9</v>
@@ -2116,7 +2236,7 @@
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="2">
         <v>42</v>
       </c>
@@ -2126,7 +2246,7 @@
       <c r="C53" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" s="13"/>
       <c r="E53" s="2"/>
       <c r="F53" s="4">
         <v>8.5</v>
@@ -2138,17 +2258,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="2">
         <v>40</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="11" t="s">
+        <v>217</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="4">
         <v>8.5</v>
@@ -2160,15 +2282,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="2">
         <v>126</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="4"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="2"/>
       <c r="F55" s="9">
         <v>10.9</v>
@@ -2178,7 +2300,7 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="2">
         <v>125</v>
       </c>
@@ -2186,7 +2308,7 @@
         <v>74</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="4"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="2"/>
       <c r="F56" s="9">
         <v>8.9</v>
@@ -2196,15 +2318,15 @@
       </c>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="2">
         <v>129</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="4"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="2"/>
       <c r="F57" s="6">
         <v>12.9</v>
@@ -2214,15 +2336,15 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="2">
         <v>127</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="4"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="2"/>
       <c r="F58" s="9">
         <v>5.9</v>
@@ -2232,7 +2354,7 @@
       </c>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="2">
         <v>128</v>
       </c>
@@ -2240,7 +2362,7 @@
         <v>93</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="4"/>
+      <c r="D59" s="14"/>
       <c r="E59" s="2"/>
       <c r="F59" s="9">
         <v>8.9</v>
@@ -2250,7 +2372,7 @@
       </c>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="2">
         <v>181</v>
       </c>
@@ -2258,7 +2380,7 @@
         <v>100</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="D60" s="13"/>
       <c r="E60" s="2"/>
       <c r="F60" s="6">
         <v>3.5</v>
@@ -2270,15 +2392,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="2">
         <v>133</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="4"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="2"/>
       <c r="F61" s="9" t="s">
         <v>86</v>
@@ -2288,15 +2410,17 @@
       </c>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="2">
         <v>84</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="11" t="s">
+        <v>218</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="F62" s="6">
         <v>7.9</v>
@@ -2308,7 +2432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="2">
         <v>131</v>
       </c>
@@ -2316,7 +2440,7 @@
         <v>76</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="4"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="2"/>
       <c r="F63" s="9">
         <v>12.5</v>
@@ -2326,7 +2450,7 @@
       </c>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="2">
         <v>43</v>
       </c>
@@ -2336,7 +2460,9 @@
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" s="13" t="s">
+        <v>219</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="4">
         <v>8.5</v>
@@ -2348,17 +2474,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="2">
         <v>145</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="11" t="s">
+        <v>220</v>
+      </c>
       <c r="E65" s="2"/>
       <c r="F65" s="6">
         <v>15.9</v>
@@ -2368,7 +2496,7 @@
       </c>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="2">
         <v>147</v>
       </c>
@@ -2378,7 +2506,7 @@
       <c r="C66" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="4"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="2"/>
       <c r="F66" s="6">
         <v>15.9</v>
@@ -2388,15 +2516,15 @@
       </c>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="2">
         <v>134</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="4"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="2"/>
       <c r="F67" s="9">
         <v>7.9</v>
@@ -2406,15 +2534,15 @@
       </c>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="2">
         <v>153</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="14"/>
       <c r="E68" s="2"/>
       <c r="F68" s="6">
         <v>15.9</v>
@@ -2424,15 +2552,15 @@
       </c>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="2">
         <v>152</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="4"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="2"/>
       <c r="F69" s="6">
         <v>15.9</v>
@@ -2442,15 +2570,15 @@
       </c>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="2">
         <v>135</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="4"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="2"/>
       <c r="F70" s="9">
         <v>7.9</v>
@@ -2460,15 +2588,17 @@
       </c>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="2">
         <v>154</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="4"/>
+      <c r="D71" s="11" t="s">
+        <v>221</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="6">
         <v>15.9</v>
@@ -2478,7 +2608,7 @@
       </c>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="2">
         <v>48</v>
       </c>
@@ -2486,7 +2616,7 @@
         <v>31</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="D72" s="13"/>
       <c r="E72" s="2"/>
       <c r="F72" s="4">
         <v>8.5</v>
@@ -2498,7 +2628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="2">
         <v>17</v>
       </c>
@@ -2506,7 +2636,9 @@
         <v>13</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="D73" s="13" t="s">
+        <v>222</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="4">
         <v>10.9</v>
@@ -2518,15 +2650,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" s="2">
         <v>16</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="D74" s="13"/>
       <c r="E74" s="2"/>
       <c r="F74" s="4">
         <v>9.99</v>
@@ -2538,15 +2670,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="2">
         <v>136</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="D75" s="4"/>
+      <c r="D75" s="14"/>
       <c r="E75" s="2"/>
       <c r="F75" s="9">
         <v>12.9</v>
@@ -2556,15 +2688,15 @@
       </c>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" s="2">
         <v>167</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C76" s="2"/>
-      <c r="D76" s="4"/>
+      <c r="D76" s="14"/>
       <c r="E76" s="2"/>
       <c r="F76" s="6">
         <v>15.9</v>
@@ -2574,15 +2706,15 @@
       </c>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="2">
         <v>168</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C77" s="2"/>
-      <c r="D77" s="4"/>
+      <c r="D77" s="14"/>
       <c r="E77" s="2"/>
       <c r="F77" s="6">
         <v>15.9</v>
@@ -2592,7 +2724,7 @@
       </c>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="2">
         <v>11</v>
       </c>
@@ -2602,8 +2734,8 @@
       <c r="C78" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>122</v>
+      <c r="D78" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4">
@@ -2616,18 +2748,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" s="2">
         <v>12</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>123</v>
+      <c r="D79" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="4">
@@ -2640,7 +2772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="2">
         <v>9</v>
       </c>
@@ -2650,8 +2782,8 @@
       <c r="C80" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>120</v>
+      <c r="D80" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4">
@@ -2664,7 +2796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="2">
         <v>10</v>
       </c>
@@ -2674,8 +2806,8 @@
       <c r="C81" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>121</v>
+      <c r="D81" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="4">
@@ -2688,7 +2820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="2">
         <v>7</v>
       </c>
@@ -2698,8 +2830,8 @@
       <c r="C82" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>119</v>
+      <c r="D82" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="4">
@@ -2712,7 +2844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="2">
         <v>8</v>
       </c>
@@ -2722,8 +2854,8 @@
       <c r="C83" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>118</v>
+      <c r="D83" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4">
@@ -2736,15 +2868,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="2">
         <v>6</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="D84" s="13"/>
       <c r="E84" s="2"/>
       <c r="F84" s="4">
         <v>10.9</v>
@@ -2756,15 +2888,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="2">
         <v>155</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C85" s="2"/>
-      <c r="D85" s="4"/>
+      <c r="D85" s="14"/>
       <c r="E85" s="2"/>
       <c r="F85" s="6">
         <v>15.9</v>
@@ -2774,17 +2906,17 @@
       </c>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="2">
         <v>156</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D86" s="4"/>
+      <c r="D86" s="14"/>
       <c r="E86" s="2"/>
       <c r="F86" s="6">
         <v>15.9</v>
@@ -2794,17 +2926,17 @@
       </c>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="2">
         <v>50</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="2"/>
+      <c r="D87" s="13"/>
       <c r="E87" s="2"/>
       <c r="F87" s="4">
         <v>8.5</v>
@@ -2816,7 +2948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="2">
         <v>22</v>
       </c>
@@ -2826,7 +2958,7 @@
       <c r="C88" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="2"/>
+      <c r="D88" s="13"/>
       <c r="E88" s="2"/>
       <c r="F88" s="4">
         <v>1.99</v>
@@ -2838,7 +2970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="2">
         <v>23</v>
       </c>
@@ -2848,7 +2980,7 @@
       <c r="C89" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="2"/>
+      <c r="D89" s="13"/>
       <c r="E89" s="2"/>
       <c r="F89" s="4">
         <v>2.2000000000000002</v>
@@ -2860,15 +2992,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="2">
         <v>25</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="D90" s="13"/>
       <c r="E90" s="2"/>
       <c r="F90" s="4">
         <v>0.99</v>
@@ -2880,7 +3012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="2">
         <v>26</v>
       </c>
@@ -2888,7 +3020,7 @@
         <v>23</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="13"/>
       <c r="E91" s="2"/>
       <c r="F91" s="4">
         <v>4.9000000000000004</v>
@@ -2900,7 +3032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="2">
         <v>24</v>
       </c>
@@ -2908,7 +3040,7 @@
         <v>20</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="D92" s="13"/>
       <c r="E92" s="2"/>
       <c r="F92" s="4">
         <v>1.5</v>
@@ -2920,7 +3052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="2">
         <v>27</v>
       </c>
@@ -2928,7 +3060,7 @@
         <v>14</v>
       </c>
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="13"/>
       <c r="E93" s="2"/>
       <c r="F93" s="4">
         <v>4.9000000000000004</v>
@@ -2940,15 +3072,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="2">
         <v>15</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="D94" s="13"/>
       <c r="E94" s="2"/>
       <c r="F94" s="4">
         <v>6.5</v>
@@ -2960,15 +3092,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="2">
         <v>14</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="D95" s="13"/>
       <c r="E95" s="2"/>
       <c r="F95" s="4">
         <v>7.99</v>
@@ -2980,15 +3112,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="2">
         <v>13</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="D96" s="13"/>
       <c r="E96" s="2"/>
       <c r="F96" s="4">
         <v>3.2</v>
@@ -3000,7 +3132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="2">
         <v>52</v>
       </c>
@@ -3010,7 +3142,7 @@
       <c r="C97" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D97" s="2"/>
+      <c r="D97" s="13"/>
       <c r="E97" s="2"/>
       <c r="F97" s="4">
         <v>8.5</v>
@@ -3022,15 +3154,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="2">
         <v>88</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="D98" s="13"/>
       <c r="E98" s="2"/>
       <c r="F98" s="6">
         <v>12.9</v>
@@ -3042,15 +3174,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="2">
         <v>74</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="D99" s="13"/>
       <c r="E99" s="2"/>
       <c r="F99" s="6">
         <v>11.5</v>
@@ -3062,15 +3194,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="2">
         <v>75</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="D100" s="13"/>
       <c r="E100" s="2"/>
       <c r="F100" s="6">
         <v>14</v>
@@ -3082,7 +3214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="2">
         <v>89</v>
       </c>
@@ -3090,7 +3222,7 @@
         <v>52</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="D101" s="13"/>
       <c r="E101" s="2"/>
       <c r="F101" s="6">
         <v>12.9</v>
@@ -3102,7 +3234,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="2">
         <v>85</v>
       </c>
@@ -3110,7 +3242,9 @@
         <v>44</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="D102" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="E102" s="2"/>
       <c r="F102" s="6">
         <v>7.9</v>
@@ -3122,7 +3256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="2">
         <v>170</v>
       </c>
@@ -3130,7 +3264,7 @@
         <v>87</v>
       </c>
       <c r="C103" s="2"/>
-      <c r="D103" s="4"/>
+      <c r="D103" s="14"/>
       <c r="E103" s="2"/>
       <c r="F103" s="6">
         <v>15.9</v>
@@ -3139,15 +3273,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="2">
         <v>169</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C104" s="2"/>
-      <c r="D104" s="4"/>
+      <c r="D104" s="11" t="s">
+        <v>224</v>
+      </c>
       <c r="E104" s="2"/>
       <c r="F104" s="6">
         <v>15.9</v>
@@ -3156,7 +3292,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="2">
         <v>171</v>
       </c>
@@ -3164,7 +3300,7 @@
         <v>88</v>
       </c>
       <c r="C105" s="2"/>
-      <c r="D105" s="4"/>
+      <c r="D105" s="14"/>
       <c r="E105" s="2"/>
       <c r="F105" s="6">
         <v>15.9</v>
@@ -3173,15 +3309,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="2">
         <v>172</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C106" s="2"/>
-      <c r="D106" s="4"/>
+      <c r="D106" s="14"/>
       <c r="E106" s="2"/>
       <c r="F106" s="6">
         <v>15.9</v>
@@ -3190,7 +3326,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="2">
         <v>62</v>
       </c>
@@ -3198,10 +3334,10 @@
         <v>37</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="4">
@@ -3214,15 +3350,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="2">
         <v>82</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="D108" s="11" t="s">
+        <v>226</v>
+      </c>
       <c r="E108" s="2"/>
       <c r="F108" s="6">
         <v>6</v>
@@ -3234,15 +3372,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="2">
         <v>173</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C109" s="2"/>
-      <c r="D109" s="4"/>
+      <c r="D109" s="14"/>
       <c r="E109" s="2"/>
       <c r="F109" s="6">
         <v>5</v>
@@ -3251,7 +3389,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="2">
         <v>18</v>
       </c>
@@ -3261,7 +3399,9 @@
       <c r="C110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="2"/>
+      <c r="D110" s="11" t="s">
+        <v>227</v>
+      </c>
       <c r="E110" s="2"/>
       <c r="F110" s="4">
         <v>7.9</v>
@@ -3273,7 +3413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="2">
         <v>132</v>
       </c>
@@ -3281,7 +3421,7 @@
         <v>77</v>
       </c>
       <c r="C111" s="2"/>
-      <c r="D111" s="4"/>
+      <c r="D111" s="14"/>
       <c r="E111" s="2"/>
       <c r="F111" s="9">
         <v>16</v>
@@ -3290,7 +3430,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="2">
         <v>140</v>
       </c>
@@ -3298,7 +3438,7 @@
         <v>81</v>
       </c>
       <c r="C112" s="2"/>
-      <c r="D112" s="4"/>
+      <c r="D112" s="14"/>
       <c r="E112" s="2"/>
       <c r="F112" s="6">
         <v>12</v>
@@ -3307,15 +3447,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="2">
         <v>114</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+      <c r="D113" s="13"/>
       <c r="E113" s="2"/>
       <c r="F113" s="6">
         <v>4.8</v>
@@ -3324,17 +3464,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="2">
         <v>106</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D114" s="2"/>
+      <c r="D114" s="13"/>
       <c r="E114" s="2"/>
       <c r="F114" s="6">
         <v>9.9</v>
@@ -3346,17 +3486,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="2">
         <v>107</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D115" s="2"/>
+      <c r="D115" s="13"/>
       <c r="E115" s="2"/>
       <c r="F115" s="6">
         <v>9.9</v>
@@ -3368,15 +3508,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="2">
         <v>119</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="D116" s="11" t="s">
+        <v>228</v>
+      </c>
       <c r="E116" s="2"/>
       <c r="F116" s="6">
         <v>8.9</v>
@@ -3388,15 +3530,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="2">
         <v>109</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+      <c r="D117" s="11" t="s">
+        <v>229</v>
+      </c>
       <c r="E117" s="2"/>
       <c r="F117" s="6">
         <v>4</v>
@@ -3408,15 +3552,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="2">
         <v>118</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
+      <c r="D118" s="13"/>
       <c r="E118" s="2"/>
       <c r="F118" s="6">
         <v>8.9</v>
@@ -3428,15 +3572,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="2">
         <v>116</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+      <c r="D119" s="13"/>
       <c r="E119" s="2"/>
       <c r="F119" s="6">
         <v>8.9</v>
@@ -3448,7 +3592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="2">
         <v>104</v>
       </c>
@@ -3456,7 +3600,7 @@
         <v>73</v>
       </c>
       <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
+      <c r="D120" s="13"/>
       <c r="E120" s="2"/>
       <c r="F120" s="6">
         <v>9.9</v>
@@ -3468,15 +3612,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="2">
         <v>95</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+      <c r="D121" s="13"/>
       <c r="E121" s="2"/>
       <c r="F121" s="6">
         <v>7.99</v>
@@ -3488,15 +3632,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="2">
         <v>105</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
+      <c r="D122" s="13"/>
       <c r="E122" s="2"/>
       <c r="F122" s="6">
         <v>9.9</v>
@@ -3508,12 +3652,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="2">
         <v>96</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F123" s="6">
         <v>7.99</v>
@@ -3525,7 +3669,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="2">
         <v>110</v>
       </c>
@@ -3542,7 +3686,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="2">
         <v>111</v>
       </c>
@@ -3557,12 +3701,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="2">
         <v>97</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>230</v>
       </c>
       <c r="F126" s="6">
         <v>7.99</v>
@@ -3574,12 +3721,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="2">
         <v>98</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F127" s="6">
         <v>7.99</v>
@@ -3591,7 +3738,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="2">
         <v>99</v>
       </c>
@@ -3608,7 +3755,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="2">
         <v>100</v>
       </c>
@@ -3625,12 +3772,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="2">
         <v>101</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F130" s="6">
         <v>7.99</v>
@@ -3642,7 +3789,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="2">
         <v>102</v>
       </c>
@@ -3659,7 +3806,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="2">
         <v>103</v>
       </c>
@@ -3676,12 +3823,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="2">
         <v>117</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="F133" s="6">
         <v>8.9</v>
@@ -3693,12 +3843,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="2">
         <v>108</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F134" s="6">
         <v>9.9</v>
@@ -3710,15 +3860,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="2">
         <v>5</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D135" t="s">
-        <v>117</v>
+        <v>123</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>232</v>
       </c>
       <c r="F135" s="4">
         <v>10.9</v>
@@ -3730,15 +3880,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="2">
         <v>4</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D136" t="s">
-        <v>116</v>
+        <v>122</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>233</v>
       </c>
       <c r="F136" s="4">
         <v>16.899999999999999</v>
@@ -3750,15 +3900,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="2">
         <v>3</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D137" t="s">
-        <v>114</v>
+        <v>121</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="F137" s="4">
         <v>13.9</v>
@@ -3770,15 +3920,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="2">
         <v>2</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D138" t="s">
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="F138" s="4">
         <v>15.9</v>
@@ -3790,15 +3940,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="2">
         <v>1</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D139" t="s">
-        <v>113</v>
+        <v>119</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>236</v>
       </c>
       <c r="F139" s="4">
         <v>12.9</v>
@@ -3810,7 +3960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="2">
         <v>79</v>
       </c>
@@ -3827,14 +3977,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="2">
         <v>177</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D141" s="8"/>
+        <v>196</v>
+      </c>
+      <c r="D141" s="12"/>
       <c r="F141" s="6">
         <v>19.899999999999999</v>
       </c>
@@ -3842,12 +3992,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="2">
         <v>80</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F142" s="6">
         <v>14.9</v>
@@ -3859,14 +4009,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="2">
         <v>174</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D143" s="8"/>
+        <v>194</v>
+      </c>
+      <c r="D143" s="12"/>
       <c r="F143" s="6">
         <v>15</v>
       </c>
@@ -3874,14 +4024,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="2">
         <v>175</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D144" s="8"/>
+        <v>195</v>
+      </c>
+      <c r="D144" s="12"/>
       <c r="F144" s="6">
         <v>11.5</v>
       </c>
@@ -3889,12 +4039,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="2">
         <v>77</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F145" s="6">
         <v>9.9</v>
@@ -3906,12 +4056,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="2">
         <v>76</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F146" s="6">
         <v>12.5</v>
@@ -3923,12 +4073,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="2">
         <v>78</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F147" s="6">
         <v>9.9</v>
@@ -3940,14 +4090,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="2">
         <v>176</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D148" s="8"/>
+      <c r="D148" s="12"/>
       <c r="F148" s="6">
         <v>11.5</v>
       </c>
@@ -3955,7 +4105,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="2">
         <v>93</v>
       </c>
@@ -3972,13 +4122,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="2">
         <v>112</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="D150" s="11" t="s">
+        <v>237</v>
+      </c>
       <c r="F150" s="6">
         <v>8.9</v>
       </c>
@@ -3986,12 +4139,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="2">
         <v>113</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>66</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>238</v>
       </c>
       <c r="F151" s="6">
         <v>10.5</v>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinopc\Project\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7030F20-03F2-4541-89A8-34461E19E297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A1187B-F5AA-49B4-B85A-1F61C947E80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="247">
   <si>
     <t>Código</t>
   </si>
@@ -742,6 +742,30 @@
   </si>
   <si>
     <t>Blend nutritivo de três frutas selecionadas com leite (opcional vegetal), rico em antioxidantes, fibras e nutrientes essenciais. Uma combinação balanceada para máximo benefício nutricional.</t>
+  </si>
+  <si>
+    <t>Combinação harmoniosa do nosso café premium com leite parcialmente desnatado, oferecendo uma opção mais leve e cremosa. Rica em antioxidantes e cálcio, uma escolha equilibrada para seu dia.</t>
+  </si>
+  <si>
+    <t>Nosso espresso de alta qualidade servido com uma borda de doce de leite diet, proporcionando uma experiência indulgente com menor impacto glicêmico. Perfeito para quem busca reduzir o consumo de açúcar.</t>
+  </si>
+  <si>
+    <t>Combinação refrescante de café espresso e água tônica, criando uma bebida refrescante e energizante com notas cítricas. Uma alternativa inovadora para os dias quentes.</t>
+  </si>
+  <si>
+    <t>Extraído cuidadosamente de grãos selecionados, nosso espresso preserva os óleos essenciais e compostos bioativos do café. Uma dose concentrada de antioxidantes com baixo teor calórico.</t>
+  </si>
+  <si>
+    <t>Versão potencializada do nosso espresso tradicional, oferecendo maior concentração de compostos bioativos e cafeína. Ideal para os momentos que exigem foco e energia extra.</t>
+  </si>
+  <si>
+    <t>Bebida refrescante à base de café, leite parcialmente desnatado e gelo, batidos até obter uma textura aveludada. Uma opção equilibrada para dias quentes, com os benefícios do café e o aporte proteico do leite.</t>
+  </si>
+  <si>
+    <t>Versão gelada do nosso capuccino tradicional, preparado com café forte, leite parcialmente desnatado e gelo. Uma opção refrescante rica em antioxidantes e cálcio, perfeita para os dias quentes.</t>
+  </si>
+  <si>
+    <t>Preparado artesanalmente com camadas de leite vaporizado e café espresso, criando uma bebida visualmente atraente e saborosa. Rico em cálcio e com dose moderada de cafeína para um boost de energia equilibrado.</t>
   </si>
 </sst>
 </file>
@@ -1181,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1825,7 +1849,9 @@
         <v>91</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>239</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="6">
         <v>3.3</v>
@@ -2289,8 +2315,9 @@
       <c r="B55" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="14"/>
+      <c r="D55" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="9">
         <v>10.9</v>
@@ -2307,8 +2334,9 @@
       <c r="B56" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="14"/>
+      <c r="D56" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="9">
         <v>8.9</v>
@@ -2325,8 +2353,9 @@
       <c r="B57" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="14"/>
+      <c r="D57" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="6">
         <v>12.9</v>
@@ -2343,8 +2372,9 @@
       <c r="B58" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="14"/>
+      <c r="D58" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="9">
         <v>5.9</v>
@@ -2361,8 +2391,9 @@
       <c r="B59" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="14"/>
+      <c r="D59" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="9">
         <v>8.9</v>
@@ -2379,8 +2410,7 @@
       <c r="B60" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="13"/>
+      <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="6">
         <v>3.5</v>
@@ -2399,8 +2429,9 @@
       <c r="B61" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="14"/>
+      <c r="D61" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="9" t="s">
         <v>86</v>
@@ -2417,7 +2448,6 @@
       <c r="B62" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C62" s="2"/>
       <c r="D62" s="11" t="s">
         <v>218</v>
       </c>
@@ -2439,8 +2469,9 @@
       <c r="B63" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="14"/>
+      <c r="D63" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="9">
         <v>12.5</v>
@@ -2524,7 +2555,9 @@
         <v>175</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="14"/>
+      <c r="D67" s="14" t="s">
+        <v>246</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="F67" s="9">
         <v>7.9</v>
@@ -4162,5 +4195,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinopc\Project\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A1187B-F5AA-49B4-B85A-1F61C947E80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283109C4-49F8-4347-898F-B66BF6C2A0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="295">
   <si>
     <t>Código</t>
   </si>
@@ -108,30 +117,18 @@
     <t>Camarão</t>
   </si>
   <si>
-    <t>Queijo Minas, Ricota</t>
-  </si>
-  <si>
     <t>Esfiha</t>
   </si>
   <si>
-    <t xml:space="preserve">Peitp de Peru </t>
-  </si>
-  <si>
     <t>Italiano</t>
   </si>
   <si>
-    <t>Massa Chee</t>
-  </si>
-  <si>
     <t>4 Queijos, Frango, Peito de Peru</t>
   </si>
   <si>
     <t>Frango, Quiejo Minas, Palmito, Alho Poro</t>
   </si>
   <si>
-    <t xml:space="preserve">Aipim , Batata Doce </t>
-  </si>
-  <si>
     <t>Frango, Queijo, Peito de Peru</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>Bolo de Festa</t>
   </si>
   <si>
-    <t>Chá Xícara</t>
-  </si>
-  <si>
     <t>Sucos Naturais</t>
   </si>
   <si>
@@ -417,21 +411,12 @@
     <t>Misto Quente (Presunto+Mussarela)</t>
   </si>
   <si>
-    <t>Coxinha Abobora Frango</t>
-  </si>
-  <si>
     <t>Pão De Queijo Coquetel</t>
   </si>
   <si>
-    <t>Cachorro Quente Veg.</t>
-  </si>
-  <si>
     <t>Croissant</t>
   </si>
   <si>
-    <t>Esfiha Light Queijo Minas</t>
-  </si>
-  <si>
     <t>Pao De Batata</t>
   </si>
   <si>
@@ -678,9 +663,6 @@
     <t>Massa rica em fibras e nutrientes essenciais, com recheios preparados artesanalmente sem conservantes artificiais. O recheio de camarão é fonte de proteínas de alta qualidade e selênio.</t>
   </si>
   <si>
-    <t>Combina massa integral rica em fibras com queijo minas, fonte de proteínas e cálcio com menor teor de gordura. A ricota adiciona cremosidade com baixo teor calórico.</t>
-  </si>
-  <si>
     <t>Preparada com gelatina sem açúcar e frutas naturais, oferece proteínas de fácil digestão e antioxidantes. Uma opção leve e refrescante para finalizar sua refeição.</t>
   </si>
   <si>
@@ -766,13 +748,184 @@
   </si>
   <si>
     <t>Preparado artesanalmente com camadas de leite vaporizado e café espresso, criando uma bebida visualmente atraente e saborosa. Rico em cálcio e com dose moderada de cafeína para um boost de energia equilibrado.</t>
+  </si>
+  <si>
+    <t>Café espresso "manchado" com uma pequena quantidade de leite vaporizado, preservando o sabor intenso do café com um toque de suavidade. Uma opção de baixa caloria com os benefícios antioxidantes do café.</t>
+  </si>
+  <si>
+    <t>Fusão harmoniosa de chocolate e café espresso com leite parcialmente desnatado, oferecendo flavonoides do cacau e antioxidantes do café. Uma opção reconfortante com benefícios cognitivos.</t>
+  </si>
+  <si>
+    <t>Blend refrescante de frutas frescas, iogurte natural e gelo, sem adição de açúcares ou conservantes. Rico em vitaminas, minerais, antioxidantes e probióticos naturais, uma opção nutritiva e refrescante.</t>
+  </si>
+  <si>
+    <t>Bebida refrescante preparada com xarope natural de frutas e água com gás. Uma alternativa mais leve aos refrigerantes convencionais, com sabores autênticos e menos calorias.</t>
+  </si>
+  <si>
+    <t>Método de preparo que evidencia as notas aromáticas dos grãos selecionados. O processo de filtragem lenta preserva os óleos essenciais e compostos bioativos, resultando em uma bebida equilibrada e com menor acidez.</t>
+  </si>
+  <si>
+    <t>Combinação refrescante de chá gelado com sucos naturais de frutas, unindo os antioxidantes do chá com as vitaminas das frutas selecionadas. Sem adição de açúcar, conservantes ou corantes.</t>
+  </si>
+  <si>
+    <t>Blend funcional com ingredientes selecionados que auxiliam na digestão, como abacaxi, gengibre e hortelã. Uma opção refrescante que contribui para o conforto digestivo após as refeições.</t>
+  </si>
+  <si>
+    <t>Combinação estratégica de frutas ricas em vitaminas do complexo B e carboidratos naturais, formulada para fornecer energia sustentada de forma natural. Ideal para o pré-treino ou momentos de baixa energia.</t>
+  </si>
+  <si>
+    <t>Infusão cuidadosamente preparada com ervas selecionadas por suas propriedades funcionais. Rico em antioxidantes e compostos bioativos que auxiliam no bem-estar geral do organismo.</t>
+  </si>
+  <si>
+    <t>Chá</t>
+  </si>
+  <si>
+    <t>Combinação nutritiva de arroz integral rico em fibras e sobrecoxa de frango preparada sem pele, reduzindo o teor de gordura. Uma refeição completa com perfil balanceado de macronutrientes e preparo com temperos naturais.</t>
+  </si>
+  <si>
+    <t>Versão mais leve do tradicional strogonoff, utilizando iogurte natural no lugar de parte do creme de leite e proteína magra selecionada. Acompanha arroz integral rico em fibras e nutrientes essenciais.</t>
+  </si>
+  <si>
+    <t>Massa leve preparada com farinha integral, recheada com combinações nutritivas de proteínas magras e vegetais frescos. Uma opção prática e equilibrada para uma refeição completa.</t>
+  </si>
+  <si>
+    <t>Massa rica em fibras solúveis da aveia, que auxiliam no controle do colesterol, com recheio cremoso de requeijão light. Uma alternativa mais nutritiva às empadas tradicionais.</t>
+  </si>
+  <si>
+    <t>Preparado com farinha de grão-de-bico, rica em proteínas vegetais e fibras, oferecendo uma opção nutritiva com baixo índice glicêmico. O recheio é preparado com ingredientes selecionados e temperos naturais.</t>
+  </si>
+  <si>
+    <t>Substitui a massa tradicional por fatias de berinjela grelhada, rica em fibras e antioxidantes, reduzindo significativamente o teor calórico. Os recheios de carne e queijo são preparados com opções mais magras.</t>
+  </si>
+  <si>
+    <t>Combinação do nosso macarrão integral, rico em fibras, com molho bolonhesa preparado com carne magra selecionada e legumes frescos. Acompanha salada crocante que complementa o perfil nutricional.</t>
+  </si>
+  <si>
+    <t>Elaborado com farinha especial enriquecida com proteínas, oferecendo maior teor proteico que o macarrão convencional. Ideal para atletas e pessoas que buscam controle de peso com maior saciedade.</t>
+  </si>
+  <si>
+    <t>Nhoque preparado com aipim, uma fonte de carboidratos complexos de baixo índice glicêmico, combinado com carne magra selecionada. Uma opção mais nutritiva e leve que o nhoque tradicional.</t>
+  </si>
+  <si>
+    <t>Versão equilibrada do nhoque tradicional, combinando batata e frango desfiado, fonte de proteínas magras. Preparado com menos gordura e sal, mantendo o sabor autêntico com perfil nutricional melhorado.</t>
+  </si>
+  <si>
+    <t>Massa rica em fibras solúveis da aveia, que auxiliam no controle do colesterol, recheada com frango desfiado, fonte de proteínas magras essenciais. Uma combinação nutritiva e satisfatória.</t>
+  </si>
+  <si>
+    <t>Preparada com farinha de amêndoas e ovos, oferecendo baixo teor de carboidratos e alto teor proteico. Os recheios variados garantem opções para diferentes preferências, sempre priorizando ingredientes nutritivos.</t>
+  </si>
+  <si>
+    <t>Versão mais leve do tradicional quibe, incorporando berinjela rica em antioxidantes à carne magra. A berinjela adiciona fibras, umidade e reduz o teor calórico total do prato.</t>
+  </si>
+  <si>
+    <t>Quibe preparado com carne magra selecionada e bulgur integral, recheado com presunto magro e queijo com teor reduzido de gordura. Uma opção equilibrada com perfil proteico elevado.</t>
+  </si>
+  <si>
+    <t>Combinação nutritiva de carne magra com recheio de ricota, fonte de cálcio com menor teor de gordura, e provolone que adiciona sabor com moderação. Uma versão mais equilibrada do quibe tradicional.</t>
+  </si>
+  <si>
+    <t>Mix de folhas frescas e vegetais sazonais, ricos em vitaminas, minerais e fibras, com molho à parte preparado com ingredientes naturais e baixo teor de sódio. Uma opção leve e nutritiva para complementar sua refeição.</t>
+  </si>
+  <si>
+    <t>Preparada com bacalhau dessalgado, fonte de proteínas de alta qualidade e ômega-3, combinado com batatas e temperos frescos. A massa é feita com farinha integral para maior aporte de fibras.</t>
+  </si>
+  <si>
+    <t>Recheio rico em camarão, fonte de proteínas de alta qualidade e selênio, combinado com legumes frescos e temperos naturais. A massa leve e crocante é preparada com ingredientes selecionados.</t>
+  </si>
+  <si>
+    <t>Combinação harmoniosa de frango desfiado, fonte de proteínas magras, com requeijão light que adiciona cremosidade com menos gordura. A massa é preparada com farinha integral para maior valor nutricional.</t>
+  </si>
+  <si>
+    <t>Recheio à base de palmito sustentável, fonte de fibras e minerais, combinado com molho branco leve e temperos frescos. A massa é preparada com ingredientes selecionados para um resultado crocante e leve.</t>
+  </si>
+  <si>
+    <t>Massa macia e aromática com canela, conhecida por suas propriedades antioxidantes e reguladoras do açúcar no sangue. Adoçado com moderação e preparado com ingredientes de alta qualidade.</t>
+  </si>
+  <si>
+    <t>Clássico reinventado com maior proporção de cenoura, rica em betacaroteno e fibras, e menor quantidade de açúcar refinado. A cobertura tradicional é preparada com cacau de alta qualidade.</t>
+  </si>
+  <si>
+    <t>Preparado com cacau de alta qualidade, rico em flavonoides benéficos para a saúde cardiovascular. A massa é balanceada para oferecer sabor intenso com teor moderado de açúcar.</t>
+  </si>
+  <si>
+    <t>Massa leve e macia com recheio de doce de leite artesanal, preparado com redução de açúcar em relação à receita tradicional. Uma indulgência ocasional com sabor autêntico.</t>
+  </si>
+  <si>
+    <t>Criação especial que combina massa macia com recheios selecionados por sua qualidade e sabor distintivo. Uma opção festiva que preserva o equilíbrio entre sabor e valor nutricional.</t>
+  </si>
+  <si>
+    <t>Preparado com laranja fresca, aproveitando a casca rica em óleos essenciais e a polpa cheia de vitamina C. Uma opção cítrica e refrescante com menor adição de açúcar refinado.</t>
+  </si>
+  <si>
+    <t>Massa leve e aromática com limão fresco, rico em vitamina C e compostos cítricos antioxidantes. Adoçado com moderação para preservar o equilíbrio entre acidez e doçura.</t>
+  </si>
+  <si>
+    <t>Massa especial enriquecida com nozes, ricas em ômega-3 e antioxidantes, oferecendo gorduras saudáveis para o cérebro e coração. Uma opção nutritiva para momentos de indulgência consciente.</t>
+  </si>
+  <si>
+    <t>Receita tradicional com especiarias como canela, cravo e cardamomo, conhecidas por suas propriedades anti-inflamatórias e digestivas. Uma experiência aromática com benefícios nutricionais.</t>
+  </si>
+  <si>
+    <t>Combinação clássica de chocolate e coco, fontes de flavonoides e gorduras de cadeia média respectivamente. Preparado com ingredientes selecionados e adoçado com moderação.</t>
+  </si>
+  <si>
+    <t>Criação exclusiva que combina diversos sabores em camadas harmoniosas, utilizando ingredientes selecionados por sua qualidade e perfil nutricional. Uma opção especial para momentos de celebração.</t>
+  </si>
+  <si>
+    <t>Combinação tradicional da broa de milho, rica em fibras, com goiabada artesanal, fonte de vitamina C e licopeno. Uma fusão de sabores autênticos com ingredientes de qualidade.</t>
+  </si>
+  <si>
+    <t>Sobremesa refrescante em camadas, com abacaxi rico em bromelina, enzima digestiva natural, e creme leve preparado com ingredientes selecionados. Uma opção tropical para finalizar sua refeição.</t>
+  </si>
+  <si>
+    <t>Sobremesa em camadas que combina a cremosidade do pavê tradicional com amendoim, fonte de proteínas vegetais e gorduras saudáveis. Preparado com controle de açúcar para um resultado equilibrado.</t>
+  </si>
+  <si>
+    <t>Versão sofisticada com nozes selecionadas, ricas em ômega-3 e antioxidantes, combinadas com creme suave e camadas crocantes. Uma indulgência nutritiva preparada com ingredientes premium.</t>
+  </si>
+  <si>
+    <t>Composição em camadas de ingredientes selecionados que proporcionam uma experiência sensorial completa. Combinação equilibrada de texturas e sabores para um momento de prazer consciente.</t>
+  </si>
+  <si>
+    <t>Versão equilibrada do clássico inglês, com banana rica em potássio e fibras, doce de leite preparado com redução de açúcar e chantily leve. Uma indulgência ocasional com ingredientes de qualidade.</t>
+  </si>
+  <si>
+    <t>Clássica torta com recheio cítrico de limão fresco, rico em vitamina C, sobre base crocante. A cobertura de merengue é preparada artesanalmente com claras em neve para maior leveza.</t>
+  </si>
+  <si>
+    <t>Combinação tradicional de maçãs frescas, ricas em fibras e pectina, com canela conhecida por suas propriedades reguladoras do açúcar sanguíneo. Uma sobremesa reconfortante com benefícios nutricionais.</t>
+  </si>
+  <si>
+    <t>Sobremesa refrescante com polpa de maracujá, rica em vitaminas e compostos relaxantes naturais. A base crocante e o recheio cremoso criam um contraste perfeito de texturas e sabores.</t>
+  </si>
+  <si>
+    <t>Versão ampliada da nossa torta individual de maçã, mantendo o mesmo padrão de qualidade e perfil nutricional. Ideal para compartilhar em eventos e celebrações especiais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seleção equilibrada de queijos em uma massa leve e macia, proporcionando proteínas e cálcio de alta qualidade. Preparado com moderação de sódio e ingredientes cuidadosamente selecionados.</t>
+  </si>
+  <si>
+    <t>Combinação clássica de presunto magro selecionado e mussarela com teor reduzido de gordura, servido em pão integral rico em fibras. Um lanche equilibrado e satisfatório para qualquer hora do dia.</t>
+  </si>
+  <si>
+    <t>Massa macia e saborosa elaborada com batata, fonte de carboidratos complexos e potássio, recheada com opções proteicas selecionadas. Um lanche nutritivo com perfil de absorção gradual.</t>
+  </si>
+  <si>
+    <t>Massa Cheese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aipim, Batata Doce, Abóbora, Frango </t>
+  </si>
+  <si>
+    <t>Peito de Peru, Queijo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +950,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFABB2BF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -845,7 +1004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -869,6 +1028,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1203,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1252,18 +1412,18 @@
         <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="11" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -1272,19 +1432,19 @@
         <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F3" s="6">
         <v>15.9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -1293,17 +1453,17 @@
         <v>150</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="11" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F4" s="6">
         <v>15.9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1312,16 +1472,18 @@
         <v>149</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>248</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="6">
         <v>15.9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -1330,16 +1492,18 @@
         <v>151</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>249</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="6">
         <v>15.9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -1348,20 +1512,20 @@
         <v>162</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="6">
         <v>15.9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -1370,7 +1534,7 @@
         <v>179</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="12"/>
@@ -1379,7 +1543,7 @@
         <v>14.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -1388,20 +1552,20 @@
         <v>180</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
         <v>14.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>7</v>
@@ -1412,18 +1576,21 @@
         <v>73</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2"/>
+      <c r="D10" s="12" t="s">
+        <v>268</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="6">
         <v>4.5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1431,18 +1598,21 @@
         <v>64</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C11" s="2"/>
+      <c r="D11" s="11" t="s">
+        <v>269</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="6">
         <v>7.9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1450,18 +1620,21 @@
         <v>69</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2"/>
+      <c r="D12" s="12" t="s">
+        <v>270</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="6">
         <v>9.9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1469,18 +1642,21 @@
         <v>67</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2"/>
+      <c r="D13" s="11" t="s">
+        <v>271</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="6">
         <v>9.9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1488,19 +1664,21 @@
         <v>94</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>272</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="6">
         <v>10.9</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1508,19 +1686,21 @@
         <v>66</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>273</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="6">
         <v>4.5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1528,19 +1708,21 @@
         <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="6">
         <v>7.9</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1548,19 +1730,21 @@
         <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>275</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="6">
         <v>13.9</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1568,19 +1752,21 @@
         <v>71</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>276</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="6">
         <v>9.9</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1588,21 +1774,21 @@
         <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="11" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="6">
         <v>6.9</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1610,21 +1796,21 @@
         <v>70</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="11" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="6">
         <v>12.9</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1632,19 +1818,21 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>277</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="6">
         <v>9.9</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1652,19 +1840,21 @@
         <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="13" t="s">
+        <v>278</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="6">
         <v>14.9</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1672,16 +1862,18 @@
         <v>182</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>250</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="6">
         <v>12.9</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -1690,19 +1882,21 @@
         <v>81</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>279</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="6">
         <v>5.9</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1714,14 +1908,14 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="13" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="4">
         <v>8.5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>7</v>
@@ -1729,498 +1923,504 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="4">
-        <v>8.5</v>
+      <c r="F26" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="4">
-        <v>8.5</v>
+      <c r="F27" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="11" t="s">
-        <v>210</v>
-      </c>
+      <c r="D28" s="14"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="9" t="s">
-        <v>84</v>
+      <c r="F28" s="6">
+        <v>3</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="14"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="9" t="s">
-        <v>85</v>
+      <c r="F29" s="6">
+        <v>4.5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="14"/>
+      <c r="D30" s="14" t="s">
+        <v>230</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="6">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="2"/>
       <c r="F31" s="6">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="14" t="s">
-        <v>239</v>
-      </c>
+      <c r="D32" s="13"/>
       <c r="E32" s="2"/>
       <c r="F32" s="6">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H32" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="14"/>
+      <c r="D33" s="11" t="s">
+        <v>203</v>
+      </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="6">
-        <v>4.8</v>
+      <c r="F33" s="9">
+        <v>10.9</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="6">
-        <v>7.5</v>
+      <c r="F34" s="9">
+        <v>10.9</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="11" t="s">
-        <v>211</v>
+      <c r="D35" s="13" t="s">
+        <v>246</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="9">
-        <v>10.9</v>
+      <c r="F35" s="6">
+        <v>2.5</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="14"/>
+      <c r="D36" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="9">
-        <v>10.9</v>
+        <v>12.9</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>190</v>
+      </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="6">
-        <v>2.5</v>
+      <c r="F37" s="4">
+        <v>8.5</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="11" t="s">
-        <v>212</v>
-      </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="9">
+      <c r="F38" s="6">
         <v>12.9</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H38" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="13" t="s">
-        <v>198</v>
+      <c r="D39" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="4">
-        <v>8.5</v>
+      <c r="F39" s="6">
+        <v>13.9</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C40" s="2"/>
+      <c r="D40" s="11" t="s">
+        <v>205</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="6">
-        <v>12.9</v>
+        <v>9.9</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>138</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="D41" s="11" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="6">
-        <v>13.9</v>
+      <c r="F41" s="4">
+        <v>7.9</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D42" s="11" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="6">
-        <v>9.9</v>
+      <c r="F42" s="4">
+        <v>8.5</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
-        <v>20</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>214</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="13"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="4">
-        <v>7.9</v>
+      <c r="F43" s="6">
+        <v>12.9</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>19</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>130</v>
+        <v>92</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="13"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="4">
-        <v>9.5</v>
+      <c r="F44" s="6">
+        <v>12.9</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>215</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="13"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="4">
-        <v>8.5</v>
+      <c r="F45" s="6">
+        <v>9.9</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="13"/>
+      <c r="D46" s="14" t="s">
+        <v>242</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="6">
-        <v>12.9</v>
+        <v>6.99</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="6">
-        <v>12.9</v>
+      <c r="F47" s="4">
+        <v>8.5</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="13"/>
+      <c r="D48" s="14" t="s">
+        <v>251</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="6">
-        <v>9.9</v>
+        <v>15.9</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="14"/>
+      <c r="D49" s="14" t="s">
+        <v>252</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="6">
-        <v>6.99</v>
+        <v>15.9</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>216</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="D50" s="13"/>
       <c r="E50" s="2"/>
       <c r="F50" s="4">
         <v>8.5</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>7</v>
@@ -2228,476 +2428,490 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="14"/>
+        <v>163</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="6">
-        <v>15.9</v>
+      <c r="F51" s="9">
+        <v>10.9</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="6">
-        <v>15.9</v>
+      <c r="F52" s="9">
+        <v>8.9</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="13"/>
+        <v>165</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="4">
-        <v>8.5</v>
+      <c r="F53" s="6">
+        <v>12.9</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>217</v>
+        <v>164</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="4">
-        <v>8.5</v>
+      <c r="F54" s="9">
+        <v>5.9</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="9">
-        <v>10.9</v>
+        <v>8.9</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>240</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="9">
-        <v>8.9</v>
+      <c r="F56" s="6">
+        <v>3.5</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H56" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="6">
-        <v>12.9</v>
+      <c r="F57" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>242</v>
+        <v>143</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="9">
-        <v>5.9</v>
+      <c r="F58" s="6">
+        <v>7.9</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H58" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="9">
-        <v>8.9</v>
+        <v>12.5</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>210</v>
+      </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="6">
-        <v>3.5</v>
+      <c r="F60" s="4">
+        <v>8.5</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>244</v>
+        <v>170</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="9" t="s">
-        <v>86</v>
+      <c r="F61" s="6">
+        <v>15.9</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>218</v>
+        <v>90</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="6">
-        <v>7.9</v>
+        <v>15.9</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>245</v>
+        <v>167</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="14" t="s">
+        <v>237</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="9">
-        <v>12.5</v>
+        <v>7.9</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>219</v>
+        <v>175</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="14" t="s">
+        <v>254</v>
       </c>
       <c r="E64" s="2"/>
-      <c r="F64" s="4">
-        <v>8.5</v>
+      <c r="F64" s="6">
+        <v>15.9</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>220</v>
+        <v>174</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="6">
         <v>15.9</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" s="14"/>
+        <v>168</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="14" t="s">
+        <v>238</v>
+      </c>
       <c r="E66" s="2"/>
-      <c r="F66" s="6">
-        <v>15.9</v>
+      <c r="F66" s="9">
+        <v>7.9</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="14" t="s">
-        <v>246</v>
+      <c r="D67" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="9">
-        <v>7.9</v>
+      <c r="F67" s="6">
+        <v>15.9</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>183</v>
+        <v>292</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="D68" s="14"/>
+      <c r="D68" s="13" t="s">
+        <v>289</v>
+      </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="6">
-        <v>15.9</v>
+      <c r="F68" s="4">
+        <v>8.5</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H68" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2">
-        <v>152</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>182</v>
+        <v>17</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="14"/>
+      <c r="D69" s="13" t="s">
+        <v>213</v>
+      </c>
       <c r="E69" s="2"/>
-      <c r="F69" s="6">
-        <v>15.9</v>
+      <c r="F69" s="4">
+        <v>10.9</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H69" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2">
-        <v>135</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>176</v>
+        <v>16</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="14"/>
+      <c r="D70" s="13" t="s">
+        <v>290</v>
+      </c>
       <c r="E70" s="2"/>
-      <c r="F70" s="9">
-        <v>7.9</v>
+      <c r="F70" s="4">
+        <v>9.99</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H70" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="11" t="s">
-        <v>221</v>
+      <c r="D71" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="6">
-        <v>15.9</v>
+      <c r="F71" s="9">
+        <v>12.9</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="13"/>
+      <c r="D72" s="14" t="s">
+        <v>256</v>
+      </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="4">
-        <v>8.5</v>
+      <c r="F72" s="6">
+        <v>15.9</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2">
-        <v>17</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>13</v>
+        <v>168</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" s="13" t="s">
-        <v>222</v>
+      <c r="D73" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="4">
-        <v>10.9</v>
+      <c r="F73" s="6">
+        <v>15.9</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="13"/>
+        <v>105</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4">
-        <v>9.99</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>7</v>
@@ -2705,74 +2919,92 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2">
-        <v>136</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="9">
-        <v>12.9</v>
+      <c r="F75" s="4">
+        <v>19.899999999999999</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H75" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2">
-        <v>167</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="14"/>
+        <v>9</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="E76" s="2"/>
-      <c r="F76" s="6">
-        <v>15.9</v>
+      <c r="F76" s="4">
+        <v>16.899999999999999</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H76" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2">
-        <v>168</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="6">
-        <v>15.9</v>
+      <c r="F77" s="4">
+        <v>17.899999999999999</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H77" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4">
-        <v>16.899999999999999</v>
+        <v>13.9</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>15</v>
@@ -2783,20 +3015,20 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="4">
-        <v>19.899999999999999</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>15</v>
@@ -2807,20 +3039,16 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>115</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="13"/>
       <c r="E80" s="2"/>
       <c r="F80" s="4">
-        <v>16.899999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>15</v>
@@ -2831,71 +3059,63 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2">
-        <v>10</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>116</v>
+        <v>155</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="14" t="s">
+        <v>258</v>
       </c>
       <c r="E81" s="2"/>
-      <c r="F81" s="4">
-        <v>17.899999999999999</v>
+      <c r="F81" s="6">
+        <v>15.9</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2">
-        <v>7</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>104</v>
+        <v>156</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>114</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D82" s="15"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="4">
-        <v>13.9</v>
+      <c r="F82" s="6">
+        <v>15.9</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H82" s="2"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2">
-        <v>8</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>104</v>
+        <v>50</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>113</v>
+        <v>291</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4">
-        <v>16.899999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>7</v>
@@ -2903,19 +3123,21 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D84" s="13"/>
       <c r="E84" s="2"/>
       <c r="F84" s="4">
-        <v>10.9</v>
+        <v>1.99</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>7</v>
@@ -2923,59 +3145,63 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2">
-        <v>155</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="13"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="6">
-        <v>15.9</v>
+      <c r="F85" s="4">
+        <v>2.2000000000000002</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H85" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2">
-        <v>156</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D86" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="13" t="s">
+        <v>259</v>
+      </c>
       <c r="E86" s="2"/>
-      <c r="F86" s="6">
-        <v>15.9</v>
+      <c r="F86" s="4">
+        <v>0.99</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H86" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2">
-        <v>50</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" s="13"/>
       <c r="E87" s="2"/>
       <c r="F87" s="4">
-        <v>8.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>7</v>
@@ -2983,18 +3209,16 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C88" s="2"/>
       <c r="D88" s="13"/>
       <c r="E88" s="2"/>
       <c r="F88" s="4">
-        <v>1.99</v>
+        <v>1.5</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>16</v>
@@ -3005,18 +3229,16 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" s="13"/>
       <c r="E89" s="2"/>
       <c r="F89" s="4">
-        <v>2.2000000000000002</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>16</v>
@@ -3027,19 +3249,19 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="13"/>
       <c r="E90" s="2"/>
       <c r="F90" s="4">
-        <v>0.99</v>
+        <v>6.5</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>7</v>
@@ -3047,19 +3269,19 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="13"/>
       <c r="E91" s="2"/>
       <c r="F91" s="4">
-        <v>4.9000000000000004</v>
+        <v>7.99</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>7</v>
@@ -3067,19 +3289,19 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="13"/>
       <c r="E92" s="2"/>
       <c r="F92" s="4">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>7</v>
@@ -3087,19 +3309,21 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2">
-        <v>27</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D93" s="13"/>
       <c r="E93" s="2"/>
       <c r="F93" s="4">
-        <v>4.9000000000000004</v>
+        <v>8.5</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>7</v>
@@ -3107,804 +3331,828 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2">
-        <v>15</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="D94" s="13"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>7</v>
+      <c r="F94" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2">
-        <v>14</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D95" s="13"/>
       <c r="E95" s="2"/>
-      <c r="F95" s="4">
-        <v>7.99</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>7</v>
+      <c r="F95" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2">
-        <v>13</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D96" s="13"/>
       <c r="E96" s="2"/>
-      <c r="F96" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>7</v>
+      <c r="F96" s="6">
+        <v>14</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="G97" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D97" s="13"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="H97" t="s">
         <v>38</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="C98" s="2"/>
-      <c r="D98" s="13"/>
+      <c r="D98" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="E98" s="2"/>
       <c r="F98" s="6">
-        <v>12.9</v>
+        <v>7.9</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H98" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="13"/>
+      <c r="D99" s="14" t="s">
+        <v>260</v>
+      </c>
       <c r="E99" s="2"/>
       <c r="F99" s="6">
-        <v>11.5</v>
+        <v>15.9</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H99" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="13"/>
+      <c r="D100" s="11" t="s">
+        <v>215</v>
+      </c>
       <c r="E100" s="2"/>
       <c r="F100" s="6">
-        <v>14</v>
+        <v>15.9</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H100" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="13"/>
+      <c r="D101" s="14" t="s">
+        <v>261</v>
+      </c>
       <c r="E101" s="2"/>
       <c r="F101" s="6">
-        <v>12.9</v>
+        <v>15.9</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H101" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="11" t="s">
-        <v>223</v>
+      <c r="D102" s="14" t="s">
+        <v>262</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="6">
-        <v>7.9</v>
+        <v>15.9</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H102" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>216</v>
+      </c>
       <c r="E103" s="2"/>
-      <c r="F103" s="6">
-        <v>15.9</v>
+      <c r="F103" s="4">
+        <v>8.5</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>103</v>
+        <v>34</v>
+      </c>
+      <c r="H103" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="11" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="6">
-        <v>15.9</v>
+        <v>6</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>103</v>
+        <v>36</v>
+      </c>
+      <c r="H104" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="C105" s="2"/>
-      <c r="D105" s="14"/>
+      <c r="D105" s="14" t="s">
+        <v>263</v>
+      </c>
       <c r="E105" s="2"/>
       <c r="F105" s="6">
-        <v>15.9</v>
+        <v>5</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2">
-        <v>172</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>218</v>
+      </c>
       <c r="E106" s="2"/>
-      <c r="F106" s="6">
-        <v>15.9</v>
+      <c r="F106" s="4">
+        <v>7.9</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>103</v>
+        <v>4</v>
+      </c>
+      <c r="H106" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>225</v>
+        <v>72</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="14" t="s">
+        <v>240</v>
       </c>
       <c r="E107" s="2"/>
-      <c r="F107" s="4">
-        <v>8.5</v>
+      <c r="F107" s="9">
+        <v>16</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H107" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="C108" s="2"/>
-      <c r="D108" s="11" t="s">
-        <v>226</v>
+      <c r="D108" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H108" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="C109" s="2"/>
-      <c r="D109" s="14"/>
+      <c r="D109" s="13" t="s">
+        <v>243</v>
+      </c>
       <c r="E109" s="2"/>
       <c r="F109" s="6">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2">
-        <v>18</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>10</v>
+        <v>106</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>227</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D110" s="13"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="4">
-        <v>7.9</v>
+      <c r="F110" s="6">
+        <v>9.9</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="H110" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" s="13"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="9">
-        <v>16</v>
+      <c r="F111" s="6">
+        <v>9.9</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>82</v>
+        <v>54</v>
+      </c>
+      <c r="H111" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="C112" s="2"/>
-      <c r="D112" s="14"/>
+      <c r="D112" s="11" t="s">
+        <v>219</v>
+      </c>
       <c r="E112" s="2"/>
       <c r="F112" s="6">
-        <v>12</v>
+        <v>8.9</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>82</v>
+        <v>54</v>
+      </c>
+      <c r="H112" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C113" s="2"/>
-      <c r="D113" s="13"/>
+      <c r="D113" s="11" t="s">
+        <v>220</v>
+      </c>
       <c r="E113" s="2"/>
       <c r="F113" s="6">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="H113" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D114" s="13"/>
+        <v>158</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="13" t="s">
+        <v>244</v>
+      </c>
       <c r="E114" s="2"/>
       <c r="F114" s="6">
-        <v>9.9</v>
+        <v>8.9</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H114" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D115" s="13"/>
+        <v>156</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="E115" s="2"/>
       <c r="F115" s="6">
-        <v>9.9</v>
+        <v>8.9</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H115" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="C116" s="2"/>
-      <c r="D116" s="11" t="s">
-        <v>228</v>
-      </c>
+      <c r="D116" s="13"/>
       <c r="E116" s="2"/>
       <c r="F116" s="6">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H116" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C117" s="2"/>
-      <c r="D117" s="11" t="s">
-        <v>229</v>
-      </c>
+      <c r="D117" s="13"/>
       <c r="E117" s="2"/>
       <c r="F117" s="6">
-        <v>4</v>
+        <v>7.99</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H117" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="13"/>
       <c r="E118" s="2"/>
       <c r="F118" s="6">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H118" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="2"/>
+        <v>146</v>
+      </c>
       <c r="F119" s="6">
-        <v>8.9</v>
+        <v>7.99</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H119" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="2"/>
+        <v>60</v>
+      </c>
       <c r="F120" s="6">
-        <v>9.9</v>
+        <v>5.6</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H120" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="2"/>
+        <v>60</v>
+      </c>
       <c r="F121" s="6">
-        <v>7.99</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="G121" s="5"/>
       <c r="H121" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>221</v>
+      </c>
       <c r="F122" s="6">
-        <v>9.9</v>
+        <v>7.99</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H122" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F123" s="6">
         <v>7.99</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H123" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F124" s="6">
-        <v>5.6</v>
+        <v>7.99</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H124" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>65</v>
       </c>
       <c r="F125" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="G125" s="5"/>
+        <v>7.99</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="H125" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="F126" s="6">
         <v>7.99</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H126" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="F127" s="6">
         <v>7.99</v>
       </c>
       <c r="G127" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H127" t="s">
         <v>59</v>
-      </c>
-      <c r="H127" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F128" s="6">
         <v>7.99</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H128" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>70</v>
+        <v>157</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="F129" s="6">
-        <v>7.99</v>
+        <v>8.9</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H129" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F130" s="6">
-        <v>7.99</v>
+        <v>9.9</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H130" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2">
-        <v>102</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F131" s="6">
-        <v>7.99</v>
+        <v>5</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F131" s="4">
+        <v>10.9</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2">
-        <v>103</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F132" s="6">
-        <v>7.99</v>
+        <v>4</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F132" s="4">
+        <v>16.899999999999999</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2">
-        <v>117</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>165</v>
+        <v>3</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F133" s="6">
-        <v>8.9</v>
+        <v>225</v>
+      </c>
+      <c r="F133" s="4">
+        <v>13.9</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="H133" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2">
-        <v>108</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F134" s="6">
-        <v>9.9</v>
+        <v>2</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F134" s="4">
+        <v>15.9</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="H134" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F135" s="4">
-        <v>10.9</v>
+        <v>12.9</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>12</v>
@@ -3915,283 +4163,227 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2">
-        <v>4</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>122</v>
+        <v>79</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F136" s="4">
-        <v>16.899999999999999</v>
+        <v>264</v>
+      </c>
+      <c r="F136" s="6">
+        <v>9.9</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H136" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2">
-        <v>3</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F137" s="4">
-        <v>13.9</v>
+        <v>177</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D137" s="12"/>
+      <c r="F137" s="6">
+        <v>19.899999999999999</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H137" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2">
-        <v>2</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>120</v>
+        <v>80</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="F138" s="4">
-        <v>15.9</v>
+        <v>284</v>
+      </c>
+      <c r="F138" s="6">
+        <v>14.9</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H138" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2">
-        <v>1</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F139" s="4">
-        <v>12.9</v>
+        <v>174</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F139" s="6">
+        <v>15</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H139" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>49</v>
+        <v>187</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="F140" s="6">
-        <v>9.9</v>
+        <v>11.5</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H140" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D141" s="12"/>
+        <v>137</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>285</v>
+      </c>
       <c r="F141" s="6">
-        <v>19.899999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>103</v>
+        <v>36</v>
+      </c>
+      <c r="H141" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>286</v>
       </c>
       <c r="F142" s="6">
-        <v>14.9</v>
+        <v>12.5</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H142" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D143" s="12"/>
+        <v>138</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>287</v>
+      </c>
       <c r="F143" s="6">
-        <v>15</v>
+        <v>9.9</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>103</v>
+        <v>36</v>
+      </c>
+      <c r="H143" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D144" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>267</v>
+      </c>
       <c r="F144" s="6">
         <v>11.5</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>145</v>
+        <v>52</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="F145" s="6">
-        <v>9.9</v>
+        <v>135</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H145" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>144</v>
+        <v>62</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>228</v>
       </c>
       <c r="F146" s="6">
-        <v>12.5</v>
+        <v>8.9</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H146" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>146</v>
+        <v>61</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="F147" s="6">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H147" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="2">
-        <v>176</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D148" s="12"/>
-      <c r="F148" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="2">
-        <v>93</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F149" s="6">
-        <v>135</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H149" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="2">
-        <v>112</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="F150" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="G150" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="2">
-        <v>113</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="F151" s="6">
-        <v>10.5</v>
-      </c>
-      <c r="G151" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H151">
-    <sortCondition ref="B2:B151"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H147">
+    <sortCondition ref="B2:B147"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinopc\Project\mn-transparency\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283109C4-49F8-4347-898F-B66BF6C2A0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C82A2B2-CFB5-4634-995E-C70F055818D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="292">
   <si>
     <t>Código</t>
   </si>
@@ -285,9 +276,6 @@
     <t>Quibe Berinjela</t>
   </si>
   <si>
-    <t>Quibe Presunto/Queijo Rechea</t>
-  </si>
-  <si>
     <t>Torta De Palmito</t>
   </si>
   <si>
@@ -561,9 +549,6 @@
     <t>Macarrão Proteico</t>
   </si>
   <si>
-    <t>Macarrao Bolonhesa C/Salada</t>
-  </si>
-  <si>
     <t>Marmitinha Maromba</t>
   </si>
   <si>
@@ -585,12 +570,6 @@
     <t>Nhoque e Batata c/ Frango</t>
   </si>
   <si>
-    <t>Quibe de Abobrinha c/ Ricota</t>
-  </si>
-  <si>
-    <t>Quibe Ricota/Provolone</t>
-  </si>
-  <si>
     <t>Saladinha</t>
   </si>
   <si>
@@ -819,12 +798,6 @@
     <t>Versão mais leve do tradicional quibe, incorporando berinjela rica em antioxidantes à carne magra. A berinjela adiciona fibras, umidade e reduz o teor calórico total do prato.</t>
   </si>
   <si>
-    <t>Quibe preparado com carne magra selecionada e bulgur integral, recheado com presunto magro e queijo com teor reduzido de gordura. Uma opção equilibrada com perfil proteico elevado.</t>
-  </si>
-  <si>
-    <t>Combinação nutritiva de carne magra com recheio de ricota, fonte de cálcio com menor teor de gordura, e provolone que adiciona sabor com moderação. Uma versão mais equilibrada do quibe tradicional.</t>
-  </si>
-  <si>
     <t>Mix de folhas frescas e vegetais sazonais, ricos em vitaminas, minerais e fibras, com molho à parte preparado com ingredientes naturais e baixo teor de sódio. Uma opção leve e nutritiva para complementar sua refeição.</t>
   </si>
   <si>
@@ -919,13 +892,22 @@
   </si>
   <si>
     <t>Peito de Peru, Queijo</t>
+  </si>
+  <si>
+    <t>Macarrao Bolonhesa com salada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quibe </t>
+  </si>
+  <si>
+    <t>, Queijo e Presunto, Ricota</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1021,13 +1003,6 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1363,25 +1338,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1366,7 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1407,16 +1382,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="11" t="s">
-        <v>194</v>
+      <c r="D2" t="s">
+        <v>190</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="9" t="s">
@@ -1427,151 +1402,151 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>195</v>
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>191</v>
       </c>
       <c r="F3" s="6">
         <v>15.9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>150</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="11" t="s">
-        <v>196</v>
+      <c r="D4" t="s">
+        <v>192</v>
       </c>
       <c r="F4" s="6">
         <v>15.9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>149</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="12" t="s">
-        <v>248</v>
+      <c r="D5" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="6">
         <v>15.9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>151</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="12" t="s">
-        <v>249</v>
+      <c r="D6" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="6">
         <v>15.9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>162</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>197</v>
+      <c r="D7" t="s">
+        <v>193</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="6">
         <v>15.9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>179</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="2"/>
       <c r="F8" s="6">
         <v>14.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>180</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>198</v>
+        <v>188</v>
+      </c>
+      <c r="D9" t="s">
+        <v>194</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
         <v>14.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>73</v>
       </c>
@@ -1579,8 +1554,8 @@
         <v>44</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="12" t="s">
-        <v>268</v>
+      <c r="D10" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="6">
@@ -1593,16 +1568,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>64</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="11" t="s">
-        <v>269</v>
+      <c r="D11" t="s">
+        <v>263</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="6">
@@ -1615,7 +1590,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>69</v>
       </c>
@@ -1623,8 +1598,8 @@
         <v>42</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="12" t="s">
-        <v>270</v>
+      <c r="D12" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="6">
@@ -1637,16 +1612,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>67</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="11" t="s">
-        <v>271</v>
+      <c r="D13" t="s">
+        <v>265</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="6">
@@ -1659,7 +1634,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>94</v>
       </c>
@@ -1667,8 +1642,8 @@
         <v>53</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="13" t="s">
-        <v>272</v>
+      <c r="D14" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="6">
@@ -1681,7 +1656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>66</v>
       </c>
@@ -1689,8 +1664,8 @@
         <v>41</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="13" t="s">
-        <v>273</v>
+      <c r="D15" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="6">
@@ -1703,16 +1678,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="13" t="s">
-        <v>274</v>
+      <c r="D16" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="6">
@@ -1725,7 +1700,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>72</v>
       </c>
@@ -1733,8 +1708,8 @@
         <v>43</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="13" t="s">
-        <v>275</v>
+      <c r="D17" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="6">
@@ -1747,16 +1722,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>71</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="13" t="s">
-        <v>276</v>
+      <c r="D18" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="6">
@@ -1769,16 +1744,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="11" t="s">
-        <v>199</v>
+      <c r="D19" t="s">
+        <v>195</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="6">
@@ -1791,16 +1766,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>70</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="11" t="s">
-        <v>200</v>
+      <c r="D20" t="s">
+        <v>196</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="6">
@@ -1813,7 +1788,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>68</v>
       </c>
@@ -1821,8 +1796,8 @@
         <v>35</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="13" t="s">
-        <v>277</v>
+      <c r="D21" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="6">
@@ -1835,7 +1810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>87</v>
       </c>
@@ -1843,8 +1818,8 @@
         <v>47</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="13" t="s">
-        <v>278</v>
+      <c r="D22" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="6">
@@ -1857,36 +1832,36 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>182</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="13" t="s">
-        <v>250</v>
+      <c r="D23" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="6">
         <v>12.9</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>81</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="13" t="s">
-        <v>279</v>
+      <c r="D24" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="6">
@@ -1899,7 +1874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1907,8 +1882,8 @@
         <v>18</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="13" t="s">
-        <v>201</v>
+      <c r="D25" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="4">
@@ -1921,16 +1896,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>121</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="11" t="s">
-        <v>202</v>
+      <c r="D26" t="s">
+        <v>198</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="9" t="s">
@@ -1941,15 +1916,15 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>122</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="14"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="2"/>
       <c r="F27" s="9" t="s">
         <v>80</v>
@@ -1959,15 +1934,15 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>141</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="14"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="2"/>
       <c r="F28" s="6">
         <v>3</v>
@@ -1977,15 +1952,15 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>142</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="2"/>
       <c r="F29" s="6">
         <v>4.5</v>
@@ -1995,16 +1970,16 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>143</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="14" t="s">
-        <v>230</v>
+      <c r="D30" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="6">
@@ -2015,15 +1990,15 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>144</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="14"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="2"/>
       <c r="F31" s="6">
         <v>4.8</v>
@@ -2033,15 +2008,15 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>83</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="6">
         <v>7.5</v>
@@ -2053,16 +2028,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>123</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="11" t="s">
-        <v>203</v>
+      <c r="D33" t="s">
+        <v>199</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="9">
@@ -2073,15 +2048,15 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>124</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="14"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="2"/>
       <c r="F34" s="9">
         <v>10.9</v>
@@ -2091,16 +2066,16 @@
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>115</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="13" t="s">
-        <v>246</v>
+      <c r="D35" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="6">
@@ -2111,7 +2086,7 @@
       </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>130</v>
       </c>
@@ -2119,8 +2094,8 @@
         <v>70</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="11" t="s">
-        <v>204</v>
+      <c r="D36" t="s">
+        <v>200</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="9">
@@ -2131,16 +2106,16 @@
       </c>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>30</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="13" t="s">
-        <v>190</v>
+      <c r="D37" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="4">
@@ -2153,7 +2128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>90</v>
       </c>
@@ -2172,7 +2147,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>138</v>
       </c>
@@ -2180,8 +2155,8 @@
         <v>74</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="11" t="s">
-        <v>205</v>
+      <c r="D39" t="s">
+        <v>201</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="6">
@@ -2192,7 +2167,7 @@
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>139</v>
       </c>
@@ -2200,8 +2175,8 @@
         <v>75</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="11" t="s">
-        <v>205</v>
+      <c r="D40" t="s">
+        <v>201</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="6">
@@ -2212,7 +2187,7 @@
       </c>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>20</v>
       </c>
@@ -2220,10 +2195,10 @@
         <v>17</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>206</v>
+        <v>287</v>
+      </c>
+      <c r="D41" t="s">
+        <v>202</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="4">
@@ -2236,18 +2211,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>31</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>207</v>
+      <c r="D42" t="s">
+        <v>203</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="4">
@@ -2260,7 +2235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>86</v>
       </c>
@@ -2268,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="13"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="6">
         <v>12.9</v>
@@ -2280,7 +2255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>92</v>
       </c>
@@ -2288,7 +2263,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="13"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="6">
         <v>12.9</v>
@@ -2300,7 +2275,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>91</v>
       </c>
@@ -2308,7 +2283,7 @@
         <v>50</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="13"/>
+      <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="6">
         <v>9.9</v>
@@ -2320,7 +2295,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>137</v>
       </c>
@@ -2328,8 +2303,8 @@
         <v>73</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="14" t="s">
-        <v>242</v>
+      <c r="D46" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="6">
@@ -2340,7 +2315,7 @@
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>39</v>
       </c>
@@ -2350,8 +2325,8 @@
       <c r="C47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>208</v>
+      <c r="D47" t="s">
+        <v>204</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="4">
@@ -2364,47 +2339,47 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>165</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="14" t="s">
-        <v>251</v>
+      <c r="D48" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="6">
         <v>15.9</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>166</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="14" t="s">
-        <v>252</v>
+      <c r="D49" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="6">
         <v>15.9</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>42</v>
       </c>
@@ -2412,9 +2387,9 @@
         <v>27</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D50" s="13"/>
+        <v>288</v>
+      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="4">
         <v>8.5</v>
@@ -2426,15 +2401,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>126</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="9">
@@ -2445,7 +2420,7 @@
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>125</v>
       </c>
@@ -2453,7 +2428,7 @@
         <v>69</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="9">
@@ -2464,15 +2439,15 @@
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>129</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="6">
@@ -2483,15 +2458,15 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>127</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="9">
@@ -2502,15 +2477,15 @@
       </c>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>128</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="9">
@@ -2521,12 +2496,12 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>181</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2534,21 +2509,21 @@
         <v>3.5</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>133</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="9" t="s">
@@ -2559,15 +2534,15 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>84</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>209</v>
+        <v>142</v>
+      </c>
+      <c r="D58" t="s">
+        <v>205</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="6">
@@ -2580,7 +2555,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>131</v>
       </c>
@@ -2588,7 +2563,7 @@
         <v>71</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="9">
@@ -2599,7 +2574,7 @@
       </c>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43</v>
       </c>
@@ -2609,8 +2584,8 @@
       <c r="C60" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>210</v>
+      <c r="D60" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="4">
@@ -2623,60 +2598,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>145</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>211</v>
+        <v>88</v>
+      </c>
+      <c r="D61" t="s">
+        <v>207</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="6">
         <v>15.9</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>147</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>253</v>
+        <v>88</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="6">
         <v>15.9</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>134</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="14" t="s">
-        <v>237</v>
+      <c r="D63" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="9">
@@ -2687,56 +2662,56 @@
       </c>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>153</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>175</v>
+        <v>289</v>
       </c>
       <c r="C64" s="2"/>
-      <c r="D64" s="14" t="s">
-        <v>254</v>
+      <c r="D64" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="6">
         <v>15.9</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>152</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C65" s="2"/>
-      <c r="D65" s="14" t="s">
-        <v>255</v>
+      <c r="D65" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="6">
         <v>15.9</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>135</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="14" t="s">
-        <v>238</v>
+      <c r="D66" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="9">
@@ -2747,36 +2722,36 @@
       </c>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>154</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="11" t="s">
-        <v>212</v>
+      <c r="D67" t="s">
+        <v>208</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="6">
         <v>15.9</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>48</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="D68" s="13" t="s">
-        <v>289</v>
+      <c r="D68" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="4">
@@ -2789,7 +2764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>17</v>
       </c>
@@ -2797,8 +2772,8 @@
         <v>13</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="13" t="s">
-        <v>213</v>
+      <c r="D69" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="4">
@@ -2811,16 +2786,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>16</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="13" t="s">
-        <v>290</v>
+      <c r="D70" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="4">
@@ -2833,16 +2808,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>136</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="14" t="s">
-        <v>239</v>
+      <c r="D71" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="9">
@@ -2853,58 +2828,58 @@
       </c>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>167</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="14" t="s">
-        <v>256</v>
+      <c r="D72" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="6">
         <v>15.9</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>168</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" s="14" t="s">
-        <v>257</v>
+      <c r="D73" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="6">
         <v>15.9</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>11</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>112</v>
+      <c r="D74" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4">
@@ -2917,18 +2892,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>12</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="4">
@@ -2941,18 +2916,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>9</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>110</v>
+      <c r="D76" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="4">
@@ -2965,18 +2940,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>10</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>111</v>
+        <v>101</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="4">
@@ -2989,18 +2964,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>7</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4">
@@ -3013,18 +2988,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>8</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="4">
@@ -3037,15 +3012,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>6</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="D80" s="13"/>
+      <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="4">
         <v>10.9</v>
@@ -3057,58 +3032,58 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>155</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="D81" s="14" t="s">
-        <v>258</v>
+      <c r="D81" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="6">
         <v>15.9</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>156</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="15"/>
+        <v>90</v>
+      </c>
+      <c r="D82" s="10"/>
       <c r="E82" s="2"/>
       <c r="F82" s="6">
         <v>15.9</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>50</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="13" t="s">
-        <v>291</v>
+      <c r="D83" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4">
@@ -3121,7 +3096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>22</v>
       </c>
@@ -3131,7 +3106,7 @@
       <c r="C84" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="13"/>
+      <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="4">
         <v>1.99</v>
@@ -3143,7 +3118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>23</v>
       </c>
@@ -3153,7 +3128,7 @@
       <c r="C85" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D85" s="13"/>
+      <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="4">
         <v>2.2000000000000002</v>
@@ -3165,16 +3140,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>25</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="13" t="s">
-        <v>259</v>
+      <c r="D86" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="4">
@@ -3187,7 +3162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>26</v>
       </c>
@@ -3195,7 +3170,7 @@
         <v>23</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="13"/>
+      <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="4">
         <v>4.9000000000000004</v>
@@ -3207,7 +3182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>24</v>
       </c>
@@ -3215,7 +3190,7 @@
         <v>20</v>
       </c>
       <c r="C88" s="2"/>
-      <c r="D88" s="13"/>
+      <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="4">
         <v>1.5</v>
@@ -3227,7 +3202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>27</v>
       </c>
@@ -3235,7 +3210,7 @@
         <v>14</v>
       </c>
       <c r="C89" s="2"/>
-      <c r="D89" s="13"/>
+      <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="4">
         <v>4.9000000000000004</v>
@@ -3247,15 +3222,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>15</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="13"/>
+      <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="4">
         <v>6.5</v>
@@ -3267,15 +3242,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>14</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="13"/>
+      <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="4">
         <v>7.99</v>
@@ -3287,15 +3262,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>13</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="13"/>
+      <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="4">
         <v>3.2</v>
@@ -3307,7 +3282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>52</v>
       </c>
@@ -3317,7 +3292,7 @@
       <c r="C93" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D93" s="13"/>
+      <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="4">
         <v>8.5</v>
@@ -3329,17 +3304,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>88</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D94" s="13"/>
+        <v>274</v>
+      </c>
+      <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="6">
         <v>12.9</v>
@@ -3351,17 +3326,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>74</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D95" s="13"/>
+        <v>275</v>
+      </c>
+      <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="6">
         <v>11.5</v>
@@ -3373,17 +3348,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>75</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D96" s="13"/>
+        <v>276</v>
+      </c>
+      <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="6">
         <v>14</v>
@@ -3395,7 +3370,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>89</v>
       </c>
@@ -3403,8 +3378,8 @@
         <v>48</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="D97" s="13" t="s">
-        <v>283</v>
+      <c r="D97" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="6">
@@ -3417,7 +3392,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>85</v>
       </c>
@@ -3425,8 +3400,8 @@
         <v>40</v>
       </c>
       <c r="C98" s="2"/>
-      <c r="D98" s="11" t="s">
-        <v>214</v>
+      <c r="D98" t="s">
+        <v>210</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="6">
@@ -3439,7 +3414,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>170</v>
       </c>
@@ -3447,274 +3422,282 @@
         <v>82</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="14" t="s">
-        <v>260</v>
+      <c r="D99" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="6">
         <v>15.9</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>169</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="11" t="s">
-        <v>215</v>
+        <v>290</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D100" t="s">
+        <v>211</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="6">
         <v>15.9</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="14" t="s">
-        <v>261</v>
+        <v>33</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D101" t="s">
+        <v>212</v>
       </c>
       <c r="E101" s="2"/>
-      <c r="F101" s="6">
-        <v>15.9</v>
+      <c r="F101" s="4">
+        <v>8.5</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="H101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="14" t="s">
-        <v>262</v>
+      <c r="D102" t="s">
+        <v>213</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="6">
-        <v>15.9</v>
+        <v>6</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="H102" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>216</v>
+        <v>181</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="E103" s="2"/>
-      <c r="F103" s="4">
-        <v>8.5</v>
+      <c r="F103" s="6">
+        <v>5</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H103" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>18</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>214</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H104" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="2">
-        <v>82</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" s="6">
-        <v>6</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H104" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="C105" s="2"/>
-      <c r="D105" s="14" t="s">
-        <v>263</v>
+      <c r="D105" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="E105" s="2"/>
-      <c r="F105" s="6">
-        <v>5</v>
+      <c r="F105" s="9">
+        <v>16</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>18</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>218</v>
+        <v>140</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="E106" s="2"/>
-      <c r="F106" s="4">
-        <v>7.9</v>
+      <c r="F106" s="6">
+        <v>12</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H106" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="C107" s="2"/>
-      <c r="D107" s="14" t="s">
-        <v>240</v>
+      <c r="D107" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="E107" s="2"/>
-      <c r="F107" s="9">
-        <v>16</v>
+      <c r="F107" s="6">
+        <v>4.8</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="14" t="s">
-        <v>241</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="6">
-        <v>12</v>
+        <v>9.9</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="H108" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="13" t="s">
-        <v>243</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="6">
-        <v>4.8</v>
+        <v>9.9</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="H109" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D110" s="13"/>
+        <v>158</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s">
+        <v>215</v>
+      </c>
       <c r="E110" s="2"/>
       <c r="F110" s="6">
-        <v>9.9</v>
+        <v>8.9</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H110" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D111" s="13"/>
+        <v>153</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s">
+        <v>216</v>
+      </c>
       <c r="E111" s="2"/>
       <c r="F111" s="6">
-        <v>9.9</v>
+        <v>4</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H111" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C112" s="2"/>
-      <c r="D112" s="11" t="s">
-        <v>219</v>
+      <c r="D112" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="6">
@@ -3727,42 +3710,40 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C113" s="2"/>
-      <c r="D113" s="11" t="s">
-        <v>220</v>
+      <c r="D113" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="6">
-        <v>4</v>
+        <v>8.9</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H113" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="C114" s="2"/>
-      <c r="D114" s="13" t="s">
-        <v>244</v>
-      </c>
+      <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="6">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>54</v>
@@ -3771,20 +3752,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C115" s="2"/>
-      <c r="D115" s="13" t="s">
-        <v>245</v>
-      </c>
+      <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="6">
-        <v>8.9</v>
+        <v>7.99</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>54</v>
@@ -3793,15 +3772,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="C116" s="2"/>
-      <c r="D116" s="13"/>
+      <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="6">
         <v>9.9</v>
@@ -3813,16 +3792,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="2"/>
       <c r="F117" s="6">
         <v>7.99</v>
       </c>
@@ -3833,18 +3809,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="2"/>
+        <v>60</v>
+      </c>
       <c r="F118" s="6">
-        <v>9.9</v>
+        <v>5.6</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>54</v>
@@ -3853,64 +3826,64 @@
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F119" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="G119" s="5"/>
+      <c r="H119" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>97</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F119" s="6">
+      <c r="D120" t="s">
+        <v>217</v>
+      </c>
+      <c r="F120" s="6">
         <v>7.99</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H119" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="2">
-        <v>110</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F120" s="6">
-        <v>5.6</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H120" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="F121" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="G121" s="5"/>
+        <v>7.99</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="H121" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="F122" s="6">
         <v>7.99</v>
@@ -3919,15 +3892,15 @@
         <v>54</v>
       </c>
       <c r="H122" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="F123" s="6">
         <v>7.99</v>
@@ -3936,15 +3909,15 @@
         <v>54</v>
       </c>
       <c r="H123" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="F124" s="6">
         <v>7.99</v>
@@ -3956,12 +3929,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F125" s="6">
         <v>7.99</v>
@@ -3970,15 +3943,15 @@
         <v>54</v>
       </c>
       <c r="H125" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="F126" s="6">
         <v>7.99</v>
@@ -3990,89 +3963,95 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>66</v>
+        <v>156</v>
+      </c>
+      <c r="D127" t="s">
+        <v>218</v>
       </c>
       <c r="F127" s="6">
-        <v>7.99</v>
+        <v>8.9</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H127" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="F128" s="6">
-        <v>7.99</v>
+        <v>9.9</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H128" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
+        <v>5</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F129" s="6">
-        <v>8.9</v>
+      <c r="D129" t="s">
+        <v>219</v>
+      </c>
+      <c r="F129" s="4">
+        <v>10.9</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>108</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F130" s="6">
-        <v>9.9</v>
+        <v>4</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D130" t="s">
+        <v>220</v>
+      </c>
+      <c r="F130" s="4">
+        <v>16.899999999999999</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>223</v>
+        <v>115</v>
+      </c>
+      <c r="D131" t="s">
+        <v>221</v>
       </c>
       <c r="F131" s="4">
-        <v>10.9</v>
+        <v>13.9</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>12</v>
@@ -4081,18 +4060,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>224</v>
+        <v>114</v>
+      </c>
+      <c r="D132" t="s">
+        <v>222</v>
       </c>
       <c r="F132" s="4">
-        <v>16.899999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>12</v>
@@ -4101,18 +4080,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>225</v>
+        <v>113</v>
+      </c>
+      <c r="D133" t="s">
+        <v>223</v>
       </c>
       <c r="F133" s="4">
-        <v>13.9</v>
+        <v>12.9</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>12</v>
@@ -4121,58 +4100,53 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>2</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="F134" s="4">
-        <v>15.9</v>
+        <v>79</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134" t="s">
+        <v>258</v>
+      </c>
+      <c r="F134" s="6">
+        <v>9.9</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H134" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>1</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F135" s="4">
-        <v>12.9</v>
+        <v>177</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="F135" s="6">
+        <v>19.899999999999999</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>264</v>
+        <v>138</v>
+      </c>
+      <c r="D136" t="s">
+        <v>278</v>
       </c>
       <c r="F136" s="6">
-        <v>9.9</v>
+        <v>14.9</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>36</v>
@@ -4181,84 +4155,89 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D137" s="12"/>
+        <v>182</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>259</v>
+      </c>
       <c r="F137" s="6">
-        <v>19.899999999999999</v>
+        <v>15</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>284</v>
+        <v>183</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="F138" s="6">
-        <v>14.9</v>
+        <v>11.5</v>
       </c>
       <c r="G138" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>77</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F139" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="G139" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H139" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="2">
-        <v>174</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="F139" s="6">
-        <v>15</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>266</v>
+        <v>135</v>
+      </c>
+      <c r="D140" t="s">
+        <v>280</v>
       </c>
       <c r="F140" s="6">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="H140" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D141" s="12" t="s">
-        <v>285</v>
+      <c r="D141" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="F141" s="6">
         <v>9.9</v>
@@ -4270,120 +4249,80 @@
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>286</v>
+        <v>83</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="F142" s="6">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H142" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>287</v>
+        <v>52</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="F143" s="6">
-        <v>9.9</v>
+        <v>135</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H143" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>267</v>
+        <v>62</v>
+      </c>
+      <c r="D144" t="s">
+        <v>224</v>
       </c>
       <c r="F144" s="6">
-        <v>11.5</v>
+        <v>8.9</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D145" s="12" t="s">
-        <v>288</v>
+        <v>61</v>
+      </c>
+      <c r="D145" t="s">
+        <v>225</v>
       </c>
       <c r="F145" s="6">
-        <v>135</v>
+        <v>10.5</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H145" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="2">
-        <v>112</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="F146" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="G146" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="2">
-        <v>113</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="F147" s="6">
-        <v>10.5</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H147">
-    <sortCondition ref="B2:B147"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H145">
+    <sortCondition ref="B2:B145"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C82A2B2-CFB5-4634-995E-C70F055818D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35090107-E0AA-4FEB-A377-907D7D110499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="289">
   <si>
     <t>Código</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Misto Quente (Frango C/Requeijão)</t>
   </si>
   <si>
-    <t>Pão De Queijo Requeijão Tamanho G</t>
-  </si>
-  <si>
     <t>Omeletes e Crepicoas</t>
   </si>
   <si>
@@ -399,9 +396,6 @@
     <t>Misto Quente (Presunto+Mussarela)</t>
   </si>
   <si>
-    <t>Pão De Queijo Coquetel</t>
-  </si>
-  <si>
     <t>Croissant</t>
   </si>
   <si>
@@ -790,9 +784,6 @@
   </si>
   <si>
     <t>Massa rica em fibras solúveis da aveia, que auxiliam no controle do colesterol, recheada com frango desfiado, fonte de proteínas magras essenciais. Uma combinação nutritiva e satisfatória.</t>
-  </si>
-  <si>
-    <t>Preparada com farinha de amêndoas e ovos, oferecendo baixo teor de carboidratos e alto teor proteico. Os recheios variados garantem opções para diferentes preferências, sempre priorizando ingredientes nutritivos.</t>
   </si>
   <si>
     <t>Versão mais leve do tradicional quibe, incorporando berinjela rica em antioxidantes à carne magra. A berinjela adiciona fibras, umidade e reduz o teor calórico total do prato.</t>
@@ -1338,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,18 +1378,18 @@
         <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -1407,19 +1398,19 @@
         <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F3" s="6">
         <v>15.9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -1428,17 +1419,17 @@
         <v>150</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F4" s="6">
         <v>15.9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1447,18 +1438,18 @@
         <v>149</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="6">
         <v>15.9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -1467,18 +1458,18 @@
         <v>151</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="6">
         <v>15.9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -1487,20 +1478,20 @@
         <v>162</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="6">
         <v>15.9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -1509,7 +1500,7 @@
         <v>179</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -1518,7 +1509,7 @@
         <v>14.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -1527,20 +1518,20 @@
         <v>180</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
         <v>14.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>7</v>
@@ -1551,21 +1542,21 @@
         <v>73</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="6">
         <v>4.5</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1573,21 +1564,21 @@
         <v>64</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="6">
         <v>7.9</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1595,21 +1586,21 @@
         <v>69</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="6">
         <v>9.9</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1617,21 +1608,21 @@
         <v>67</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="6">
         <v>9.9</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1639,21 +1630,21 @@
         <v>94</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="6">
         <v>10.9</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1661,21 +1652,21 @@
         <v>66</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="6">
         <v>4.5</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1683,21 +1674,21 @@
         <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="6">
         <v>7.9</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1705,21 +1696,21 @@
         <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="6">
         <v>13.9</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1727,21 +1718,21 @@
         <v>71</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="6">
         <v>9.9</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1749,21 +1740,21 @@
         <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="6">
         <v>6.9</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1771,21 +1762,21 @@
         <v>70</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="6">
         <v>12.9</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1793,21 +1784,21 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="6">
         <v>9.9</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1815,21 +1806,21 @@
         <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="6">
         <v>14.9</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1837,18 +1828,18 @@
         <v>182</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="6">
         <v>12.9</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -1857,21 +1848,21 @@
         <v>81</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="6">
         <v>5.9</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1879,18 +1870,18 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="4">
         <v>8.5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>7</v>
@@ -1901,18 +1892,18 @@
         <v>121</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -1921,16 +1912,16 @@
         <v>122</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="4"/>
       <c r="E27" s="2"/>
       <c r="F27" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -1939,7 +1930,7 @@
         <v>141</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
@@ -1948,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -1957,7 +1948,7 @@
         <v>142</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="8"/>
@@ -1966,7 +1957,7 @@
         <v>4.5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -1975,18 +1966,18 @@
         <v>143</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="6">
         <v>3.3</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -1995,7 +1986,7 @@
         <v>144</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="4"/>
@@ -2004,7 +1995,7 @@
         <v>4.8</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -2013,7 +2004,7 @@
         <v>83</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2022,10 +2013,10 @@
         <v>7.5</v>
       </c>
       <c r="G32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2033,18 +2024,18 @@
         <v>123</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="9">
         <v>10.9</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -2053,7 +2044,7 @@
         <v>124</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="4"/>
@@ -2062,7 +2053,7 @@
         <v>10.9</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -2071,18 +2062,18 @@
         <v>115</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="6">
         <v>2.5</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -2091,18 +2082,18 @@
         <v>130</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="9">
         <v>12.9</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -2111,18 +2102,18 @@
         <v>30</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="4">
         <v>8.5</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>7</v>
@@ -2133,7 +2124,7 @@
         <v>90</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="2"/>
       <c r="E38" s="2"/>
@@ -2141,10 +2132,10 @@
         <v>12.9</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2152,18 +2143,18 @@
         <v>138</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="6">
         <v>13.9</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -2172,18 +2163,18 @@
         <v>139</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="6">
         <v>9.9</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -2192,20 +2183,20 @@
         <v>20</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="4">
         <v>7.9</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>7</v>
@@ -2216,20 +2207,20 @@
         <v>31</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="4">
         <v>8.5</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>7</v>
@@ -2240,7 +2231,7 @@
         <v>86</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2249,10 +2240,10 @@
         <v>12.9</v>
       </c>
       <c r="G43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2260,7 +2251,7 @@
         <v>92</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2269,10 +2260,10 @@
         <v>12.9</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2280,7 +2271,7 @@
         <v>91</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2289,10 +2280,10 @@
         <v>9.9</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2300,18 +2291,18 @@
         <v>137</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="6">
         <v>6.99</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -2320,20 +2311,20 @@
         <v>39</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="4">
         <v>8.5</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>7</v>
@@ -2344,18 +2335,18 @@
         <v>165</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="6">
         <v>15.9</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -2364,18 +2355,18 @@
         <v>166</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="6">
         <v>15.9</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -2384,10 +2375,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2395,7 +2386,7 @@
         <v>8.5</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>7</v>
@@ -2406,17 +2397,17 @@
         <v>126</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="9">
         <v>10.9</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H51" s="2"/>
     </row>
@@ -2425,17 +2416,17 @@
         <v>125</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="9">
         <v>8.9</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -2444,17 +2435,17 @@
         <v>129</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="6">
         <v>12.9</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -2463,17 +2454,17 @@
         <v>127</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="9">
         <v>5.9</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H54" s="2"/>
     </row>
@@ -2482,17 +2473,17 @@
         <v>128</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="9">
         <v>8.9</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -2501,7 +2492,7 @@
         <v>181</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2509,10 +2500,10 @@
         <v>3.5</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2520,17 +2511,17 @@
         <v>133</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -2539,20 +2530,20 @@
         <v>84</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="6">
         <v>7.9</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2560,17 +2551,17 @@
         <v>131</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="9">
         <v>12.5</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H59" s="2"/>
     </row>
@@ -2579,20 +2570,20 @@
         <v>43</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="4">
         <v>8.5</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>7</v>
@@ -2603,20 +2594,20 @@
         <v>145</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D61" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="6">
         <v>15.9</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H61" s="2"/>
     </row>
@@ -2625,20 +2616,20 @@
         <v>147</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="6">
         <v>15.9</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H62" s="2"/>
     </row>
@@ -2647,18 +2638,18 @@
         <v>134</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="9">
         <v>7.9</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H63" s="2"/>
     </row>
@@ -2667,18 +2658,18 @@
         <v>153</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="6">
         <v>15.9</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H64" s="2"/>
     </row>
@@ -2687,18 +2678,18 @@
         <v>152</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="6">
         <v>15.9</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H65" s="2"/>
     </row>
@@ -2707,18 +2698,18 @@
         <v>135</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="9">
         <v>7.9</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H66" s="2"/>
     </row>
@@ -2727,18 +2718,18 @@
         <v>154</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="6">
         <v>15.9</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H67" s="2"/>
     </row>
@@ -2747,18 +2738,18 @@
         <v>48</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="4">
         <v>8.5</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>7</v>
@@ -2773,7 +2764,7 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="4">
@@ -2791,11 +2782,11 @@
         <v>16</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="4">
@@ -2813,18 +2804,18 @@
         <v>136</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="9">
         <v>12.9</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H71" s="2"/>
     </row>
@@ -2833,18 +2824,18 @@
         <v>167</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="6">
         <v>15.9</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H72" s="2"/>
     </row>
@@ -2853,18 +2844,18 @@
         <v>168</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="6">
         <v>15.9</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H73" s="2"/>
     </row>
@@ -2873,20 +2864,20 @@
         <v>11</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="D74" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4">
         <v>16.899999999999999</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>7</v>
@@ -2897,20 +2888,20 @@
         <v>12</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="4">
         <v>19.899999999999999</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>7</v>
@@ -2921,20 +2912,20 @@
         <v>9</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="D76" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="4">
         <v>16.899999999999999</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>7</v>
@@ -2945,20 +2936,20 @@
         <v>10</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="4">
         <v>17.899999999999999</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>7</v>
@@ -2969,20 +2960,20 @@
         <v>7</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4">
         <v>13.9</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>7</v>
@@ -2993,20 +2984,20 @@
         <v>8</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="4">
         <v>16.899999999999999</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>7</v>
@@ -3017,7 +3008,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3026,7 +3017,7 @@
         <v>10.9</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>7</v>
@@ -3037,18 +3028,18 @@
         <v>155</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="6">
         <v>15.9</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H81" s="2"/>
     </row>
@@ -3057,10 +3048,10 @@
         <v>156</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="2"/>
@@ -3068,7 +3059,7 @@
         <v>15.9</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H82" s="2"/>
     </row>
@@ -3077,20 +3068,20 @@
         <v>50</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4">
         <v>8.5</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>7</v>
@@ -3101,10 +3092,10 @@
         <v>22</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3112,7 +3103,7 @@
         <v>1.99</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>7</v>
@@ -3123,10 +3114,10 @@
         <v>23</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3134,7 +3125,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>7</v>
@@ -3142,21 +3133,19 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="2" t="s">
-        <v>255</v>
-      </c>
+      <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="4">
-        <v>0.99</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>7</v>
@@ -3164,19 +3153,19 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="4">
-        <v>4.9000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>7</v>
@@ -3184,19 +3173,19 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="4">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>7</v>
@@ -3204,19 +3193,19 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="4">
-        <v>4.9000000000000004</v>
+        <v>7.99</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>7</v>
@@ -3224,16 +3213,16 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="4">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>4</v>
@@ -3244,19 +3233,21 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>14</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="4">
-        <v>7.99</v>
+        <v>8.5</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>7</v>
@@ -3264,85 +3255,87 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>13</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
-      <c r="F92" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>7</v>
+      <c r="F92" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H92" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>7</v>
+      <c r="F93" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="6">
-        <v>12.9</v>
+        <v>14</v>
       </c>
       <c r="G94" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" t="s">
         <v>36</v>
-      </c>
-      <c r="H94" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D95" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="E95" s="2"/>
       <c r="F95" s="6">
-        <v>11.5</v>
+        <v>12.9</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H95" t="s">
         <v>37</v>
@@ -3350,295 +3343,295 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D96" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s">
+        <v>208</v>
+      </c>
       <c r="E96" s="2"/>
       <c r="F96" s="6">
-        <v>14</v>
+        <v>7.9</v>
       </c>
       <c r="G96" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H96" t="s">
         <v>36</v>
-      </c>
-      <c r="H96" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="D97" s="2" t="s">
-        <v>277</v>
+      <c r="D97" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="6">
-        <v>12.9</v>
+        <v>15.9</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H97" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="D98" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="6">
-        <v>7.9</v>
+        <v>15.9</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H98" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="4" t="s">
-        <v>256</v>
+        <v>32</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D99" t="s">
+        <v>210</v>
       </c>
       <c r="E99" s="2"/>
-      <c r="F99" s="6">
-        <v>15.9</v>
+      <c r="F99" s="4">
+        <v>8.5</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H99" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C100" s="2"/>
       <c r="D100" t="s">
         <v>211</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="6">
-        <v>15.9</v>
+        <v>6</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>97</v>
+        <v>35</v>
+      </c>
+      <c r="H100" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D101" t="s">
-        <v>212</v>
+        <v>179</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="E101" s="2"/>
-      <c r="F101" s="4">
-        <v>8.5</v>
+      <c r="F101" s="6">
+        <v>5</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H101" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>82</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C102" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D102" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E102" s="2"/>
-      <c r="F102" s="6">
-        <v>6</v>
+      <c r="F102" s="4">
+        <v>7.9</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H102" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="4" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="E103" s="2"/>
-      <c r="F103" s="6">
-        <v>5</v>
+      <c r="F103" s="9">
+        <v>16</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>18</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s">
-        <v>214</v>
+        <v>140</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="E104" s="2"/>
-      <c r="F104" s="4">
-        <v>7.9</v>
+      <c r="F104" s="6">
+        <v>12</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H104" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="C105" s="2"/>
-      <c r="D105" s="4" t="s">
-        <v>236</v>
+      <c r="D105" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E105" s="2"/>
-      <c r="F105" s="9">
-        <v>16</v>
+      <c r="F105" s="6">
+        <v>4.8</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="4" t="s">
-        <v>237</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="6">
-        <v>12</v>
+        <v>9.9</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>77</v>
+        <v>53</v>
+      </c>
+      <c r="H106" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2" t="s">
-        <v>239</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="6">
-        <v>4.8</v>
+        <v>9.9</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="H107" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D108" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s">
+        <v>213</v>
+      </c>
       <c r="E108" s="2"/>
       <c r="F108" s="6">
-        <v>9.9</v>
+        <v>8.9</v>
       </c>
       <c r="G108" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H108" t="s">
         <v>54</v>
-      </c>
-      <c r="H108" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s">
+        <v>214</v>
+      </c>
       <c r="E109" s="2"/>
       <c r="F109" s="6">
-        <v>9.9</v>
+        <v>4</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H109" t="s">
         <v>56</v>
@@ -3646,98 +3639,94 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C110" s="2"/>
-      <c r="D110" t="s">
-        <v>215</v>
+      <c r="D110" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="6">
         <v>8.9</v>
       </c>
       <c r="G110" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H110" t="s">
         <v>54</v>
-      </c>
-      <c r="H110" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C111" s="2"/>
-      <c r="D111" t="s">
-        <v>216</v>
+      <c r="D111" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="6">
-        <v>4</v>
+        <v>8.9</v>
       </c>
       <c r="G111" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H111" t="s">
         <v>54</v>
-      </c>
-      <c r="H111" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="C112" s="2"/>
-      <c r="D112" s="2" t="s">
-        <v>240</v>
-      </c>
+      <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="6">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="G112" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H112" t="s">
         <v>54</v>
-      </c>
-      <c r="H112" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C113" s="2"/>
-      <c r="D113" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="6">
-        <v>8.9</v>
+        <v>7.99</v>
       </c>
       <c r="G113" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H113" t="s">
         <v>54</v>
-      </c>
-      <c r="H113" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -3746,81 +3735,76 @@
         <v>9.9</v>
       </c>
       <c r="G114" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H114" t="s">
         <v>54</v>
-      </c>
-      <c r="H114" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
+        <v>143</v>
+      </c>
       <c r="F115" s="6">
         <v>7.99</v>
       </c>
       <c r="G115" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H115" t="s">
         <v>54</v>
-      </c>
-      <c r="H115" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
+        <v>59</v>
+      </c>
       <c r="F116" s="6">
-        <v>9.9</v>
+        <v>5.6</v>
       </c>
       <c r="G116" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H116" t="s">
         <v>54</v>
-      </c>
-      <c r="H116" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F117" s="6">
-        <v>7.99</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="G117" s="5"/>
       <c r="H117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>60</v>
+        <v>144</v>
+      </c>
+      <c r="D118" t="s">
+        <v>215</v>
       </c>
       <c r="F118" s="6">
-        <v>5.6</v>
+        <v>7.99</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H118" t="s">
         <v>55</v>
@@ -3828,76 +3812,75 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="F119" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="G119" s="5"/>
+        <v>7.99</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="H119" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D120" t="s">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="F120" s="6">
         <v>7.99</v>
       </c>
       <c r="G120" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H120" t="s">
         <v>54</v>
-      </c>
-      <c r="H120" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="F121" s="6">
         <v>7.99</v>
       </c>
       <c r="G121" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H121" t="s">
         <v>54</v>
-      </c>
-      <c r="H121" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="F122" s="6">
         <v>7.99</v>
       </c>
       <c r="G122" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H122" t="s">
         <v>54</v>
-      </c>
-      <c r="H122" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>65</v>
@@ -3906,58 +3889,61 @@
         <v>7.99</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H123" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="F124" s="6">
         <v>7.99</v>
       </c>
       <c r="G124" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H124" t="s">
         <v>54</v>
-      </c>
-      <c r="H124" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>66</v>
+        <v>154</v>
+      </c>
+      <c r="D125" t="s">
+        <v>216</v>
       </c>
       <c r="F125" s="6">
-        <v>7.99</v>
+        <v>8.9</v>
       </c>
       <c r="G125" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H125" t="s">
         <v>54</v>
-      </c>
-      <c r="H125" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="F126" s="6">
-        <v>7.99</v>
+        <v>9.9</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H126" t="s">
         <v>55</v>
@@ -3965,53 +3951,56 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>117</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>156</v>
+        <v>5</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="D127" t="s">
-        <v>218</v>
-      </c>
-      <c r="F127" s="6">
-        <v>8.9</v>
+        <v>217</v>
+      </c>
+      <c r="F127" s="4">
+        <v>10.9</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="H127" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>108</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F128" s="6">
-        <v>9.9</v>
+        <v>4</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D128" t="s">
+        <v>218</v>
+      </c>
+      <c r="F128" s="4">
+        <v>16.899999999999999</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="H128" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D129" t="s">
         <v>219</v>
       </c>
       <c r="F129" s="4">
-        <v>10.9</v>
+        <v>13.9</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>12</v>
@@ -4022,16 +4011,16 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D130" t="s">
         <v>220</v>
       </c>
       <c r="F130" s="4">
-        <v>16.899999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>12</v>
@@ -4042,16 +4031,16 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D131" t="s">
         <v>221</v>
       </c>
       <c r="F131" s="4">
-        <v>13.9</v>
+        <v>12.9</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>12</v>
@@ -4062,267 +4051,227 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>2</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>114</v>
+        <v>79</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D132" t="s">
-        <v>222</v>
-      </c>
-      <c r="F132" s="4">
-        <v>15.9</v>
+        <v>255</v>
+      </c>
+      <c r="F132" s="6">
+        <v>9.9</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H132" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>1</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D133" t="s">
-        <v>223</v>
-      </c>
-      <c r="F133" s="4">
-        <v>12.9</v>
+        <v>177</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="F133" s="6">
+        <v>19.899999999999999</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H133" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="D134" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="F134" s="6">
-        <v>9.9</v>
+        <v>14.9</v>
       </c>
       <c r="G134" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H134" t="s">
         <v>36</v>
-      </c>
-      <c r="H134" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D135" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>256</v>
+      </c>
       <c r="F135" s="6">
-        <v>19.899999999999999</v>
+        <v>15</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D136" t="s">
-        <v>278</v>
+        <v>181</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="F136" s="6">
-        <v>14.9</v>
+        <v>11.5</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H136" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="F137" s="6">
-        <v>15</v>
+        <v>9.9</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>97</v>
+        <v>35</v>
+      </c>
+      <c r="H137" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>260</v>
+        <v>133</v>
+      </c>
+      <c r="D138" t="s">
+        <v>277</v>
       </c>
       <c r="F138" s="6">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>97</v>
+        <v>35</v>
+      </c>
+      <c r="H138" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F139" s="6">
         <v>9.9</v>
       </c>
       <c r="G139" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H139" t="s">
         <v>36</v>
-      </c>
-      <c r="H139" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D140" t="s">
-        <v>280</v>
+        <v>82</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="F140" s="6">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H140" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F141" s="6">
-        <v>9.9</v>
+        <v>135</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H141" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>261</v>
+        <v>61</v>
+      </c>
+      <c r="D142" t="s">
+        <v>222</v>
       </c>
       <c r="F142" s="6">
-        <v>11.5</v>
+        <v>8.9</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>282</v>
+        <v>60</v>
+      </c>
+      <c r="D143" t="s">
+        <v>223</v>
       </c>
       <c r="F143" s="6">
-        <v>135</v>
+        <v>10.5</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H143" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
-        <v>112</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D144" t="s">
-        <v>224</v>
-      </c>
-      <c r="F144" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
-        <v>113</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D145" t="s">
-        <v>225</v>
-      </c>
-      <c r="F145" s="6">
-        <v>10.5</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H145">
-    <sortCondition ref="B2:B145"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H143">
+    <sortCondition ref="B2:B143"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinopc\Project\mn-transparency\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A3F260-AB4E-4F6E-9B51-DB44811D022E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96C595C-2654-40ED-9FDA-14EC3A55E86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="266">
   <si>
     <t>Código</t>
   </si>
@@ -78,18 +78,9 @@
     <t>Frango, Requeijão, Carne Seca, Goiabada</t>
   </si>
   <si>
-    <t>Pão De Queijo Palitinho</t>
-  </si>
-  <si>
     <t>Pao De Queijo</t>
   </si>
   <si>
-    <t>Pão De Queijo</t>
-  </si>
-  <si>
-    <t>Pão De Queijo Palitão</t>
-  </si>
-  <si>
     <t>Cheddar, Frango, Lombo, Requeijão</t>
   </si>
   <si>
@@ -826,13 +817,19 @@
   </si>
   <si>
     <t>Ice Cappuccino</t>
+  </si>
+  <si>
+    <t>Pao De Queijo Palitinho</t>
+  </si>
+  <si>
+    <t>Pao De Queijo Palitao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1265,23 +1262,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,134 +1304,134 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F3" s="6">
         <v>15.9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>150</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F4" s="6">
         <v>15.9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>149</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="6">
         <v>15.9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>151</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="6">
         <v>15.9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>162</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="6">
         <v>15.9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>179</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -1443,363 +1440,363 @@
         <v>14.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>180</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
         <v>14.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>73</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="6">
         <v>4.5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>64</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="6">
         <v>7.9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>69</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="6">
         <v>9.9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>67</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="6">
         <v>9.9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>94</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="6">
         <v>10.9</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>66</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="6">
         <v>4.5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="6">
         <v>7.9</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="6">
         <v>13.9</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>71</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="6">
         <v>9.9</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="6">
         <v>6.9</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>70</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="6">
         <v>12.9</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="6">
         <v>9.9</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="6">
         <v>14.9</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>182</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="6">
         <v>12.9</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>81</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="6">
         <v>5.9</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1808,65 +1805,65 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="4">
         <v>8.5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>121</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>143</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="6">
         <v>3.3</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>83</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1875,100 +1872,100 @@
         <v>7.5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>123</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="9">
         <v>10.9</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>115</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="6">
         <v>2.5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>130</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="9">
         <v>12.9</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="4">
         <v>8.5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>90</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2"/>
       <c r="E33" s="2"/>
@@ -1976,33 +1973,33 @@
         <v>12.9</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>138</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="6">
         <v>13.9</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>20</v>
       </c>
@@ -2010,52 +2007,52 @@
         <v>14</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="4">
         <v>7.9</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="4">
         <v>8.5</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>86</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2064,18 +2061,18 @@
         <v>12.9</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>92</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2084,18 +2081,18 @@
         <v>12.9</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>91</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2104,105 +2101,105 @@
         <v>9.9</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>137</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="6">
         <v>6.99</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="4">
         <v>8.5</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>165</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="6">
         <v>15.9</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>166</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="6">
         <v>15.9</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2210,37 +2207,37 @@
         <v>8.5</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" customHeight="1">
+    <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>126</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="9">
         <v>10.9</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>181</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2248,273 +2245,273 @@
         <v>3.5</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>133</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>84</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="6">
         <v>7.9</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>131</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="9">
         <v>12.5</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4">
         <v>8.5</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>145</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="6">
         <v>15.9</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>147</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="6">
         <v>15.9</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>134</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="9">
         <v>7.9</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>153</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="6">
         <v>15.9</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>152</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="6">
         <v>15.9</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>135</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="9">
         <v>7.9</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>154</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="6">
         <v>15.9</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>48</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="4">
         <v>8.5</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>16</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="4">
@@ -2527,78 +2524,78 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>136</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="9">
         <v>12.9</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>167</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="6">
         <v>15.9</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>168</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="6">
         <v>15.9</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>11</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="4">
@@ -2611,18 +2608,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>12</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="4">
@@ -2635,18 +2632,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>9</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="4">
@@ -2659,18 +2656,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>10</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="4">
@@ -2683,18 +2680,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>7</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="4">
@@ -2707,18 +2704,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>8</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="4">
@@ -2731,12 +2728,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>6</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2751,35 +2748,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>155</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="6">
         <v>15.9</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>156</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="2"/>
@@ -2787,43 +2784,43 @@
         <v>15.9</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>50</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="4">
         <v>8.5</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>22</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2837,12 +2834,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>23</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
@@ -2859,12 +2856,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>26</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2879,12 +2876,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>24</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2899,12 +2896,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>15</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2919,12 +2916,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>14</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2939,12 +2936,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>13</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2959,15 +2956,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>52</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2975,21 +2972,21 @@
         <v>8.5</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>88</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -2997,21 +2994,21 @@
         <v>12.9</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H81" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>74</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3019,21 +3016,21 @@
         <v>11.5</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H82" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>75</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -3041,162 +3038,162 @@
         <v>14</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H83" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>89</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="6">
         <v>12.9</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H84" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>85</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="6">
         <v>7.9</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H85" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>170</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="6">
         <v>15.9</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>169</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D87" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="6">
         <v>15.9</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>62</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D88" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="4">
         <v>8.5</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H88" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>82</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="6">
         <v>6</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H89" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>173</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="6">
         <v>5</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>18</v>
       </c>
@@ -3207,7 +3204,7 @@
         <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="4">
@@ -3220,72 +3217,72 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>132</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="9">
         <v>16</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>140</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="6">
         <v>12</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>114</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="6">
         <v>4.8</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>106</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3293,21 +3290,21 @@
         <v>9.9</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H95" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>107</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3315,106 +3312,106 @@
         <v>9.9</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H96" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>119</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="6">
         <v>8.9</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H97" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>109</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="6">
         <v>4</v>
       </c>
       <c r="G98" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H98" t="s">
         <v>51</v>
       </c>
-      <c r="H98" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>118</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="6">
         <v>8.9</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H99" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>116</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="6">
         <v>8.9</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H100" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>104</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -3423,18 +3420,18 @@
         <v>9.9</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H101" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>95</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -3443,18 +3440,18 @@
         <v>7.99</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H102" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>105</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -3463,438 +3460,438 @@
         <v>9.9</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H103" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>96</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F104" s="6">
         <v>7.99</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H104" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>110</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F105" s="6">
         <v>5.6</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H105" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>111</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F106" s="6">
         <v>2.5</v>
       </c>
       <c r="G106" s="5"/>
       <c r="H106" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>97</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D107" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F107" s="6">
         <v>7.99</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H107" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>98</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F108" s="6">
         <v>7.99</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H108" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>99</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F109" s="6">
         <v>7.99</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H109" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>100</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F110" s="6">
         <v>7.99</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H110" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>101</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F111" s="6">
         <v>7.99</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H111" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>102</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F112" s="6">
         <v>7.99</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H112" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>103</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F113" s="6">
         <v>7.99</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H113" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>117</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D114" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F114" s="6">
         <v>8.9</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H114" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>108</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F115" s="6">
         <v>9.9</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H115" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>79</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D116" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F116" s="6">
         <v>9.9</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H116" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>177</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D117" s="8"/>
       <c r="F117" s="6">
         <v>19.899999999999999</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>80</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D118" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F118" s="6">
         <v>14.9</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H118" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>174</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F119" s="6">
         <v>15</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>175</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F120" s="6">
         <v>11.5</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>77</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F121" s="6">
         <v>9.9</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H121" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>76</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D122" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F122" s="6">
         <v>12.5</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H122" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>78</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F123" s="6">
         <v>9.9</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H123" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>176</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F124" s="6">
         <v>11.5</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>93</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" s="6">
         <v>135</v>
       </c>
       <c r="G125" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" t="s">
         <v>33</v>
       </c>
-      <c r="H125" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>112</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D126" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F126" s="6">
         <v>8.9</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>113</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D127" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F127" s="6">
         <v>10.5</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96C595C-2654-40ED-9FDA-14EC3A55E86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9DCB3E-DC2E-486C-9998-FDAE769ACB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="264">
   <si>
     <t>Código</t>
   </si>
@@ -817,12 +817,6 @@
   </si>
   <si>
     <t>Ice Cappuccino</t>
-  </si>
-  <si>
-    <t>Pao De Queijo Palitinho</t>
-  </si>
-  <si>
-    <t>Pao De Queijo Palitao</t>
   </si>
 </sst>
 </file>
@@ -1260,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2858,19 +2852,19 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="4">
-        <v>4.9000000000000004</v>
+        <v>6.5</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>7</v>
@@ -2878,19 +2872,19 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="4">
-        <v>1.5</v>
+        <v>7.99</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>7</v>
@@ -2898,16 +2892,16 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="4">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>4</v>
@@ -2918,19 +2912,21 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>14</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="4">
-        <v>7.99</v>
+        <v>8.5</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>7</v>
@@ -2938,104 +2934,106 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>13</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>7</v>
+      <c r="F79" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>7</v>
+      <c r="F80" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="6">
-        <v>12.9</v>
+        <v>14</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D82" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="E82" s="2"/>
       <c r="F82" s="6">
-        <v>11.5</v>
+        <v>12.9</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D83" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s">
+        <v>181</v>
+      </c>
       <c r="E83" s="2"/>
       <c r="F83" s="6">
-        <v>14</v>
+        <v>7.9</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>30</v>
@@ -3046,288 +3044,288 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C84" s="2"/>
-      <c r="D84" s="2" t="s">
-        <v>239</v>
+      <c r="D84" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="6">
-        <v>12.9</v>
+        <v>15.9</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H84" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="D85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="6">
-        <v>7.9</v>
+        <v>15.9</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="4" t="s">
-        <v>218</v>
+        <v>27</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" t="s">
+        <v>183</v>
       </c>
       <c r="E86" s="2"/>
-      <c r="F86" s="6">
-        <v>15.9</v>
+      <c r="F86" s="4">
+        <v>8.5</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="H86" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>253</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="6">
-        <v>15.9</v>
+        <v>6</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>82</v>
+        <v>30</v>
+      </c>
+      <c r="H87" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D88" t="s">
-        <v>183</v>
+        <v>153</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="E88" s="2"/>
-      <c r="F88" s="4">
-        <v>8.5</v>
+      <c r="F88" s="6">
+        <v>5</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H88" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>82</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E89" s="2"/>
-      <c r="F89" s="6">
-        <v>6</v>
+      <c r="F89" s="4">
+        <v>7.9</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="4" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="E90" s="2"/>
-      <c r="F90" s="6">
-        <v>5</v>
+      <c r="F90" s="9">
+        <v>16</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>18</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s">
-        <v>185</v>
+        <v>140</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="E91" s="2"/>
-      <c r="F91" s="4">
-        <v>7.9</v>
+      <c r="F91" s="6">
+        <v>12</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="4" t="s">
-        <v>199</v>
+      <c r="D92" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="E92" s="2"/>
-      <c r="F92" s="9">
-        <v>16</v>
+      <c r="F92" s="6">
+        <v>4.8</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="4" t="s">
-        <v>200</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="6">
-        <v>12</v>
+        <v>9.9</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>66</v>
+        <v>48</v>
+      </c>
+      <c r="H93" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="6">
-        <v>4.8</v>
+        <v>9.9</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="H94" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D95" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s">
+        <v>186</v>
+      </c>
       <c r="E95" s="2"/>
       <c r="F95" s="6">
-        <v>9.9</v>
+        <v>8.9</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D96" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s">
+        <v>187</v>
+      </c>
       <c r="E96" s="2"/>
       <c r="F96" s="6">
-        <v>9.9</v>
+        <v>4</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="D97" t="s">
-        <v>186</v>
+      <c r="D97" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="6">
@@ -3342,40 +3340,38 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C98" s="2"/>
-      <c r="D98" t="s">
-        <v>187</v>
+      <c r="D98" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="6">
-        <v>4</v>
+        <v>8.9</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H98" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="2" t="s">
-        <v>203</v>
-      </c>
+      <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="6">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>48</v>
@@ -3386,18 +3382,16 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="2" t="s">
-        <v>204</v>
-      </c>
+      <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="6">
-        <v>8.9</v>
+        <v>7.99</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>48</v>
@@ -3408,10 +3402,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -3428,14 +3422,11 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
+        <v>120</v>
+      </c>
       <c r="F102" s="6">
         <v>7.99</v>
       </c>
@@ -3448,16 +3439,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+        <v>54</v>
+      </c>
       <c r="F103" s="6">
-        <v>9.9</v>
+        <v>5.6</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>48</v>
@@ -3468,62 +3456,62 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="F104" s="6">
-        <v>7.99</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="G104" s="5"/>
       <c r="H104" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>54</v>
+        <v>121</v>
+      </c>
+      <c r="D105" t="s">
+        <v>188</v>
       </c>
       <c r="F105" s="6">
-        <v>5.6</v>
+        <v>7.99</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H105" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="F106" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="G106" s="5"/>
+        <v>7.99</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="H106" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D107" t="s">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="F107" s="6">
         <v>7.99</v>
@@ -3532,15 +3520,15 @@
         <v>48</v>
       </c>
       <c r="H107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="F108" s="6">
         <v>7.99</v>
@@ -3549,15 +3537,15 @@
         <v>48</v>
       </c>
       <c r="H108" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F109" s="6">
         <v>7.99</v>
@@ -3571,10 +3559,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F110" s="6">
         <v>7.99</v>
@@ -3583,15 +3571,15 @@
         <v>48</v>
       </c>
       <c r="H110" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="F111" s="6">
         <v>7.99</v>
@@ -3605,87 +3593,88 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>60</v>
+        <v>131</v>
+      </c>
+      <c r="D112" t="s">
+        <v>189</v>
       </c>
       <c r="F112" s="6">
-        <v>7.99</v>
+        <v>8.9</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H112" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="F113" s="6">
-        <v>7.99</v>
+        <v>9.9</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="D114" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="F114" s="6">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H114" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>127</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="D115" s="8"/>
       <c r="F115" s="6">
-        <v>9.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H115" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="D116" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F116" s="6">
-        <v>9.9</v>
+        <v>14.9</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>30</v>
@@ -3696,14 +3685,16 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D117" s="8"/>
+        <v>154</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="F117" s="6">
-        <v>19.899999999999999</v>
+        <v>15</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>82</v>
@@ -3711,67 +3702,70 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D118" t="s">
-        <v>240</v>
+        <v>155</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="F118" s="6">
-        <v>14.9</v>
+        <v>11.5</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H118" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="F119" s="6">
-        <v>15</v>
+        <v>9.9</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>82</v>
+        <v>30</v>
+      </c>
+      <c r="H119" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>222</v>
+        <v>110</v>
+      </c>
+      <c r="D120" t="s">
+        <v>242</v>
       </c>
       <c r="F120" s="6">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>82</v>
+        <v>30</v>
+      </c>
+      <c r="H120" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F121" s="6">
         <v>9.9</v>
@@ -3785,118 +3779,78 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D122" t="s">
-        <v>242</v>
+        <v>71</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="F122" s="6">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H122" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F123" s="6">
-        <v>9.9</v>
+        <v>135</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H123" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>223</v>
+        <v>56</v>
+      </c>
+      <c r="D124" t="s">
+        <v>190</v>
       </c>
       <c r="F124" s="6">
-        <v>11.5</v>
+        <v>8.9</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>244</v>
+        <v>55</v>
+      </c>
+      <c r="D125" t="s">
+        <v>191</v>
       </c>
       <c r="F125" s="6">
-        <v>135</v>
+        <v>10.5</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H125" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>112</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D126" t="s">
-        <v>190</v>
-      </c>
-      <c r="F126" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="G126" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <v>113</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D127" t="s">
-        <v>191</v>
-      </c>
-      <c r="F127" s="6">
-        <v>10.5</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H127">
-    <sortCondition ref="B2:B127"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H125">
+    <sortCondition ref="B2:B125"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinopc\Project\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9DCB3E-DC2E-486C-9998-FDAE769ACB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC449F9-C130-4FBF-BFC9-C72DC5618609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="254">
   <si>
     <t>Código</t>
   </si>
@@ -237,15 +237,9 @@
     <t xml:space="preserve">      16.50</t>
   </si>
   <si>
-    <t>Quibe Berinjela</t>
-  </si>
-  <si>
     <t>Torta De Palmito</t>
   </si>
   <si>
-    <t>Bolo Batata Carne</t>
-  </si>
-  <si>
     <t>Carne, Queijo</t>
   </si>
   <si>
@@ -264,12 +258,6 @@
     <t>Carne, Frango, Ricota</t>
   </si>
   <si>
-    <t>Feijão</t>
-  </si>
-  <si>
-    <t>1 Porção</t>
-  </si>
-  <si>
     <t>Bolo Salgado</t>
   </si>
   <si>
@@ -357,9 +345,6 @@
     <t>Pave de Nozes</t>
   </si>
   <si>
-    <t>Torta de Maca c/Canela</t>
-  </si>
-  <si>
     <t>Torta de Limao</t>
   </si>
   <si>
@@ -468,33 +453,15 @@
     <t>Marmitinha Maromba</t>
   </si>
   <si>
-    <t>Panqueca De Aveia Frango</t>
-  </si>
-  <si>
     <t>Panqueca Low Carb</t>
   </si>
   <si>
-    <t>Empadao Aveia C/Req</t>
-  </si>
-  <si>
-    <t>Empadao Grao De Bico</t>
-  </si>
-  <si>
-    <t>Nhoque e Aipim c/ Carne</t>
-  </si>
-  <si>
-    <t>Nhoque e Batata c/ Frango</t>
-  </si>
-  <si>
     <t>Saladinha</t>
   </si>
   <si>
     <t>Torta De Camarao</t>
   </si>
   <si>
-    <t>Torta De Frango C/Requeijao</t>
-  </si>
-  <si>
     <t>Torta De Bacalhau</t>
   </si>
   <si>
@@ -657,12 +624,6 @@
     <t>Massa leve preparada com farinha integral, recheada com combinações nutritivas de proteínas magras e vegetais frescos. Uma opção prática e equilibrada para uma refeição completa.</t>
   </si>
   <si>
-    <t>Massa rica em fibras solúveis da aveia, que auxiliam no controle do colesterol, com recheio cremoso de requeijão light. Uma alternativa mais nutritiva às empadas tradicionais.</t>
-  </si>
-  <si>
-    <t>Preparado com farinha de grão-de-bico, rica em proteínas vegetais e fibras, oferecendo uma opção nutritiva com baixo índice glicêmico. O recheio é preparado com ingredientes selecionados e temperos naturais.</t>
-  </si>
-  <si>
     <t>Substitui a massa tradicional por fatias de berinjela grelhada, rica em fibras e antioxidantes, reduzindo significativamente o teor calórico. Os recheios de carne e queijo são preparados com opções mais magras.</t>
   </si>
   <si>
@@ -675,15 +636,9 @@
     <t>Nhoque preparado com aipim, uma fonte de carboidratos complexos de baixo índice glicêmico, combinado com carne magra selecionada. Uma opção mais nutritiva e leve que o nhoque tradicional.</t>
   </si>
   <si>
-    <t>Versão equilibrada do nhoque tradicional, combinando batata e frango desfiado, fonte de proteínas magras. Preparado com menos gordura e sal, mantendo o sabor autêntico com perfil nutricional melhorado.</t>
-  </si>
-  <si>
     <t>Massa rica em fibras solúveis da aveia, que auxiliam no controle do colesterol, recheada com frango desfiado, fonte de proteínas magras essenciais. Uma combinação nutritiva e satisfatória.</t>
   </si>
   <si>
-    <t>Versão mais leve do tradicional quibe, incorporando berinjela rica em antioxidantes à carne magra. A berinjela adiciona fibras, umidade e reduz o teor calórico total do prato.</t>
-  </si>
-  <si>
     <t>Mix de folhas frescas e vegetais sazonais, ricos em vitaminas, minerais e fibras, com molho à parte preparado com ingredientes naturais e baixo teor de sódio. Uma opção leve e nutritiva para complementar sua refeição.</t>
   </si>
   <si>
@@ -817,13 +772,28 @@
   </si>
   <si>
     <t>Ice Cappuccino</t>
+  </si>
+  <si>
+    <t>Nhoque</t>
+  </si>
+  <si>
+    <t>Frbngo, Carne</t>
+  </si>
+  <si>
+    <t>Panqueca de Aveia</t>
+  </si>
+  <si>
+    <t>Torta de Frango</t>
+  </si>
+  <si>
+    <t>Torta de Maca e Canela</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1254,25 +1224,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1298,16 +1268,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="9" t="s">
@@ -1318,164 +1288,168 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F3" s="6">
         <v>15.9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>150</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F4" s="6">
         <v>15.9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>149</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="6">
         <v>15.9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>151</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="6">
         <v>15.9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>162</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="6">
         <v>15.9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+        <v>148</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="6">
         <v>14.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" t="s">
-        <v>166</v>
+        <v>38</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
-        <v>14.9</v>
+        <v>4.5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="8" t="s">
-        <v>224</v>
+      <c r="D10" t="s">
+        <v>210</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="6">
-        <v>4.5</v>
+        <v>7.9</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>30</v>
@@ -1484,20 +1458,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" t="s">
-        <v>225</v>
+      <c r="D11" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="6">
-        <v>7.9</v>
+        <v>9.9</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>30</v>
@@ -1506,16 +1480,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="8" t="s">
-        <v>226</v>
+      <c r="D12" t="s">
+        <v>212</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="6">
@@ -1528,20 +1502,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" t="s">
-        <v>227</v>
+      <c r="D13" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="6">
-        <v>9.9</v>
+        <v>10.9</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>30</v>
@@ -1550,20 +1524,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="6">
-        <v>10.9</v>
+        <v>4.5</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>30</v>
@@ -1572,20 +1546,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="6">
-        <v>4.5</v>
+        <v>7.9</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>30</v>
@@ -1594,20 +1568,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="6">
-        <v>7.9</v>
+        <v>13.9</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>30</v>
@@ -1616,20 +1590,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="6">
-        <v>13.9</v>
+        <v>9.9</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>30</v>
@@ -1638,20 +1612,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>232</v>
+      <c r="D18" t="s">
+        <v>156</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="6">
-        <v>9.9</v>
+        <v>6.9</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>30</v>
@@ -1660,64 +1634,64 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="6">
-        <v>6.9</v>
+        <v>12.9</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" t="s">
-        <v>168</v>
+      <c r="D20" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="6">
-        <v>12.9</v>
+        <v>9.9</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="6">
-        <v>9.9</v>
+        <v>14.9</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>30</v>
@@ -1726,289 +1700,293 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="6">
-        <v>14.9</v>
+        <v>12.9</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="6">
-        <v>12.9</v>
+        <v>5.9</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>81</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>114</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="6">
-        <v>5.9</v>
+      <c r="F24" s="4">
+        <v>8.5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>121</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>169</v>
+      <c r="D25" t="s">
+        <v>159</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="4">
-        <v>8.5</v>
+      <c r="F25" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" t="s">
-        <v>170</v>
+      <c r="D26" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="9" t="s">
-        <v>68</v>
+      <c r="F26" s="6">
+        <v>3.3</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="6">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2">
+        <v>123</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="9">
+        <v>10.9</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>83</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2">
+        <v>115</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2">
+        <v>130</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="9">
+        <v>12.9</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="B31" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2">
+        <v>90</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>123</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="9">
-        <v>10.9</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>115</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>130</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s">
-        <v>172</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="9">
-        <v>12.9</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="C33" s="2"/>
+      <c r="D33" t="s">
+        <v>162</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="6">
-        <v>12.9</v>
+        <v>13.9</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2">
+        <v>20</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>138</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="6">
-        <v>13.9</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>20</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>14</v>
+      <c r="B35" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="4">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>28</v>
@@ -2017,36 +1995,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
+        <v>86</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2061,18 +2035,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="6">
-        <v>12.9</v>
+        <v>9.9</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>30</v>
@@ -2081,59 +2055,61 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="6">
-        <v>9.9</v>
+        <v>6.99</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="4" t="s">
-        <v>201</v>
+        <v>19</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>165</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="6">
-        <v>6.99</v>
+      <c r="F40" s="4">
+        <v>8.5</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" t="s">
-        <v>176</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="4">
         <v>8.5</v>
@@ -2145,451 +2121,484 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="16.5" customHeight="1">
       <c r="A42" s="2">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="4" t="s">
-        <v>210</v>
+        <v>247</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="6">
-        <v>15.9</v>
+      <c r="F42" s="9">
+        <v>10.9</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
+        <v>133</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2">
+        <v>84</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="6">
-        <v>15.9</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>42</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="4">
-        <v>8.5</v>
+      <c r="F44" s="6">
+        <v>7.9</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="9">
-        <v>10.9</v>
+        <v>12.5</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="2">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="6">
-        <v>3.5</v>
+      <c r="F46" s="4">
+        <v>8.5</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>194</v>
+        <v>136</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" t="s">
+        <v>168</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="9" t="s">
-        <v>69</v>
+      <c r="F47" s="6">
+        <v>15.9</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" t="s">
-        <v>177</v>
+        <v>72</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="6">
-        <v>7.9</v>
+        <v>15.9</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>195</v>
+        <v>133</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="9">
-        <v>12.5</v>
+        <v>7.9</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="2">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>178</v>
+        <v>236</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="4">
-        <v>8.5</v>
+      <c r="F50" s="6">
+        <v>15.9</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" t="s">
-        <v>179</v>
+        <v>140</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="6">
         <v>15.9</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="2">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" s="4" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="6">
+      <c r="F52" s="9">
+        <v>7.9</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="2">
+        <v>154</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s">
+        <v>169</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="6">
         <v>15.9</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>134</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="9">
-        <v>7.9</v>
-      </c>
       <c r="G53" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="2">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="4" t="s">
-        <v>213</v>
+      <c r="D54" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="6">
-        <v>15.9</v>
+      <c r="F54" s="4">
+        <v>8.5</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="2">
-        <v>152</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="4" t="s">
-        <v>214</v>
+        <v>16</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="6">
-        <v>15.9</v>
+      <c r="F55" s="4">
+        <v>9.99</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="2">
+        <v>136</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="9">
-        <v>7.9</v>
+        <v>12.9</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="2">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s">
-        <v>180</v>
+        <v>249</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="6">
         <v>15.9</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="2">
-        <v>48</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="D58" s="2" t="s">
-        <v>245</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="4">
-        <v>8.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>254</v>
+        <v>95</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>255</v>
+        <v>87</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>246</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="4">
-        <v>9.99</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="2">
-        <v>136</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="4" t="s">
-        <v>198</v>
+        <v>9</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="9">
-        <v>12.9</v>
+      <c r="F60" s="4">
+        <v>16.899999999999999</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="2">
-        <v>167</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="4" t="s">
-        <v>215</v>
+        <v>10</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="6">
-        <v>15.9</v>
+      <c r="F61" s="4">
+        <v>17.899999999999999</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="2">
-        <v>168</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="4" t="s">
-        <v>216</v>
+        <v>7</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="6">
-        <v>15.9</v>
+      <c r="F62" s="4">
+        <v>13.9</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="4">
@@ -2602,22 +2611,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="4">
-        <v>19.899999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>12</v>
@@ -2626,618 +2631,623 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="2">
-        <v>9</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>155</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="4">
-        <v>16.899999999999999</v>
+      <c r="F65" s="6">
+        <v>15.9</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="2">
-        <v>10</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>84</v>
+        <v>156</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D66" s="10"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="4">
-        <v>17.899999999999999</v>
+      <c r="F66" s="6">
+        <v>15.9</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="2">
-        <v>7</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>83</v>
+        <v>50</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>232</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="4">
-        <v>13.9</v>
+        <v>8.5</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="4">
-        <v>16.899999999999999</v>
+        <v>1.99</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="2">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="4">
-        <v>10.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="2">
-        <v>155</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>147</v>
+        <v>15</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="4" t="s">
-        <v>217</v>
-      </c>
+      <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="6">
-        <v>15.9</v>
+      <c r="F70" s="4">
+        <v>6.5</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="2">
-        <v>156</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D71" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="6">
-        <v>15.9</v>
+      <c r="F71" s="4">
+        <v>7.99</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="2">
-        <v>50</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>247</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="4">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="2">
-        <v>22</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>17</v>
+        <v>52</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="4">
-        <v>1.99</v>
+        <v>8.5</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" s="2">
-        <v>23</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>17</v>
+        <v>88</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F74" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="2">
-        <v>15</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F75" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="2">
-        <v>14</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="4">
-        <v>7.99</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F76" s="6">
+        <v>14</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="2">
-        <v>13</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>258</v>
+        <v>89</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F77" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="2">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s">
+        <v>170</v>
+      </c>
       <c r="E78" s="2"/>
-      <c r="F78" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F78" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D79" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="D79" t="s">
+        <v>171</v>
+      </c>
       <c r="E79" s="2"/>
       <c r="F79" s="6">
-        <v>12.9</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15.9</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="2">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D80" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="D80" t="s">
+        <v>172</v>
+      </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="6">
-        <v>11.5</v>
+      <c r="F80" s="4">
+        <v>8.5</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H80" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D81" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s">
+        <v>173</v>
+      </c>
       <c r="E81" s="2"/>
       <c r="F81" s="6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="D82" s="2" t="s">
-        <v>239</v>
+      <c r="D82" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="6">
-        <v>12.9</v>
+        <v>5</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H82" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="2">
-        <v>85</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D83" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E83" s="2"/>
-      <c r="F83" s="6">
+      <c r="F83" s="4">
         <v>7.9</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H83" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="4" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="E84" s="2"/>
-      <c r="F84" s="6">
-        <v>15.9</v>
+      <c r="F84" s="9">
+        <v>16</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="2">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D85" t="s">
-        <v>182</v>
+        <v>65</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="6">
-        <v>15.9</v>
+        <v>12</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="2">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D86" t="s">
-        <v>183</v>
+        <v>124</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="E86" s="2"/>
-      <c r="F86" s="4">
-        <v>8.5</v>
+      <c r="F86" s="6">
+        <v>4.8</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H86" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s">
-        <v>184</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="6">
-        <v>6</v>
+        <v>9.9</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H87" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="2">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="4" t="s">
-        <v>219</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="6">
-        <v>5</v>
+        <v>9.9</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="H88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="2">
-        <v>18</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E89" s="2"/>
-      <c r="F89" s="4">
-        <v>7.9</v>
+      <c r="F89" s="6">
+        <v>8.9</v>
       </c>
       <c r="G89" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H89" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="2">
+        <v>109</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="6">
         <v>4</v>
       </c>
-      <c r="H89" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>132</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="9">
-        <v>16</v>
-      </c>
       <c r="G90" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="H90" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="2">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="4" t="s">
-        <v>200</v>
+      <c r="D91" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="6">
-        <v>12</v>
+        <v>8.9</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="H91" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="6">
-        <v>4.8</v>
+        <v>8.9</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="6">
@@ -3247,45 +3257,41 @@
         <v>48</v>
       </c>
       <c r="H93" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="2">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="6">
-        <v>9.9</v>
+        <v>7.99</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H94" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="2">
+        <v>105</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="C95" s="2"/>
-      <c r="D95" t="s">
-        <v>186</v>
-      </c>
+      <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="6">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>48</v>
@@ -3294,42 +3300,32 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="2">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s">
-        <v>187</v>
-      </c>
-      <c r="E96" s="2"/>
+        <v>115</v>
+      </c>
       <c r="F96" s="6">
-        <v>4</v>
+        <v>7.99</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="2">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E97" s="2"/>
+        <v>54</v>
+      </c>
       <c r="F97" s="6">
-        <v>8.9</v>
+        <v>5.6</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>48</v>
@@ -3338,58 +3334,48 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="2">
+        <v>111</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F98" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="G98" s="5"/>
+      <c r="H98" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="2">
+        <v>97</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H98" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>104</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="D99" t="s">
+        <v>177</v>
+      </c>
       <c r="F99" s="6">
-        <v>9.9</v>
+        <v>7.99</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H99" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+        <v>117</v>
+      </c>
       <c r="F100" s="6">
         <v>7.99</v>
       </c>
@@ -3397,21 +3383,18 @@
         <v>48</v>
       </c>
       <c r="H100" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+        <v>58</v>
+      </c>
       <c r="F101" s="6">
-        <v>9.9</v>
+        <v>7.99</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>48</v>
@@ -3420,12 +3403,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="F102" s="6">
         <v>7.99</v>
@@ -3437,15 +3420,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="2">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="F103" s="6">
-        <v>5.6</v>
+        <v>7.99</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>48</v>
@@ -3454,30 +3437,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="2">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F104" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="G104" s="5"/>
+        <v>7.99</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="H104" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D105" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="F105" s="6">
         <v>7.99</v>
@@ -3486,160 +3468,176 @@
         <v>48</v>
       </c>
       <c r="H105" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="2">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
+      </c>
+      <c r="D106" t="s">
+        <v>178</v>
       </c>
       <c r="F106" s="6">
-        <v>7.99</v>
+        <v>8.9</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H106" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="2">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="F107" s="6">
-        <v>7.99</v>
+        <v>9.9</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H107" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="D108" t="s">
+        <v>205</v>
       </c>
       <c r="F108" s="6">
-        <v>7.99</v>
+        <v>9.9</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H108" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="2">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D109" s="8"/>
       <c r="F109" s="6">
-        <v>7.99</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H109" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>60</v>
+        <v>108</v>
+      </c>
+      <c r="D110" t="s">
+        <v>225</v>
       </c>
       <c r="F110" s="6">
-        <v>7.99</v>
+        <v>14.9</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H110" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="2">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>61</v>
+        <v>144</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="F111" s="6">
-        <v>7.99</v>
+        <v>15</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H111" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="2">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D112" t="s">
-        <v>189</v>
+        <v>252</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="F112" s="6">
-        <v>8.9</v>
+        <v>11.5</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H112" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="F113" s="6">
         <v>9.9</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H113" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c r="D114" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F114" s="6">
-        <v>9.9</v>
+        <v>12.5</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>30</v>
@@ -3648,209 +3646,103 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D115" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="F115" s="6">
-        <v>19.899999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H115" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F116" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="2">
+        <v>93</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F117" s="6">
+        <v>135</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="2">
+        <v>112</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D118" t="s">
+        <v>179</v>
+      </c>
+      <c r="F118" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2">
         <v>113</v>
       </c>
-      <c r="D116" t="s">
-        <v>240</v>
-      </c>
-      <c r="F116" s="6">
-        <v>14.9</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H116" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>174</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F117" s="6">
-        <v>15</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>175</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="F118" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>77</v>
-      </c>
       <c r="B119" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>241</v>
+        <v>55</v>
+      </c>
+      <c r="D119" t="s">
+        <v>180</v>
       </c>
       <c r="F119" s="6">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H119" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>76</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D120" t="s">
-        <v>242</v>
-      </c>
-      <c r="F120" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H120" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>78</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F121" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H121" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>176</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="F122" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>93</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F123" s="6">
-        <v>135</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H123" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>112</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D124" t="s">
-        <v>190</v>
-      </c>
-      <c r="F124" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="G124" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>113</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D125" t="s">
-        <v>191</v>
-      </c>
-      <c r="F125" s="6">
-        <v>10.5</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H125">
-    <sortCondition ref="B2:B125"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H119">
+    <sortCondition ref="B2:B119"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinopc\Project\mn-transparency\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC449F9-C130-4FBF-BFC9-C72DC5618609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8BC5EE-16E8-492F-A339-886E8027D7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="254">
   <si>
     <t>Código</t>
   </si>
@@ -793,7 +793,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,23 +1226,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>120</v>
       </c>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>159</v>
       </c>
@@ -1304,12 +1304,10 @@
       <c r="F3" s="6">
         <v>15.9</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>150</v>
       </c>
@@ -1323,12 +1321,10 @@
       <c r="F4" s="6">
         <v>15.9</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>149</v>
       </c>
@@ -1343,12 +1339,12 @@
       <c r="F5" s="6">
         <v>15.9</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>78</v>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>151</v>
       </c>
@@ -1363,12 +1359,10 @@
       <c r="F6" s="6">
         <v>15.9</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>162</v>
       </c>
@@ -1385,12 +1379,10 @@
       <c r="F7" s="6">
         <v>15.9</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>180</v>
       </c>
@@ -1407,14 +1399,12 @@
       <c r="F8" s="6">
         <v>14.9</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>73</v>
       </c>
@@ -1436,7 +1426,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>64</v>
       </c>
@@ -1458,7 +1448,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>69</v>
       </c>
@@ -1480,7 +1470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>67</v>
       </c>
@@ -1502,7 +1492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>94</v>
       </c>
@@ -1524,7 +1514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>66</v>
       </c>
@@ -1546,7 +1536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>65</v>
       </c>
@@ -1568,7 +1558,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>72</v>
       </c>
@@ -1590,7 +1580,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>71</v>
       </c>
@@ -1612,7 +1602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>63</v>
       </c>
@@ -1634,7 +1624,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>70</v>
       </c>
@@ -1656,7 +1646,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>68</v>
       </c>
@@ -1678,7 +1668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>87</v>
       </c>
@@ -1700,7 +1690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>182</v>
       </c>
@@ -1715,14 +1705,12 @@
       <c r="F22" s="6">
         <v>12.9</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>81</v>
       </c>
@@ -1744,7 +1732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -1766,7 +1754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>121</v>
       </c>
@@ -1786,7 +1774,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>143</v>
       </c>
@@ -1806,7 +1794,7 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>83</v>
       </c>
@@ -1826,7 +1814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>123</v>
       </c>
@@ -1846,7 +1834,7 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>115</v>
       </c>
@@ -1866,7 +1854,7 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>130</v>
       </c>
@@ -1886,7 +1874,7 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1908,7 +1896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>90</v>
       </c>
@@ -1927,7 +1915,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>138</v>
       </c>
@@ -1947,7 +1935,7 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>20</v>
       </c>
@@ -1971,7 +1959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -1995,7 +1983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>86</v>
       </c>
@@ -2015,7 +2003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>92</v>
       </c>
@@ -2035,7 +2023,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>91</v>
       </c>
@@ -2055,7 +2043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>137</v>
       </c>
@@ -2075,7 +2063,7 @@
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2099,7 +2087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>42</v>
       </c>
@@ -2121,7 +2109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" customHeight="1">
+    <row r="42" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>126</v>
       </c>
@@ -2140,7 +2128,7 @@
       </c>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>133</v>
       </c>
@@ -2159,7 +2147,7 @@
       </c>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>84</v>
       </c>
@@ -2180,7 +2168,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>131</v>
       </c>
@@ -2199,7 +2187,7 @@
       </c>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -2223,7 +2211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>145</v>
       </c>
@@ -2240,14 +2228,14 @@
       <c r="F47" s="6">
         <v>15.9</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="5" t="s">
         <v>78</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>147</v>
       </c>
@@ -2264,14 +2252,12 @@
       <c r="F48" s="6">
         <v>15.9</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>134</v>
       </c>
@@ -2291,7 +2277,7 @@
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>153</v>
       </c>
@@ -2306,14 +2292,12 @@
       <c r="F50" s="6">
         <v>15.9</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>152</v>
       </c>
@@ -2328,14 +2312,12 @@
       <c r="F51" s="6">
         <v>15.9</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>135</v>
       </c>
@@ -2355,7 +2337,7 @@
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>154</v>
       </c>
@@ -2370,14 +2352,12 @@
       <c r="F53" s="6">
         <v>15.9</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>48</v>
       </c>
@@ -2399,7 +2379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>16</v>
       </c>
@@ -2423,7 +2403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>136</v>
       </c>
@@ -2443,7 +2423,7 @@
       </c>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>167</v>
       </c>
@@ -2460,14 +2440,12 @@
       <c r="F57" s="6">
         <v>15.9</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>11</v>
       </c>
@@ -2491,7 +2469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>12</v>
       </c>
@@ -2515,7 +2493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>9</v>
       </c>
@@ -2539,7 +2517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>10</v>
       </c>
@@ -2563,7 +2541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>7</v>
       </c>
@@ -2587,7 +2565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>8</v>
       </c>
@@ -2611,7 +2589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>6</v>
       </c>
@@ -2631,7 +2609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>155</v>
       </c>
@@ -2646,14 +2624,12 @@
       <c r="F65" s="6">
         <v>15.9</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>156</v>
       </c>
@@ -2668,14 +2644,12 @@
       <c r="F66" s="6">
         <v>15.9</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>50</v>
       </c>
@@ -2699,7 +2673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>22</v>
       </c>
@@ -2721,7 +2695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>23</v>
       </c>
@@ -2743,7 +2717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>15</v>
       </c>
@@ -2763,7 +2737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>14</v>
       </c>
@@ -2783,7 +2757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>13</v>
       </c>
@@ -2803,7 +2777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>52</v>
       </c>
@@ -2825,7 +2799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>88</v>
       </c>
@@ -2847,7 +2821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -2869,7 +2843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -2891,7 +2865,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>89</v>
       </c>
@@ -2913,7 +2887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>85</v>
       </c>
@@ -2935,7 +2909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>169</v>
       </c>
@@ -2959,7 +2933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>62</v>
       </c>
@@ -2983,7 +2957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>82</v>
       </c>
@@ -3005,7 +2979,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>173</v>
       </c>
@@ -3020,14 +2994,12 @@
       <c r="F82" s="6">
         <v>5</v>
       </c>
-      <c r="G82" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="G82" s="5"/>
       <c r="H82" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>18</v>
       </c>
@@ -3051,7 +3023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>132</v>
       </c>
@@ -3070,7 +3042,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>140</v>
       </c>
@@ -3089,7 +3061,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>114</v>
       </c>
@@ -3108,7 +3080,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>106</v>
       </c>
@@ -3130,7 +3102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>107</v>
       </c>
@@ -3152,7 +3124,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>119</v>
       </c>
@@ -3174,7 +3146,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>109</v>
       </c>
@@ -3196,7 +3168,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>118</v>
       </c>
@@ -3218,7 +3190,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>116</v>
       </c>
@@ -3240,7 +3212,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>104</v>
       </c>
@@ -3260,7 +3232,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>95</v>
       </c>
@@ -3280,7 +3252,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>105</v>
       </c>
@@ -3300,7 +3272,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>96</v>
       </c>
@@ -3317,7 +3289,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>110</v>
       </c>
@@ -3334,7 +3306,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>111</v>
       </c>
@@ -3349,7 +3321,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -3369,7 +3341,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -3386,7 +3358,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -3403,7 +3375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -3420,7 +3392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -3437,7 +3409,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -3454,7 +3426,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -3471,7 +3443,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>117</v>
       </c>
@@ -3491,7 +3463,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>108</v>
       </c>
@@ -3508,7 +3480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>79</v>
       </c>
@@ -3528,7 +3500,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>177</v>
       </c>
@@ -3546,7 +3518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>80</v>
       </c>
@@ -3566,7 +3538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>174</v>
       </c>
@@ -3586,7 +3558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>175</v>
       </c>
@@ -3606,7 +3578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>77</v>
       </c>
@@ -3626,7 +3598,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>76</v>
       </c>
@@ -3646,7 +3618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>78</v>
       </c>
@@ -3666,7 +3638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>176</v>
       </c>
@@ -3686,7 +3658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>93</v>
       </c>
@@ -3706,7 +3678,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>112</v>
       </c>
@@ -3723,7 +3695,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>113</v>
       </c>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8BC5EE-16E8-492F-A339-886E8027D7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB4A86C-CA67-4CB4-B110-39CD0AFF3628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
@@ -237,9 +237,6 @@
     <t xml:space="preserve">      16.50</t>
   </si>
   <si>
-    <t>Torta De Palmito</t>
-  </si>
-  <si>
     <t>Carne, Queijo</t>
   </si>
   <si>
@@ -459,9 +456,6 @@
     <t>Saladinha</t>
   </si>
   <si>
-    <t>Torta De Camarao</t>
-  </si>
-  <si>
     <t>Torta De Bacalhau</t>
   </si>
   <si>
@@ -787,6 +781,12 @@
   </si>
   <si>
     <t>Torta de Maca e Canela</t>
+  </si>
+  <si>
+    <t>Torta de Palmito</t>
+  </si>
+  <si>
+    <t>Torta de Camarao</t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,11 +1273,11 @@
         <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="9" t="s">
@@ -1293,13 +1293,13 @@
         <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F3" s="6">
         <v>15.9</v>
@@ -1312,11 +1312,11 @@
         <v>150</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F4" s="6">
         <v>15.9</v>
@@ -1329,18 +1329,18 @@
         <v>149</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="6">
         <v>15.9</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -1349,11 +1349,11 @@
         <v>151</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="6">
@@ -1367,13 +1367,13 @@
         <v>162</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="6">
@@ -1387,13 +1387,13 @@
         <v>180</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="6">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
@@ -1431,11 +1431,11 @@
         <v>64</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="6">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="6">
@@ -1475,11 +1475,11 @@
         <v>67</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="6">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="6">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="6">
@@ -1541,11 +1541,11 @@
         <v>65</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="6">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="6">
@@ -1585,11 +1585,11 @@
         <v>71</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="6">
@@ -1607,11 +1607,11 @@
         <v>63</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="6">
@@ -1629,11 +1629,11 @@
         <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="6">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="6">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="6">
@@ -1695,11 +1695,11 @@
         <v>182</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="6">
@@ -1715,11 +1715,11 @@
         <v>81</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="6">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="4">
@@ -1759,11 +1759,11 @@
         <v>121</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="9" t="s">
@@ -1779,11 +1779,11 @@
         <v>143</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="6">
@@ -1799,7 +1799,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1819,11 +1819,11 @@
         <v>123</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="9">
@@ -1839,11 +1839,11 @@
         <v>115</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="6">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="9">
@@ -1879,11 +1879,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="4">
@@ -1920,11 +1920,11 @@
         <v>138</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="6">
@@ -1943,10 +1943,10 @@
         <v>14</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="4">
@@ -1964,13 +1964,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="4">
@@ -2048,11 +2048,11 @@
         <v>137</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="6">
@@ -2074,7 +2074,7 @@
         <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="4">
@@ -2095,7 +2095,7 @@
         <v>21</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2114,10 +2114,10 @@
         <v>126</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="9">
@@ -2133,10 +2133,10 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="9" t="s">
@@ -2152,10 +2152,10 @@
         <v>84</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="6">
@@ -2173,10 +2173,10 @@
         <v>131</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="9">
@@ -2198,7 +2198,7 @@
         <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="4">
@@ -2216,20 +2216,20 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="6">
         <v>15.9</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>7</v>
@@ -2240,13 +2240,13 @@
         <v>147</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="6">
@@ -2262,11 +2262,11 @@
         <v>134</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="9">
@@ -2282,11 +2282,11 @@
         <v>153</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="6">
@@ -2302,11 +2302,11 @@
         <v>152</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="6">
@@ -2322,11 +2322,11 @@
         <v>135</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="9">
@@ -2342,11 +2342,11 @@
         <v>154</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="6">
@@ -2362,11 +2362,11 @@
         <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="4">
@@ -2384,13 +2384,13 @@
         <v>16</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="4">
@@ -2408,11 +2408,11 @@
         <v>136</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="9">
@@ -2428,13 +2428,13 @@
         <v>167</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="6">
@@ -2450,13 +2450,13 @@
         <v>11</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="4">
@@ -2474,13 +2474,13 @@
         <v>12</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="4">
@@ -2498,13 +2498,13 @@
         <v>9</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="4">
@@ -2522,13 +2522,13 @@
         <v>10</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="4">
@@ -2546,13 +2546,13 @@
         <v>7</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="4">
@@ -2570,13 +2570,13 @@
         <v>8</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="4">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2614,11 +2614,11 @@
         <v>155</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="6">
@@ -2634,10 +2634,10 @@
         <v>156</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="2"/>
@@ -2654,13 +2654,13 @@
         <v>50</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="4">
@@ -2722,7 +2722,7 @@
         <v>15</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2742,7 +2742,7 @@
         <v>14</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2762,7 +2762,7 @@
         <v>13</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2804,10 +2804,10 @@
         <v>88</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2826,10 +2826,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2848,10 +2848,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="6">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="6">
@@ -2914,13 +2914,13 @@
         <v>169</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D79" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="6">
@@ -2941,10 +2941,10 @@
         <v>27</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D80" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4">
@@ -2962,11 +2962,11 @@
         <v>82</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="6">
@@ -2984,11 +2984,11 @@
         <v>173</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="6">
@@ -3010,7 +3010,7 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="9">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="6">
@@ -3066,11 +3066,11 @@
         <v>114</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="6">
@@ -3085,7 +3085,7 @@
         <v>106</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>57</v>
@@ -3107,7 +3107,7 @@
         <v>107</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>57</v>
@@ -3129,11 +3129,11 @@
         <v>119</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="6">
@@ -3151,11 +3151,11 @@
         <v>109</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="6">
@@ -3173,11 +3173,11 @@
         <v>118</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="6">
@@ -3195,11 +3195,11 @@
         <v>116</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="6">
@@ -3237,7 +3237,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3257,7 +3257,7 @@
         <v>105</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -3277,7 +3277,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F96" s="6">
         <v>7.99</v>
@@ -3326,10 +3326,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D99" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F99" s="6">
         <v>7.99</v>
@@ -3346,7 +3346,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F100" s="6">
         <v>7.99</v>
@@ -3397,7 +3397,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F103" s="6">
         <v>7.99</v>
@@ -3448,10 +3448,10 @@
         <v>117</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D106" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F106" s="6">
         <v>8.9</v>
@@ -3468,7 +3468,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F107" s="6">
         <v>9.9</v>
@@ -3488,7 +3488,7 @@
         <v>39</v>
       </c>
       <c r="D108" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F108" s="6">
         <v>9.9</v>
@@ -3505,14 +3505,14 @@
         <v>177</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D109" s="8"/>
       <c r="F109" s="6">
         <v>19.899999999999999</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>7</v>
@@ -3523,10 +3523,10 @@
         <v>80</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D110" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F110" s="6">
         <v>14.9</v>
@@ -3543,16 +3543,16 @@
         <v>174</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F111" s="6">
         <v>15</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>7</v>
@@ -3563,16 +3563,16 @@
         <v>175</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F112" s="6">
         <v>11.5</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>7</v>
@@ -3583,10 +3583,10 @@
         <v>77</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F113" s="6">
         <v>9.9</v>
@@ -3603,10 +3603,10 @@
         <v>76</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D114" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F114" s="6">
         <v>12.5</v>
@@ -3623,10 +3623,10 @@
         <v>78</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F115" s="6">
         <v>9.9</v>
@@ -3643,16 +3643,16 @@
         <v>176</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>70</v>
+        <v>252</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F116" s="6">
         <v>11.5</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>7</v>
@@ -3666,7 +3666,7 @@
         <v>46</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" s="6">
         <v>135</v>
@@ -3686,7 +3686,7 @@
         <v>56</v>
       </c>
       <c r="D118" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F118" s="6">
         <v>8.9</v>
@@ -3703,7 +3703,7 @@
         <v>55</v>
       </c>
       <c r="D119" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F119" s="6">
         <v>10.5</v>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB4A86C-CA67-4CB4-B110-39CD0AFF3628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3062E405-3830-4DB6-B77B-765B639B07BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3062E405-3830-4DB6-B77B-765B639B07BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC870A72-A8A9-44D8-AF64-5B0BA1849F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="254">
   <si>
     <t>Código</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Torta de Ameixa</t>
   </si>
   <si>
-    <t>Delicia dee Banana</t>
-  </si>
-  <si>
     <t>Bolo Recheado MN MIx</t>
   </si>
   <si>
@@ -159,12 +156,6 @@
     <t>Cheesecake</t>
   </si>
   <si>
-    <t>Doce Prestígio Zero Açucar</t>
-  </si>
-  <si>
-    <t>Doce Frutas Vermelhas Zero Açucar</t>
-  </si>
-  <si>
     <t>Torta Inteira de Maçã</t>
   </si>
   <si>
@@ -787,6 +778,15 @@
   </si>
   <si>
     <t>Torta de Camarao</t>
+  </si>
+  <si>
+    <t>Doce de Frutas Vermelhas</t>
+  </si>
+  <si>
+    <t>Doce Prestigio</t>
+  </si>
+  <si>
+    <t>Delicia de Banana</t>
   </si>
 </sst>
 </file>
@@ -1226,15 +1226,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
@@ -1273,18 +1273,18 @@
         <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -1293,18 +1293,20 @@
         <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F3" s="6">
         <v>15.9</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1312,16 +1314,18 @@
         <v>150</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F4" s="6">
         <v>15.9</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1329,18 +1333,18 @@
         <v>149</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="6">
         <v>15.9</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -1349,17 +1353,19 @@
         <v>151</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="6">
         <v>15.9</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1367,19 +1373,21 @@
         <v>162</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="6">
         <v>15.9</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1387,19 +1395,21 @@
         <v>180</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="6">
         <v>14.9</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1413,7 +1423,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
@@ -1431,11 +1441,11 @@
         <v>64</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="6">
@@ -1457,7 +1467,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="6">
@@ -1475,11 +1485,11 @@
         <v>67</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="6">
@@ -1497,11 +1507,11 @@
         <v>94</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="6">
@@ -1523,7 +1533,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="6">
@@ -1541,11 +1551,11 @@
         <v>65</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="6">
@@ -1567,7 +1577,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="6">
@@ -1585,11 +1595,11 @@
         <v>71</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="6">
@@ -1607,11 +1617,11 @@
         <v>63</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="6">
@@ -1629,11 +1639,11 @@
         <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="6">
@@ -1655,7 +1665,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="6">
@@ -1673,11 +1683,11 @@
         <v>87</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="6">
@@ -1695,11 +1705,11 @@
         <v>182</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="6">
@@ -1715,11 +1725,11 @@
         <v>81</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="6">
@@ -1741,7 +1751,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="4">
@@ -1759,18 +1769,18 @@
         <v>121</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -1779,18 +1789,18 @@
         <v>143</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="6">
         <v>3.3</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -1799,7 +1809,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1807,9 +1817,7 @@
       <c r="F27" s="6">
         <v>7.5</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1819,18 +1827,18 @@
         <v>123</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="9">
         <v>10.9</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -1839,18 +1847,18 @@
         <v>115</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="6">
         <v>2.5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -1859,18 +1867,18 @@
         <v>130</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="9">
         <v>12.9</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -1879,11 +1887,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="4">
@@ -1901,7 +1909,7 @@
         <v>90</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2"/>
       <c r="E32" s="2"/>
@@ -1920,18 +1928,18 @@
         <v>138</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="6">
         <v>13.9</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -1943,10 +1951,10 @@
         <v>14</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="4">
@@ -1964,13 +1972,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="4">
@@ -1988,7 +1996,7 @@
         <v>86</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2008,7 +2016,7 @@
         <v>92</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>45</v>
+        <v>251</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2028,7 +2036,7 @@
         <v>91</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2048,18 +2056,18 @@
         <v>137</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="6">
         <v>6.99</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -2074,7 +2082,7 @@
         <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="4">
@@ -2095,7 +2103,7 @@
         <v>21</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2114,17 +2122,17 @@
         <v>126</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="9">
         <v>10.9</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -2133,17 +2141,17 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -2152,10 +2160,10 @@
         <v>84</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="6">
@@ -2173,17 +2181,17 @@
         <v>131</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="9">
         <v>12.5</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -2198,7 +2206,7 @@
         <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="4">
@@ -2216,20 +2224,20 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="6">
         <v>15.9</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>7</v>
@@ -2240,19 +2248,21 @@
         <v>147</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="6">
         <v>15.9</v>
       </c>
-      <c r="G48" s="2"/>
+      <c r="G48" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="H48" s="2" t="s">
         <v>7</v>
       </c>
@@ -2262,18 +2272,18 @@
         <v>134</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="9">
         <v>7.9</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -2282,17 +2292,19 @@
         <v>153</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="6">
         <v>15.9</v>
       </c>
-      <c r="G50" s="2"/>
+      <c r="G50" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="H50" s="2" t="s">
         <v>7</v>
       </c>
@@ -2302,17 +2314,19 @@
         <v>152</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="6">
         <v>15.9</v>
       </c>
-      <c r="G51" s="2"/>
+      <c r="G51" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="H51" s="2" t="s">
         <v>7</v>
       </c>
@@ -2322,18 +2336,18 @@
         <v>135</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="9">
         <v>7.9</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -2342,17 +2356,19 @@
         <v>154</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="6">
         <v>15.9</v>
       </c>
-      <c r="G53" s="2"/>
+      <c r="G53" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="H53" s="2" t="s">
         <v>7</v>
       </c>
@@ -2362,11 +2378,11 @@
         <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="4">
@@ -2384,13 +2400,13 @@
         <v>16</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="4">
@@ -2408,18 +2424,18 @@
         <v>136</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="9">
         <v>12.9</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -2428,19 +2444,21 @@
         <v>167</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="6">
         <v>15.9</v>
       </c>
-      <c r="G57" s="2"/>
+      <c r="G57" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="H57" s="2" t="s">
         <v>7</v>
       </c>
@@ -2450,13 +2468,13 @@
         <v>11</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="4">
@@ -2474,13 +2492,13 @@
         <v>12</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="4">
@@ -2498,13 +2516,13 @@
         <v>9</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="4">
@@ -2522,13 +2540,13 @@
         <v>10</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="4">
@@ -2546,13 +2564,13 @@
         <v>7</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="4">
@@ -2570,13 +2588,13 @@
         <v>8</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="4">
@@ -2594,7 +2612,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2614,11 +2632,11 @@
         <v>155</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="6">
@@ -2634,10 +2652,10 @@
         <v>156</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="2"/>
@@ -2654,13 +2672,13 @@
         <v>50</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="4">
@@ -2722,7 +2740,7 @@
         <v>15</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2742,7 +2760,7 @@
         <v>14</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2762,7 +2780,7 @@
         <v>13</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2804,10 +2822,10 @@
         <v>88</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2826,10 +2844,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2848,10 +2866,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2870,11 +2888,11 @@
         <v>89</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="6">
@@ -2896,7 +2914,7 @@
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="6">
@@ -2914,13 +2932,13 @@
         <v>169</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D79" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="6">
@@ -2941,10 +2959,10 @@
         <v>27</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D80" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4">
@@ -2962,11 +2980,11 @@
         <v>82</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="6">
@@ -2984,17 +3002,19 @@
         <v>173</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="6">
         <v>5</v>
       </c>
-      <c r="G82" s="5"/>
+      <c r="G82" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="H82" s="2" t="s">
         <v>7</v>
       </c>
@@ -3010,7 +3030,7 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4">
@@ -3028,18 +3048,18 @@
         <v>132</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="9">
         <v>16</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3047,18 +3067,18 @@
         <v>140</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="6">
         <v>12</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3066,18 +3086,18 @@
         <v>114</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="6">
         <v>4.8</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3085,10 +3105,10 @@
         <v>106</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3096,10 +3116,10 @@
         <v>9.9</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H87" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3107,10 +3127,10 @@
         <v>107</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3118,10 +3138,10 @@
         <v>9.9</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H88" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3129,21 +3149,21 @@
         <v>119</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="6">
         <v>8.9</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H89" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3151,21 +3171,21 @@
         <v>109</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="6">
         <v>4</v>
       </c>
       <c r="G90" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
         <v>48</v>
-      </c>
-      <c r="H90" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3173,21 +3193,21 @@
         <v>118</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="6">
         <v>8.9</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H91" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3195,21 +3215,21 @@
         <v>116</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="6">
         <v>8.9</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H92" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3217,7 +3237,7 @@
         <v>104</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3226,10 +3246,10 @@
         <v>9.9</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H93" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3237,7 +3257,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3246,10 +3266,10 @@
         <v>7.99</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H94" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3257,7 +3277,7 @@
         <v>105</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -3266,10 +3286,10 @@
         <v>9.9</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H95" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3277,16 +3297,16 @@
         <v>96</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F96" s="6">
         <v>7.99</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H96" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3294,16 +3314,16 @@
         <v>110</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F97" s="6">
         <v>5.6</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H97" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3311,14 +3331,14 @@
         <v>111</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F98" s="6">
         <v>2.5</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3326,19 +3346,19 @@
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F99" s="6">
         <v>7.99</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H99" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3346,16 +3366,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F100" s="6">
         <v>7.99</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H100" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3363,16 +3383,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F101" s="6">
         <v>7.99</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H101" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3380,16 +3400,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F102" s="6">
         <v>7.99</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H102" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3397,16 +3417,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F103" s="6">
         <v>7.99</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H103" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3414,16 +3434,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F104" s="6">
         <v>7.99</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H104" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3431,16 +3451,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F105" s="6">
         <v>7.99</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H105" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3448,19 +3468,19 @@
         <v>117</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D106" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F106" s="6">
         <v>8.9</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H106" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3468,16 +3488,16 @@
         <v>108</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F107" s="6">
         <v>9.9</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H107" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3488,7 +3508,7 @@
         <v>39</v>
       </c>
       <c r="D108" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F108" s="6">
         <v>9.9</v>
@@ -3505,14 +3525,14 @@
         <v>177</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D109" s="8"/>
       <c r="F109" s="6">
         <v>19.899999999999999</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>7</v>
@@ -3523,10 +3543,10 @@
         <v>80</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D110" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F110" s="6">
         <v>14.9</v>
@@ -3543,16 +3563,16 @@
         <v>174</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F111" s="6">
         <v>15</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>7</v>
@@ -3563,16 +3583,16 @@
         <v>175</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F112" s="6">
         <v>11.5</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>7</v>
@@ -3583,10 +3603,10 @@
         <v>77</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F113" s="6">
         <v>9.9</v>
@@ -3603,10 +3623,10 @@
         <v>76</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F114" s="6">
         <v>12.5</v>
@@ -3623,10 +3643,10 @@
         <v>78</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F115" s="6">
         <v>9.9</v>
@@ -3643,16 +3663,16 @@
         <v>176</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F116" s="6">
         <v>11.5</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>7</v>
@@ -3663,10 +3683,10 @@
         <v>93</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F117" s="6">
         <v>135</v>
@@ -3683,16 +3703,16 @@
         <v>112</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D118" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F118" s="6">
         <v>8.9</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -3700,16 +3720,16 @@
         <v>113</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D119" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F119" s="6">
         <v>10.5</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC870A72-A8A9-44D8-AF64-5B0BA1849F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04616E42-D483-4D11-9CA7-16F3EED372B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="239">
   <si>
     <t>Código</t>
   </si>
@@ -174,15 +174,6 @@
     <t>200 ml</t>
   </si>
   <si>
-    <t>500ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300 ml </t>
-  </si>
-  <si>
-    <t>Suco Natural de Guarana</t>
-  </si>
-  <si>
     <t>Vitamina de 3 Frutas</t>
   </si>
   <si>
@@ -192,21 +183,6 @@
     <t>Frutas a Escolher</t>
   </si>
   <si>
-    <t>Suco Natural de Mamao</t>
-  </si>
-  <si>
-    <t>Suco Natural Manga</t>
-  </si>
-  <si>
-    <t>Suco Natural Melao</t>
-  </si>
-  <si>
-    <t>Suco Natural Morango</t>
-  </si>
-  <si>
-    <t>Suco Natural Amora</t>
-  </si>
-  <si>
     <t>Chai Latte</t>
   </si>
   <si>
@@ -327,9 +303,6 @@
     <t>Bolo Indiano</t>
   </si>
   <si>
-    <t>Pavê de Amendoim</t>
-  </si>
-  <si>
     <t>Pave de Nozes</t>
   </si>
   <si>
@@ -357,33 +330,6 @@
     <t>Pave de Abacaxi</t>
   </si>
   <si>
-    <t>Suco Natural de Abacaxi</t>
-  </si>
-  <si>
-    <t>Suco Natural de Acerola</t>
-  </si>
-  <si>
-    <t>Suco Natural de Laranja</t>
-  </si>
-  <si>
-    <t>Suco Natural de Limao</t>
-  </si>
-  <si>
-    <t>Suco Natural Maracuja</t>
-  </si>
-  <si>
-    <t>Suco Natural de Abacaxi c/Hortela</t>
-  </si>
-  <si>
-    <t>Suco 2 Frutas</t>
-  </si>
-  <si>
-    <t>Suco 3 Frutas</t>
-  </si>
-  <si>
-    <t>Suco Super Verde Detox + Frutas</t>
-  </si>
-  <si>
     <t>Suco Detox Verde</t>
   </si>
   <si>
@@ -543,9 +489,6 @@
     <t>Combinação potente de folhas verdes, maçã e limão, rica em clorofila, enzimas e antioxidantes que auxiliam nos processos naturais de desintoxicação do organismo.</t>
   </si>
   <si>
-    <t>Preparado na hora, preservando vitamina C e flavonoides cítricos essenciais para o sistema imunológico. Sem adição de açúcar, conservantes ou corantes.</t>
-  </si>
-  <si>
     <t>Combinação estratégica de frutas ricas em vitamina C e zinco, nutrientes essenciais para o fortalecimento do sistema imunológico. Preparado na hora para máxima preservação nutricional.</t>
   </si>
   <si>
@@ -787,6 +730,18 @@
   </si>
   <si>
     <t>Delicia de Banana</t>
+  </si>
+  <si>
+    <t>Pave de Amendoim</t>
+  </si>
+  <si>
+    <t>Suco Natural</t>
+  </si>
+  <si>
+    <t>Suco Natural com 2 Frutas</t>
+  </si>
+  <si>
+    <t>Suco Natural com 3 Frutas</t>
   </si>
 </sst>
 </file>
@@ -1224,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105:G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,18 +1228,18 @@
         <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -1293,19 +1248,19 @@
         <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F3" s="6">
         <v>15.9</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -1314,17 +1269,17 @@
         <v>150</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="F4" s="6">
         <v>15.9</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1333,18 +1288,18 @@
         <v>149</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="6">
         <v>15.9</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -1353,18 +1308,18 @@
         <v>151</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="6">
         <v>15.9</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -1373,20 +1328,20 @@
         <v>162</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="6">
         <v>15.9</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -1395,20 +1350,20 @@
         <v>180</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="6">
         <v>14.9</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>7</v>
@@ -1423,7 +1378,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="8" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
@@ -1441,11 +1396,11 @@
         <v>64</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="6">
@@ -1467,7 +1422,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="8" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="6">
@@ -1485,11 +1440,11 @@
         <v>67</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="6">
@@ -1511,7 +1466,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="6">
@@ -1533,7 +1488,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="6">
@@ -1551,11 +1506,11 @@
         <v>65</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="6">
@@ -1577,7 +1532,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="6">
@@ -1595,11 +1550,11 @@
         <v>71</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="6">
@@ -1617,11 +1572,11 @@
         <v>63</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="6">
@@ -1639,11 +1594,11 @@
         <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="6">
@@ -1665,7 +1620,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="6">
@@ -1687,7 +1642,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="6">
@@ -1705,11 +1660,11 @@
         <v>182</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="6">
@@ -1725,11 +1680,11 @@
         <v>81</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="6">
@@ -1751,7 +1706,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="4">
@@ -1769,18 +1724,18 @@
         <v>121</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -1789,18 +1744,18 @@
         <v>143</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="4" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="6">
         <v>3.3</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -1809,7 +1764,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1827,18 +1782,18 @@
         <v>123</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="9">
         <v>10.9</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -1847,18 +1802,18 @@
         <v>115</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="6">
         <v>2.5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -1867,18 +1822,18 @@
         <v>130</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="9">
         <v>12.9</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -1887,11 +1842,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="4">
@@ -1928,18 +1883,18 @@
         <v>138</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="6">
         <v>13.9</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -1951,10 +1906,10 @@
         <v>14</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="4">
@@ -1972,13 +1927,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="4">
@@ -1996,7 +1951,7 @@
         <v>86</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2016,7 +1971,7 @@
         <v>92</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2036,7 +1991,7 @@
         <v>91</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2056,18 +2011,18 @@
         <v>137</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="4" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="6">
         <v>6.99</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -2082,7 +2037,7 @@
         <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="4">
@@ -2103,7 +2058,7 @@
         <v>21</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2122,17 +2077,17 @@
         <v>126</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="9">
         <v>10.9</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -2141,17 +2096,17 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -2160,10 +2115,10 @@
         <v>84</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="6">
@@ -2181,17 +2136,17 @@
         <v>131</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="9">
         <v>12.5</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -2206,7 +2161,7 @@
         <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="4">
@@ -2224,20 +2179,20 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="6">
         <v>15.9</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>7</v>
@@ -2248,20 +2203,20 @@
         <v>147</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="6">
         <v>15.9</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>7</v>
@@ -2272,18 +2227,18 @@
         <v>134</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="4" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="9">
         <v>7.9</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -2292,18 +2247,18 @@
         <v>153</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="4" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="6">
         <v>15.9</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>7</v>
@@ -2314,18 +2269,18 @@
         <v>152</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="4" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="6">
         <v>15.9</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>7</v>
@@ -2336,18 +2291,18 @@
         <v>135</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="4" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="9">
         <v>7.9</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -2356,18 +2311,18 @@
         <v>154</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="6">
         <v>15.9</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>7</v>
@@ -2378,11 +2333,11 @@
         <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="4">
@@ -2400,13 +2355,13 @@
         <v>16</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="4">
@@ -2424,18 +2379,18 @@
         <v>136</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="4" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="9">
         <v>12.9</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -2444,20 +2399,20 @@
         <v>167</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="6">
         <v>15.9</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>7</v>
@@ -2468,13 +2423,13 @@
         <v>11</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="4">
@@ -2492,13 +2447,13 @@
         <v>12</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="4">
@@ -2516,13 +2471,13 @@
         <v>9</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="4">
@@ -2540,13 +2495,13 @@
         <v>10</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="4">
@@ -2564,13 +2519,13 @@
         <v>7</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="4">
@@ -2588,13 +2543,13 @@
         <v>8</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="4">
@@ -2612,7 +2567,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2632,11 +2587,11 @@
         <v>155</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="4" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="6">
@@ -2652,10 +2607,10 @@
         <v>156</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="2"/>
@@ -2672,13 +2627,13 @@
         <v>50</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="4">
@@ -2740,7 +2695,7 @@
         <v>15</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2760,7 +2715,7 @@
         <v>14</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2780,7 +2735,7 @@
         <v>13</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2822,10 +2777,10 @@
         <v>88</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2844,10 +2799,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2866,10 +2821,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2892,7 +2847,7 @@
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="6">
@@ -2914,7 +2869,7 @@
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="6">
@@ -2932,13 +2887,13 @@
         <v>169</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="D79" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="6">
@@ -2959,10 +2914,10 @@
         <v>27</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D80" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4">
@@ -2980,11 +2935,11 @@
         <v>82</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="6">
@@ -3002,18 +2957,18 @@
         <v>173</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="4" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="6">
         <v>5</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>7</v>
@@ -3030,7 +2985,7 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="4">
@@ -3048,18 +3003,18 @@
         <v>132</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="4" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="9">
         <v>16</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3067,18 +3022,18 @@
         <v>140</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="4" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="6">
         <v>12</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3086,51 +3041,44 @@
         <v>114</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="6">
         <v>4.8</v>
       </c>
-      <c r="G86" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="G86" s="5"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="6">
-        <v>9.9</v>
-      </c>
+      <c r="F87" s="6"/>
       <c r="G87" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H87" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3146,80 +3094,80 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s">
-        <v>170</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="6">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>45</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="6">
-        <v>4</v>
+        <v>8.9</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>45</v>
       </c>
       <c r="H90" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="2" t="s">
-        <v>187</v>
+      <c r="D91" t="s">
+        <v>153</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="6">
-        <v>8.9</v>
+        <v>4</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>45</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="6">
@@ -3234,16 +3182,18 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="E93" s="2"/>
       <c r="F93" s="6">
-        <v>9.9</v>
+        <v>8.9</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>45</v>
@@ -3254,16 +3204,16 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="D94" t="s">
+        <v>154</v>
+      </c>
       <c r="F94" s="6">
-        <v>7.99</v>
+        <v>8.9</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>45</v>
@@ -3274,467 +3224,235 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D95" t="s">
+        <v>181</v>
+      </c>
       <c r="F95" s="6">
         <v>9.9</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>111</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D96" s="8"/>
       <c r="F96" s="6">
-        <v>7.99</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H96" t="s">
-        <v>46</v>
+        <v>66</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>51</v>
+        <v>95</v>
+      </c>
+      <c r="D97" t="s">
+        <v>201</v>
       </c>
       <c r="F97" s="6">
-        <v>5.6</v>
+        <v>14.9</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>51</v>
+        <v>231</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="F98" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="G98" s="5"/>
-      <c r="H98" t="s">
-        <v>48</v>
+        <v>15</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D99" t="s">
-        <v>172</v>
+        <v>228</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="F99" s="6">
-        <v>7.99</v>
+        <v>11.5</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H99" t="s">
-        <v>47</v>
+        <v>66</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>113</v>
+        <v>93</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="F100" s="6">
-        <v>7.99</v>
+        <v>9.9</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H100" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>55</v>
+        <v>229</v>
+      </c>
+      <c r="D101" t="s">
+        <v>203</v>
       </c>
       <c r="F101" s="6">
-        <v>7.99</v>
+        <v>12.5</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>56</v>
+        <v>94</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="F102" s="6">
-        <v>7.99</v>
+        <v>9.9</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>114</v>
+        <v>230</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="F103" s="6">
-        <v>7.99</v>
+        <v>11.5</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H103" t="s">
-        <v>46</v>
+        <v>66</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="F104" s="6">
-        <v>7.99</v>
+        <v>135</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H104" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="D105" t="s">
+        <v>155</v>
       </c>
       <c r="F105" s="6">
-        <v>7.99</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H105" t="s">
-        <v>46</v>
-      </c>
+        <v>8.9</v>
+      </c>
+      <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="D106" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F106" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H106" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>108</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F107" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H107" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>79</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D108" t="s">
-        <v>200</v>
-      </c>
-      <c r="F108" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H108" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>177</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D109" s="8"/>
-      <c r="F109" s="6">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>80</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D110" t="s">
-        <v>220</v>
-      </c>
-      <c r="F110" s="6">
-        <v>14.9</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H110" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>174</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F111" s="6">
-        <v>15</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>175</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F112" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>77</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F113" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H113" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>76</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D114" t="s">
-        <v>222</v>
-      </c>
-      <c r="F114" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H114" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>78</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="F115" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H115" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>176</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F116" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>93</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F117" s="6">
-        <v>135</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H117" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>112</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D118" t="s">
-        <v>174</v>
-      </c>
-      <c r="F118" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>113</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D119" t="s">
-        <v>175</v>
-      </c>
-      <c r="F119" s="6">
         <v>10.5</v>
       </c>
-      <c r="G119" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="G106" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H119">
-    <sortCondition ref="B2:B119"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H106">
+    <sortCondition ref="B2:B106"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04616E42-D483-4D11-9CA7-16F3EED372B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0029854E-0062-49F3-BBCC-71A1E8368175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105:G106"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cardapiodata.xlsx
+++ b/cardapiodata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0029854E-0062-49F3-BBCC-71A1E8368175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B10C97B-7D30-4291-B906-3B2F4121B48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{92F38698-8C92-4FAD-975C-8E92F285CBE1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="205">
   <si>
     <t>Código</t>
   </si>
@@ -63,21 +63,12 @@
     <t>Frango, Peito de Peru</t>
   </si>
   <si>
-    <t>Omeletes e Crepicoas</t>
-  </si>
-  <si>
-    <t>Pão de Queijo</t>
-  </si>
-  <si>
     <t>Coxinha</t>
   </si>
   <si>
     <t>Cachorro Quente</t>
   </si>
   <si>
-    <t>Frango, Requeijão, Carne Seca, Goiabada</t>
-  </si>
-  <si>
     <t>Pao De Queijo</t>
   </si>
   <si>
@@ -126,9 +117,6 @@
     <t>1 Pote</t>
   </si>
   <si>
-    <t>Sobremesa Inteira</t>
-  </si>
-  <si>
     <t>Pudim</t>
   </si>
   <si>
@@ -147,21 +135,12 @@
     <t>Torta de Ameixa</t>
   </si>
   <si>
-    <t>Bolo Recheado MN MIx</t>
-  </si>
-  <si>
     <t>Pote da Felicidade</t>
   </si>
   <si>
     <t>Cheesecake</t>
   </si>
   <si>
-    <t>Torta Inteira de Maçã</t>
-  </si>
-  <si>
-    <t>Bolo de Festa</t>
-  </si>
-  <si>
     <t>Sucos Naturais</t>
   </si>
   <si>
@@ -174,24 +153,12 @@
     <t>200 ml</t>
   </si>
   <si>
-    <t>Vitamina de 3 Frutas</t>
-  </si>
-  <si>
-    <t>Vitamina de 2 Frutas</t>
-  </si>
-  <si>
     <t>Frutas a Escolher</t>
   </si>
   <si>
     <t>Chai Latte</t>
   </si>
   <si>
-    <t>Smoothie</t>
-  </si>
-  <si>
-    <t>Soda Italiana</t>
-  </si>
-  <si>
     <t>Cafés &amp; Chocolates</t>
   </si>
   <si>
@@ -228,57 +195,15 @@
     <t>Refeições</t>
   </si>
   <si>
-    <t>Omeletes | Crepiocas Queijo</t>
-  </si>
-  <si>
-    <t>Omeletes | Crepiocas Mista</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (Pre+Mussa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (Pre+Q.Minas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Minas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mussarela</t>
-  </si>
-  <si>
     <t>Omeletes | Crepiocas</t>
   </si>
   <si>
     <t xml:space="preserve"> Frango +Requeijão</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Fra+Tom Seco+Req)       </t>
-  </si>
-  <si>
-    <t>Nossa Crepioca de Queijo Mussarela combina a cremosidade e o sabor irresistível do queijo com a leveza da massa, oferecendo uma opção deliciosa para qualquer momento.</t>
-  </si>
-  <si>
-    <t>Nossa Crepioca de Queijo Minas traz o autêntico sabor desse queijo tradicional, garantindo uma experiência leve, nutritiva e cheia de qualidade.</t>
-  </si>
-  <si>
-    <t>Nossa Crepioca Mista de Presunto e Mussarela combina o sabor marcante do presunto com a suavidade da mussarela, proporcionando uma refeição equilibrada e deliciosa.</t>
-  </si>
-  <si>
-    <t>Nossa Crepioca Mista de Presunto e Queijo Minas é a escolha perfeita para quem deseja um toque especial de sabor e textura, unindo ingredientes de qualidade.</t>
-  </si>
-  <si>
     <t>Nossa Crepioca de Frango e Requeijão traz o sabor suculento do frango desfiado combinado com a cremosidade do requeijão, criando uma experiência irresistível.</t>
   </si>
   <si>
-    <t>Nossa Crepioca Especial é preparada com uma seleção única de ingredientes, oferecendo um sabor incomparável e uma experiência diferenciada para quem busca algo especial.</t>
-  </si>
-  <si>
-    <t>Omeletes | Crepiocas Simples</t>
-  </si>
-  <si>
-    <t>Omeletes | Crepiocas Especial</t>
-  </si>
-  <si>
     <t>Croissant</t>
   </si>
   <si>
@@ -315,9 +240,6 @@
     <t>Torta de Banoffe</t>
   </si>
   <si>
-    <t>Broa c/Goiabada</t>
-  </si>
-  <si>
     <t>Salada De Frutas</t>
   </si>
   <si>
@@ -333,9 +255,6 @@
     <t>Suco Detox Verde</t>
   </si>
   <si>
-    <t>Suchá</t>
-  </si>
-  <si>
     <t>Suco Energizante</t>
   </si>
   <si>
@@ -495,9 +414,6 @@
     <t>Blend nutritivo de frutas frescas com leite (opcional vegetal), oferecendo proteínas, cálcio e vitaminas essenciais. Uma opção completa para reposição energética e nutricional.</t>
   </si>
   <si>
-    <t>Blend nutritivo de três frutas selecionadas com leite (opcional vegetal), rico em antioxidantes, fibras e nutrientes essenciais. Uma combinação balanceada para máximo benefício nutricional.</t>
-  </si>
-  <si>
     <t>Combinação harmoniosa do nosso café premium com leite parcialmente desnatado, oferecendo uma opção mais leve e cremosa. Rica em antioxidantes e cálcio, uma escolha equilibrada para seu dia.</t>
   </si>
   <si>
@@ -519,18 +435,9 @@
     <t>Fusão harmoniosa de chocolate e café espresso com leite parcialmente desnatado, oferecendo flavonoides do cacau e antioxidantes do café. Uma opção reconfortante com benefícios cognitivos.</t>
   </si>
   <si>
-    <t>Blend refrescante de frutas frescas, iogurte natural e gelo, sem adição de açúcares ou conservantes. Rico em vitaminas, minerais, antioxidantes e probióticos naturais, uma opção nutritiva e refrescante.</t>
-  </si>
-  <si>
-    <t>Bebida refrescante preparada com xarope natural de frutas e água com gás. Uma alternativa mais leve aos refrigerantes convencionais, com sabores autênticos e menos calorias.</t>
-  </si>
-  <si>
     <t>Método de preparo que evidencia as notas aromáticas dos grãos selecionados. O processo de filtragem lenta preserva os óleos essenciais e compostos bioativos, resultando em uma bebida equilibrada e com menor acidez.</t>
   </si>
   <si>
-    <t>Combinação refrescante de chá gelado com sucos naturais de frutas, unindo os antioxidantes do chá com as vitaminas das frutas selecionadas. Sem adição de açúcar, conservantes ou corantes.</t>
-  </si>
-  <si>
     <t>Blend funcional com ingredientes selecionados que auxiliam na digestão, como abacaxi, gengibre e hortelã. Uma opção refrescante que contribui para o conforto digestivo após as refeições.</t>
   </si>
   <si>
@@ -594,9 +501,6 @@
     <t>Massa leve e macia com recheio de doce de leite artesanal, preparado com redução de açúcar em relação à receita tradicional. Uma indulgência ocasional com sabor autêntico.</t>
   </si>
   <si>
-    <t>Criação especial que combina massa macia com recheios selecionados por sua qualidade e sabor distintivo. Uma opção festiva que preserva o equilíbrio entre sabor e valor nutricional.</t>
-  </si>
-  <si>
     <t>Preparado com laranja fresca, aproveitando a casca rica em óleos essenciais e a polpa cheia de vitamina C. Uma opção cítrica e refrescante com menor adição de açúcar refinado.</t>
   </si>
   <si>
@@ -612,12 +516,6 @@
     <t>Combinação clássica de chocolate e coco, fontes de flavonoides e gorduras de cadeia média respectivamente. Preparado com ingredientes selecionados e adoçado com moderação.</t>
   </si>
   <si>
-    <t>Criação exclusiva que combina diversos sabores em camadas harmoniosas, utilizando ingredientes selecionados por sua qualidade e perfil nutricional. Uma opção especial para momentos de celebração.</t>
-  </si>
-  <si>
-    <t>Combinação tradicional da broa de milho, rica em fibras, com goiabada artesanal, fonte de vitamina C e licopeno. Uma fusão de sabores autênticos com ingredientes de qualidade.</t>
-  </si>
-  <si>
     <t>Sobremesa refrescante em camadas, com abacaxi rico em bromelina, enzima digestiva natural, e creme leve preparado com ingredientes selecionados. Uma opção tropical para finalizar sua refeição.</t>
   </si>
   <si>
@@ -642,9 +540,6 @@
     <t>Sobremesa refrescante com polpa de maracujá, rica em vitaminas e compostos relaxantes naturais. A base crocante e o recheio cremoso criam um contraste perfeito de texturas e sabores.</t>
   </si>
   <si>
-    <t>Versão ampliada da nossa torta individual de maçã, mantendo o mesmo padrão de qualidade e perfil nutricional. Ideal para compartilhar em eventos e celebrações especiais.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Seleção equilibrada de queijos em uma massa leve e macia, proporcionando proteínas e cálcio de alta qualidade. Preparado com moderação de sódio e ingredientes cuidadosamente selecionados.</t>
   </si>
   <si>
@@ -742,6 +637,9 @@
   </si>
   <si>
     <t>Suco Natural com 3 Frutas</t>
+  </si>
+  <si>
+    <t>Vitamina</t>
   </si>
 </sst>
 </file>
@@ -1179,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2493752C-554F-479C-841E-F450C946588B}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,18 +1126,18 @@
         <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="9" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -1248,19 +1146,19 @@
         <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="F3" s="6">
         <v>15.9</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -1269,17 +1167,17 @@
         <v>150</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F4" s="6">
         <v>15.9</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1288,18 +1186,18 @@
         <v>149</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="6">
         <v>15.9</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -1308,18 +1206,18 @@
         <v>151</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="6">
         <v>15.9</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -1328,20 +1226,20 @@
         <v>162</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="6">
         <v>15.9</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -1350,20 +1248,20 @@
         <v>180</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="6">
         <v>14.9</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>7</v>
@@ -1374,21 +1272,21 @@
         <v>73</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="8" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
         <v>4.5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1396,21 +1294,21 @@
         <v>64</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="6">
         <v>7.9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1418,21 +1316,21 @@
         <v>69</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="8" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="6">
         <v>9.9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1440,420 +1338,417 @@
         <v>67</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="6">
         <v>9.9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="6">
-        <v>10.9</v>
+        <v>4.5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="6">
-        <v>4.5</v>
+        <v>7.9</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="6">
-        <v>7.9</v>
+        <v>13.9</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="6">
-        <v>13.9</v>
+        <v>9.9</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>193</v>
+      <c r="D17" t="s">
+        <v>106</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="6">
-        <v>9.9</v>
+        <v>6.9</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="6">
-        <v>6.9</v>
+        <v>12.9</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" t="s">
-        <v>134</v>
+      <c r="D19" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="6">
-        <v>12.9</v>
+        <v>9.9</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>12.9</v>
+      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>87</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="6">
-        <v>14.9</v>
+      <c r="F21" s="4">
+        <v>8.5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>174</v>
+      <c r="D22" t="s">
+        <v>109</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="6">
-        <v>12.9</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="F22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>196</v>
+      <c r="D23" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="6">
-        <v>5.9</v>
+        <v>3.3</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>83</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="9" t="s">
-        <v>57</v>
+      <c r="F25" s="9">
+        <v>10.9</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="4" t="s">
-        <v>157</v>
+      <c r="D26" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="6">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="F27" s="9">
+        <v>12.9</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" t="s">
-        <v>137</v>
+      <c r="D28" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="9">
-        <v>10.9</v>
+      <c r="F28" s="4">
+        <v>8.5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="6">
-        <v>2.5</v>
+        <v>12.9</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="9">
-        <v>12.9</v>
+      <c r="F30" s="6">
+        <v>13.9</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>124</v>
+        <v>20</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" t="s">
+        <v>113</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="4">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>7</v>
@@ -1861,330 +1756,333 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="6">
-        <v>12.9</v>
+      <c r="F32" s="4">
+        <v>8.5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" t="s">
-        <v>139</v>
-      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="6">
-        <v>13.9</v>
+        <v>12.9</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>20</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D34" t="s">
-        <v>140</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="4">
-        <v>7.9</v>
+      <c r="F34" s="6">
+        <v>12.9</v>
       </c>
       <c r="G34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" t="s">
-        <v>141</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="4">
-        <v>8.5</v>
+      <c r="F35" s="6">
+        <v>9.9</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="6">
-        <v>12.9</v>
+        <v>6.99</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="6">
-        <v>12.9</v>
+      <c r="F37" s="4">
+        <v>8.5</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="6">
-        <v>9.9</v>
+      <c r="F38" s="4">
+        <v>8.5</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="4" t="s">
-        <v>166</v>
+        <v>188</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="6">
-        <v>6.99</v>
+      <c r="F39" s="9">
+        <v>10.9</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" t="s">
-        <v>142</v>
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="4">
-        <v>8.5</v>
+      <c r="F40" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="4">
-        <v>8.5</v>
+      <c r="F41" s="6">
+        <v>7.9</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="9">
-        <v>10.9</v>
+        <v>12.5</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>110</v>
+        <v>19</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="9" t="s">
-        <v>58</v>
+      <c r="F43" s="4">
+        <v>8.5</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H43" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="6">
-        <v>7.9</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>30</v>
+        <v>15.9</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>160</v>
+        <v>49</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="F45" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>144</v>
+        <v>84</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="4">
-        <v>8.5</v>
+      <c r="F46" s="9">
+        <v>7.9</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="4" t="s">
         <v>145</v>
       </c>
       <c r="E47" s="2"/>
@@ -2192,7 +2090,7 @@
         <v>15.9</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>7</v>
@@ -2200,23 +2098,21 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" s="4" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="6">
         <v>15.9</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>7</v>
@@ -2224,41 +2120,41 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="4" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="9">
         <v>7.9</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="4" t="s">
-        <v>176</v>
+      <c r="D50" t="s">
+        <v>119</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="6">
         <v>15.9</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>7</v>
@@ -2266,21 +2162,21 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="4" t="s">
-        <v>177</v>
+      <c r="D51" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="6">
-        <v>15.9</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>66</v>
+      <c r="F51" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>7</v>
@@ -2288,63 +2184,67 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>135</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="4" t="s">
-        <v>162</v>
+        <v>16</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="9">
-        <v>7.9</v>
+      <c r="F52" s="4">
+        <v>9.99</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H52" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" t="s">
-        <v>146</v>
+      <c r="D53" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="6">
-        <v>15.9</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F53" s="9">
+        <v>12.9</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
-        <v>206</v>
+        <v>190</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>28</v>
+      <c r="F54" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>7</v>
@@ -2352,91 +2252,85 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="4">
-        <v>9.99</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="9">
-        <v>12.9</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H56" s="2"/>
+      <c r="F56" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>225</v>
+        <v>93</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>178</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D57" s="10"/>
       <c r="E57" s="2"/>
       <c r="F57" s="6">
         <v>15.9</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
+        <v>50</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="4">
-        <v>16.899999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>7</v>
@@ -2444,23 +2338,21 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="4">
-        <v>19.899999999999999</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>7</v>
@@ -2468,23 +2360,19 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="4">
-        <v>16.899999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>7</v>
@@ -2492,23 +2380,19 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="4">
-        <v>17.899999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>7</v>
@@ -2516,23 +2400,19 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="4">
-        <v>13.9</v>
+        <v>3.2</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>7</v>
@@ -2540,23 +2420,21 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>8</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="4">
-        <v>16.899999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>7</v>
@@ -2564,127 +2442,133 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>6</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="4">
-        <v>10.9</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>7</v>
+      <c r="F64" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="4" t="s">
-        <v>179</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="6">
-        <v>15.9</v>
-      </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2" t="s">
-        <v>7</v>
+        <v>11.5</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="6">
-        <v>15.9</v>
-      </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>7</v>
+      <c r="F67" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>22</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s">
+        <v>120</v>
+      </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="4">
-        <v>1.99</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>7</v>
+      <c r="F68" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>23</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>17</v>
+        <v>169</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="D69" t="s">
+        <v>121</v>
+      </c>
       <c r="E69" s="2"/>
-      <c r="F69" s="4">
-        <v>2.2000000000000002</v>
+      <c r="F69" s="6">
+        <v>15.9</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>7</v>
@@ -2692,59 +2576,67 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>15</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" t="s">
+        <v>122</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="F70" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H70" s="2" t="s">
+        <v>8.5</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H70" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>14</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>218</v>
+        <v>82</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="D71" t="s">
+        <v>123</v>
+      </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="4">
-        <v>7.99</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>7</v>
+      <c r="F71" s="6">
+        <v>6</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>13</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>219</v>
+        <v>173</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="D72" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>4</v>
+      <c r="F72" s="6">
+        <v>5</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>7</v>
@@ -2752,707 +2644,395 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>52</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>124</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H73" s="2" t="s">
+        <v>7.9</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H73" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="6">
-        <v>12.9</v>
-      </c>
+      <c r="F74" s="6"/>
       <c r="G74" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H74" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="6">
-        <v>11.5</v>
+        <v>9.9</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H75" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="6">
-        <v>14</v>
+        <v>9.9</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H76" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="C77" s="2"/>
-      <c r="D77" s="2" t="s">
-        <v>200</v>
+      <c r="D77" t="s">
+        <v>125</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="6">
-        <v>12.9</v>
+        <v>8.9</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H77" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="6">
-        <v>7.9</v>
+        <v>4</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H78" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D79" t="s">
-        <v>148</v>
+        <v>78</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="6">
-        <v>15.9</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>7</v>
+        <v>8.9</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H79" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D80" t="s">
-        <v>149</v>
+        <v>76</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="4">
-        <v>8.5</v>
+      <c r="F80" s="6">
+        <v>8.9</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H80" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>77</v>
+      </c>
       <c r="D81" t="s">
-        <v>150</v>
-      </c>
-      <c r="E81" s="2"/>
+        <v>127</v>
+      </c>
       <c r="F81" s="6">
-        <v>6</v>
+        <v>8.9</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H81" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E82" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="D82" t="s">
+        <v>150</v>
+      </c>
       <c r="F82" s="6">
-        <v>5</v>
+        <v>9.9</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="H82" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>18</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s">
-        <v>151</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="4">
-        <v>7.9</v>
+        <v>177</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="F83" s="6">
+        <v>19.899999999999999</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" t="s">
+        <v>55</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="9">
-        <v>16</v>
+        <v>70</v>
+      </c>
+      <c r="D84" t="s">
+        <v>167</v>
+      </c>
+      <c r="F84" s="6">
+        <v>14.9</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>55</v>
+        <v>27</v>
+      </c>
+      <c r="H84" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E85" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="F85" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="H85" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E86" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="F86" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="G86" s="5"/>
+        <v>11.5</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" s="6">
+        <v>9.9</v>
+      </c>
       <c r="G87" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="H87" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="D88" t="s">
+        <v>169</v>
+      </c>
       <c r="F88" s="6">
-        <v>9.9</v>
+        <v>12.5</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="F89" s="6">
         <v>9.9</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s">
-        <v>152</v>
-      </c>
-      <c r="E90" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="F90" s="6">
-        <v>8.9</v>
+        <v>11.5</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H90" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>204</v>
+      </c>
       <c r="D91" t="s">
-        <v>153</v>
-      </c>
-      <c r="E91" s="2"/>
+        <v>128</v>
+      </c>
       <c r="F91" s="6">
-        <v>4</v>
+        <v>8.9</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H91" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>118</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H92" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>116</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H93" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>117</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D94" t="s">
-        <v>154</v>
-      </c>
-      <c r="F94" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H94" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>79</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D95" t="s">
-        <v>181</v>
-      </c>
-      <c r="F95" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H95" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>177</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D96" s="8"/>
-      <c r="F96" s="6">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>80</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D97" t="s">
-        <v>201</v>
-      </c>
-      <c r="F97" s="6">
-        <v>14.9</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H97" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>174</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F98" s="6">
-        <v>15</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>175</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F99" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>77</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F100" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H100" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>76</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D101" t="s">
-        <v>203</v>
-      </c>
-      <c r="F101" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H101" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>78</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F102" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H102" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>176</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F103" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>93</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F104" s="6">
-        <v>135</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H104" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>112</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D105" t="s">
-        <v>155</v>
-      </c>
-      <c r="F105" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="G105" s="5"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>113</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D106" t="s">
-        <v>156</v>
-      </c>
-      <c r="F106" s="6">
-        <v>10.5</v>
-      </c>
-      <c r="G106" s="5"/>
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H106">
-    <sortCondition ref="B2:B106"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H91">
+    <sortCondition ref="B2:B91"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
